--- a/Madeta/Paletizace tray/Dokumentace/Madeta2_R1_CZ.xlsx
+++ b/Madeta/Paletizace tray/Dokumentace/Madeta2_R1_CZ.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MADETA\R2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitez\Documents\GitHub\SOURCES\Madeta\Paletizace tray\Dokumentace\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Signaly" sheetId="1" r:id="rId1"/>
     <sheet name="Chybove hlašky" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="111">
   <si>
     <t>Madeta 1</t>
   </si>
@@ -358,7 +358,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1230,6 +1230,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1248,6 +1266,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1257,29 +1320,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1299,105 +1374,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1407,26 +1383,50 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2587,11 +2587,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV149"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A71" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78:M85"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A50" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63:M63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2606,93 +2606,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80"/>
-      <c r="X1" s="80"/>
-      <c r="Y1" s="80"/>
-      <c r="Z1" s="80"/>
-      <c r="AA1" s="80"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="109"/>
+      <c r="X1" s="109"/>
+      <c r="Y1" s="109"/>
+      <c r="Z1" s="109"/>
+      <c r="AA1" s="109"/>
     </row>
     <row r="2" spans="1:27" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80"/>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
+      <c r="A2" s="109"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
+      <c r="T2" s="109"/>
+      <c r="U2" s="109"/>
+      <c r="V2" s="109"/>
+      <c r="W2" s="109"/>
+      <c r="X2" s="109"/>
+      <c r="Y2" s="109"/>
+      <c r="Z2" s="109"/>
+      <c r="AA2" s="109"/>
     </row>
     <row r="3" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="80"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="80"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="80"/>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="80"/>
-      <c r="W3" s="80"/>
-      <c r="X3" s="80"/>
-      <c r="Y3" s="80"/>
-      <c r="Z3" s="80"/>
-      <c r="AA3" s="80"/>
+      <c r="A3" s="109"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
+      <c r="T3" s="109"/>
+      <c r="U3" s="109"/>
+      <c r="V3" s="109"/>
+      <c r="W3" s="109"/>
+      <c r="X3" s="109"/>
+      <c r="Y3" s="109"/>
+      <c r="Z3" s="109"/>
+      <c r="AA3" s="109"/>
     </row>
     <row r="4" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -2782,72 +2782,72 @@
       <c r="AA6" s="4"/>
     </row>
     <row r="7" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="68"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="93"/>
       <c r="N7" s="5"/>
-      <c r="O7" s="66" t="s">
+      <c r="O7" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="67"/>
-      <c r="S7" s="67"/>
-      <c r="T7" s="67"/>
-      <c r="U7" s="67"/>
-      <c r="V7" s="67"/>
-      <c r="W7" s="67"/>
-      <c r="X7" s="67"/>
-      <c r="Y7" s="67"/>
-      <c r="Z7" s="67"/>
-      <c r="AA7" s="68"/>
+      <c r="P7" s="92"/>
+      <c r="Q7" s="92"/>
+      <c r="R7" s="92"/>
+      <c r="S7" s="92"/>
+      <c r="T7" s="92"/>
+      <c r="U7" s="92"/>
+      <c r="V7" s="92"/>
+      <c r="W7" s="92"/>
+      <c r="X7" s="92"/>
+      <c r="Y7" s="92"/>
+      <c r="Z7" s="92"/>
+      <c r="AA7" s="93"/>
     </row>
     <row r="8" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="69"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="71"/>
+      <c r="A8" s="94"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="96"/>
       <c r="N8" s="5"/>
-      <c r="O8" s="69"/>
-      <c r="P8" s="70"/>
-      <c r="Q8" s="70"/>
-      <c r="R8" s="70"/>
-      <c r="S8" s="70"/>
-      <c r="T8" s="70"/>
-      <c r="U8" s="70"/>
-      <c r="V8" s="70"/>
-      <c r="W8" s="70"/>
-      <c r="X8" s="70"/>
-      <c r="Y8" s="70"/>
-      <c r="Z8" s="70"/>
-      <c r="AA8" s="71"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="95"/>
+      <c r="Q8" s="95"/>
+      <c r="R8" s="95"/>
+      <c r="S8" s="95"/>
+      <c r="T8" s="95"/>
+      <c r="U8" s="95"/>
+      <c r="V8" s="95"/>
+      <c r="W8" s="95"/>
+      <c r="X8" s="95"/>
+      <c r="Y8" s="95"/>
+      <c r="Z8" s="95"/>
+      <c r="AA8" s="96"/>
     </row>
     <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="62"/>
+      <c r="B9" s="101"/>
       <c r="C9" s="6" t="s">
         <v>4</v>
       </c>
@@ -2860,20 +2860,20 @@
       <c r="F9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="81" t="s">
+      <c r="G9" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="82"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="90"/>
       <c r="N9" s="7"/>
-      <c r="O9" s="61" t="s">
+      <c r="O9" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="P9" s="62"/>
+      <c r="P9" s="101"/>
       <c r="Q9" s="6" t="s">
         <v>4</v>
       </c>
@@ -2886,18 +2886,18 @@
       <c r="T9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="U9" s="81" t="s">
+      <c r="U9" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="V9" s="83"/>
-      <c r="W9" s="83"/>
-      <c r="X9" s="83"/>
-      <c r="Y9" s="83"/>
-      <c r="Z9" s="83"/>
-      <c r="AA9" s="82"/>
+      <c r="V9" s="89"/>
+      <c r="W9" s="89"/>
+      <c r="X9" s="89"/>
+      <c r="Y9" s="89"/>
+      <c r="Z9" s="89"/>
+      <c r="AA9" s="90"/>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="73" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="8">
@@ -2913,15 +2913,15 @@
         <v>10</v>
       </c>
       <c r="F10" s="10"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="57"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="78"/>
       <c r="N10" s="11"/>
-      <c r="O10" s="63" t="s">
+      <c r="O10" s="73" t="s">
         <v>9</v>
       </c>
       <c r="P10" s="8">
@@ -2937,16 +2937,16 @@
         <v>10</v>
       </c>
       <c r="T10" s="10"/>
-      <c r="U10" s="55"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
-      <c r="AA10" s="57"/>
+      <c r="U10" s="76"/>
+      <c r="V10" s="77"/>
+      <c r="W10" s="77"/>
+      <c r="X10" s="77"/>
+      <c r="Y10" s="77"/>
+      <c r="Z10" s="77"/>
+      <c r="AA10" s="78"/>
     </row>
     <row r="11" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="64"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="12">
         <v>102</v>
       </c>
@@ -2960,15 +2960,15 @@
         <v>10</v>
       </c>
       <c r="F11" s="14"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="54"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="60"/>
       <c r="N11" s="11"/>
-      <c r="O11" s="64"/>
+      <c r="O11" s="74"/>
       <c r="P11" s="12">
         <v>102</v>
       </c>
@@ -2982,16 +2982,16 @@
         <v>10</v>
       </c>
       <c r="T11" s="14"/>
-      <c r="U11" s="52"/>
-      <c r="V11" s="53"/>
-      <c r="W11" s="53"/>
-      <c r="X11" s="53"/>
-      <c r="Y11" s="53"/>
-      <c r="Z11" s="53"/>
-      <c r="AA11" s="54"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="59"/>
+      <c r="W11" s="59"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="59"/>
+      <c r="Z11" s="59"/>
+      <c r="AA11" s="60"/>
     </row>
     <row r="12" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="64"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="12">
         <v>103</v>
       </c>
@@ -3005,15 +3005,15 @@
         <v>10</v>
       </c>
       <c r="F12" s="14"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="54"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="60"/>
       <c r="N12" s="11"/>
-      <c r="O12" s="64"/>
+      <c r="O12" s="74"/>
       <c r="P12" s="12">
         <v>103</v>
       </c>
@@ -3027,16 +3027,16 @@
         <v>10</v>
       </c>
       <c r="T12" s="14"/>
-      <c r="U12" s="52"/>
-      <c r="V12" s="53"/>
-      <c r="W12" s="53"/>
-      <c r="X12" s="53"/>
-      <c r="Y12" s="53"/>
-      <c r="Z12" s="53"/>
-      <c r="AA12" s="54"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="59"/>
+      <c r="W12" s="59"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="59"/>
+      <c r="Z12" s="59"/>
+      <c r="AA12" s="60"/>
     </row>
     <row r="13" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="64"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="12">
         <v>104</v>
       </c>
@@ -3050,15 +3050,15 @@
         <v>10</v>
       </c>
       <c r="F13" s="14"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="54"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="60"/>
       <c r="N13" s="11"/>
-      <c r="O13" s="64"/>
+      <c r="O13" s="74"/>
       <c r="P13" s="12">
         <v>104</v>
       </c>
@@ -3072,16 +3072,16 @@
         <v>10</v>
       </c>
       <c r="T13" s="14"/>
-      <c r="U13" s="52"/>
-      <c r="V13" s="53"/>
-      <c r="W13" s="53"/>
-      <c r="X13" s="53"/>
-      <c r="Y13" s="53"/>
-      <c r="Z13" s="53"/>
-      <c r="AA13" s="54"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="59"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="59"/>
+      <c r="Z13" s="59"/>
+      <c r="AA13" s="60"/>
     </row>
     <row r="14" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="64"/>
+      <c r="A14" s="74"/>
       <c r="B14" s="12">
         <v>105</v>
       </c>
@@ -3095,15 +3095,15 @@
         <v>10</v>
       </c>
       <c r="F14" s="14"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="54"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="60"/>
       <c r="N14" s="11"/>
-      <c r="O14" s="64"/>
+      <c r="O14" s="74"/>
       <c r="P14" s="12">
         <v>105</v>
       </c>
@@ -3117,16 +3117,16 @@
         <v>10</v>
       </c>
       <c r="T14" s="14"/>
-      <c r="U14" s="52"/>
-      <c r="V14" s="53"/>
-      <c r="W14" s="53"/>
-      <c r="X14" s="53"/>
-      <c r="Y14" s="53"/>
-      <c r="Z14" s="53"/>
-      <c r="AA14" s="54"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="59"/>
+      <c r="W14" s="59"/>
+      <c r="X14" s="59"/>
+      <c r="Y14" s="59"/>
+      <c r="Z14" s="59"/>
+      <c r="AA14" s="60"/>
     </row>
     <row r="15" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="64"/>
+      <c r="A15" s="74"/>
       <c r="B15" s="12">
         <v>106</v>
       </c>
@@ -3140,15 +3140,15 @@
         <v>10</v>
       </c>
       <c r="F15" s="14"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="54"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="60"/>
       <c r="N15" s="11"/>
-      <c r="O15" s="64"/>
+      <c r="O15" s="74"/>
       <c r="P15" s="12">
         <v>106</v>
       </c>
@@ -3162,16 +3162,16 @@
         <v>10</v>
       </c>
       <c r="T15" s="14"/>
-      <c r="U15" s="52"/>
-      <c r="V15" s="53"/>
-      <c r="W15" s="53"/>
-      <c r="X15" s="53"/>
-      <c r="Y15" s="53"/>
-      <c r="Z15" s="53"/>
-      <c r="AA15" s="54"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="59"/>
+      <c r="W15" s="59"/>
+      <c r="X15" s="59"/>
+      <c r="Y15" s="59"/>
+      <c r="Z15" s="59"/>
+      <c r="AA15" s="60"/>
     </row>
     <row r="16" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="64"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="12">
         <v>107</v>
       </c>
@@ -3185,15 +3185,15 @@
         <v>10</v>
       </c>
       <c r="F16" s="14"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="54"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="60"/>
       <c r="N16" s="11"/>
-      <c r="O16" s="64"/>
+      <c r="O16" s="74"/>
       <c r="P16" s="12">
         <v>107</v>
       </c>
@@ -3207,16 +3207,16 @@
         <v>10</v>
       </c>
       <c r="T16" s="14"/>
-      <c r="U16" s="52"/>
-      <c r="V16" s="53"/>
-      <c r="W16" s="53"/>
-      <c r="X16" s="53"/>
-      <c r="Y16" s="53"/>
-      <c r="Z16" s="53"/>
-      <c r="AA16" s="54"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="59"/>
+      <c r="W16" s="59"/>
+      <c r="X16" s="59"/>
+      <c r="Y16" s="59"/>
+      <c r="Z16" s="59"/>
+      <c r="AA16" s="60"/>
     </row>
     <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="65"/>
+      <c r="A17" s="75"/>
       <c r="B17" s="15">
         <v>108</v>
       </c>
@@ -3230,15 +3230,15 @@
         <v>10</v>
       </c>
       <c r="F17" s="17"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="60"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="63"/>
       <c r="N17" s="11"/>
-      <c r="O17" s="65"/>
+      <c r="O17" s="75"/>
       <c r="P17" s="15">
         <v>108</v>
       </c>
@@ -3252,16 +3252,16 @@
         <v>10</v>
       </c>
       <c r="T17" s="17"/>
-      <c r="U17" s="58"/>
-      <c r="V17" s="59"/>
-      <c r="W17" s="59"/>
-      <c r="X17" s="59"/>
-      <c r="Y17" s="59"/>
-      <c r="Z17" s="59"/>
-      <c r="AA17" s="60"/>
+      <c r="U17" s="61"/>
+      <c r="V17" s="62"/>
+      <c r="W17" s="62"/>
+      <c r="X17" s="62"/>
+      <c r="Y17" s="62"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="63"/>
     </row>
     <row r="18" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="73" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="8">
@@ -3277,15 +3277,15 @@
         <v>10</v>
       </c>
       <c r="F18" s="10"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="57"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="78"/>
       <c r="N18" s="11"/>
-      <c r="O18" s="63" t="s">
+      <c r="O18" s="73" t="s">
         <v>9</v>
       </c>
       <c r="P18" s="8">
@@ -3301,16 +3301,16 @@
         <v>10</v>
       </c>
       <c r="T18" s="10"/>
-      <c r="U18" s="55"/>
-      <c r="V18" s="56"/>
-      <c r="W18" s="56"/>
-      <c r="X18" s="56"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="56"/>
-      <c r="AA18" s="57"/>
+      <c r="U18" s="76"/>
+      <c r="V18" s="77"/>
+      <c r="W18" s="77"/>
+      <c r="X18" s="77"/>
+      <c r="Y18" s="77"/>
+      <c r="Z18" s="77"/>
+      <c r="AA18" s="78"/>
     </row>
     <row r="19" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="64"/>
+      <c r="A19" s="74"/>
       <c r="B19" s="12">
         <v>110</v>
       </c>
@@ -3324,15 +3324,15 @@
         <v>10</v>
       </c>
       <c r="F19" s="14"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="54"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="60"/>
       <c r="N19" s="11"/>
-      <c r="O19" s="64"/>
+      <c r="O19" s="74"/>
       <c r="P19" s="12">
         <v>110</v>
       </c>
@@ -3346,16 +3346,16 @@
         <v>10</v>
       </c>
       <c r="T19" s="14"/>
-      <c r="U19" s="52"/>
-      <c r="V19" s="53"/>
-      <c r="W19" s="53"/>
-      <c r="X19" s="53"/>
-      <c r="Y19" s="53"/>
-      <c r="Z19" s="53"/>
-      <c r="AA19" s="54"/>
+      <c r="U19" s="58"/>
+      <c r="V19" s="59"/>
+      <c r="W19" s="59"/>
+      <c r="X19" s="59"/>
+      <c r="Y19" s="59"/>
+      <c r="Z19" s="59"/>
+      <c r="AA19" s="60"/>
     </row>
     <row r="20" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="64"/>
+      <c r="A20" s="74"/>
       <c r="B20" s="12">
         <v>111</v>
       </c>
@@ -3369,15 +3369,15 @@
         <v>10</v>
       </c>
       <c r="F20" s="14"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="54"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="60"/>
       <c r="N20" s="11"/>
-      <c r="O20" s="64"/>
+      <c r="O20" s="74"/>
       <c r="P20" s="12">
         <v>111</v>
       </c>
@@ -3391,16 +3391,16 @@
         <v>10</v>
       </c>
       <c r="T20" s="14"/>
-      <c r="U20" s="52"/>
-      <c r="V20" s="53"/>
-      <c r="W20" s="53"/>
-      <c r="X20" s="53"/>
-      <c r="Y20" s="53"/>
-      <c r="Z20" s="53"/>
-      <c r="AA20" s="54"/>
+      <c r="U20" s="58"/>
+      <c r="V20" s="59"/>
+      <c r="W20" s="59"/>
+      <c r="X20" s="59"/>
+      <c r="Y20" s="59"/>
+      <c r="Z20" s="59"/>
+      <c r="AA20" s="60"/>
     </row>
     <row r="21" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="64"/>
+      <c r="A21" s="74"/>
       <c r="B21" s="12">
         <v>112</v>
       </c>
@@ -3414,15 +3414,15 @@
         <v>10</v>
       </c>
       <c r="F21" s="14"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="54"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="60"/>
       <c r="N21" s="11"/>
-      <c r="O21" s="64"/>
+      <c r="O21" s="74"/>
       <c r="P21" s="12">
         <v>112</v>
       </c>
@@ -3436,16 +3436,16 @@
         <v>10</v>
       </c>
       <c r="T21" s="14"/>
-      <c r="U21" s="52"/>
-      <c r="V21" s="53"/>
-      <c r="W21" s="53"/>
-      <c r="X21" s="53"/>
-      <c r="Y21" s="53"/>
-      <c r="Z21" s="53"/>
-      <c r="AA21" s="54"/>
+      <c r="U21" s="58"/>
+      <c r="V21" s="59"/>
+      <c r="W21" s="59"/>
+      <c r="X21" s="59"/>
+      <c r="Y21" s="59"/>
+      <c r="Z21" s="59"/>
+      <c r="AA21" s="60"/>
     </row>
     <row r="22" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="64"/>
+      <c r="A22" s="74"/>
       <c r="B22" s="12">
         <v>113</v>
       </c>
@@ -3459,15 +3459,15 @@
         <v>10</v>
       </c>
       <c r="F22" s="14"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="54"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="60"/>
       <c r="N22" s="11"/>
-      <c r="O22" s="64"/>
+      <c r="O22" s="74"/>
       <c r="P22" s="12">
         <v>113</v>
       </c>
@@ -3481,16 +3481,16 @@
         <v>10</v>
       </c>
       <c r="T22" s="14"/>
-      <c r="U22" s="52"/>
-      <c r="V22" s="53"/>
-      <c r="W22" s="53"/>
-      <c r="X22" s="53"/>
-      <c r="Y22" s="53"/>
-      <c r="Z22" s="53"/>
-      <c r="AA22" s="54"/>
+      <c r="U22" s="58"/>
+      <c r="V22" s="59"/>
+      <c r="W22" s="59"/>
+      <c r="X22" s="59"/>
+      <c r="Y22" s="59"/>
+      <c r="Z22" s="59"/>
+      <c r="AA22" s="60"/>
     </row>
     <row r="23" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="64"/>
+      <c r="A23" s="74"/>
       <c r="B23" s="12">
         <v>114</v>
       </c>
@@ -3504,15 +3504,15 @@
         <v>10</v>
       </c>
       <c r="F23" s="14"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="54"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="60"/>
       <c r="N23" s="11"/>
-      <c r="O23" s="64"/>
+      <c r="O23" s="74"/>
       <c r="P23" s="12">
         <v>114</v>
       </c>
@@ -3526,16 +3526,16 @@
         <v>10</v>
       </c>
       <c r="T23" s="14"/>
-      <c r="U23" s="52"/>
-      <c r="V23" s="53"/>
-      <c r="W23" s="53"/>
-      <c r="X23" s="53"/>
-      <c r="Y23" s="53"/>
-      <c r="Z23" s="53"/>
-      <c r="AA23" s="54"/>
+      <c r="U23" s="58"/>
+      <c r="V23" s="59"/>
+      <c r="W23" s="59"/>
+      <c r="X23" s="59"/>
+      <c r="Y23" s="59"/>
+      <c r="Z23" s="59"/>
+      <c r="AA23" s="60"/>
     </row>
     <row r="24" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="64"/>
+      <c r="A24" s="74"/>
       <c r="B24" s="12">
         <v>115</v>
       </c>
@@ -3549,15 +3549,15 @@
         <v>10</v>
       </c>
       <c r="F24" s="14"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="54"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="60"/>
       <c r="N24" s="11"/>
-      <c r="O24" s="64"/>
+      <c r="O24" s="74"/>
       <c r="P24" s="12">
         <v>115</v>
       </c>
@@ -3571,16 +3571,16 @@
         <v>10</v>
       </c>
       <c r="T24" s="14"/>
-      <c r="U24" s="52"/>
-      <c r="V24" s="53"/>
-      <c r="W24" s="53"/>
-      <c r="X24" s="53"/>
-      <c r="Y24" s="53"/>
-      <c r="Z24" s="53"/>
-      <c r="AA24" s="54"/>
+      <c r="U24" s="58"/>
+      <c r="V24" s="59"/>
+      <c r="W24" s="59"/>
+      <c r="X24" s="59"/>
+      <c r="Y24" s="59"/>
+      <c r="Z24" s="59"/>
+      <c r="AA24" s="60"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="65"/>
+      <c r="A25" s="75"/>
       <c r="B25" s="15">
         <v>116</v>
       </c>
@@ -3594,15 +3594,15 @@
         <v>10</v>
       </c>
       <c r="F25" s="17"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="60"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="63"/>
       <c r="N25" s="11"/>
-      <c r="O25" s="65"/>
+      <c r="O25" s="75"/>
       <c r="P25" s="15">
         <v>116</v>
       </c>
@@ -3616,16 +3616,16 @@
         <v>10</v>
       </c>
       <c r="T25" s="17"/>
-      <c r="U25" s="58"/>
-      <c r="V25" s="59"/>
-      <c r="W25" s="59"/>
-      <c r="X25" s="59"/>
-      <c r="Y25" s="59"/>
-      <c r="Z25" s="59"/>
-      <c r="AA25" s="60"/>
+      <c r="U25" s="61"/>
+      <c r="V25" s="62"/>
+      <c r="W25" s="62"/>
+      <c r="X25" s="62"/>
+      <c r="Y25" s="62"/>
+      <c r="Z25" s="62"/>
+      <c r="AA25" s="63"/>
     </row>
     <row r="26" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="63" t="s">
+      <c r="A26" s="73" t="s">
         <v>9</v>
       </c>
       <c r="B26" s="8">
@@ -3641,15 +3641,15 @@
         <v>10</v>
       </c>
       <c r="F26" s="10"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="57"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="78"/>
       <c r="N26" s="11"/>
-      <c r="O26" s="63" t="s">
+      <c r="O26" s="73" t="s">
         <v>9</v>
       </c>
       <c r="P26" s="8">
@@ -3665,16 +3665,16 @@
         <v>10</v>
       </c>
       <c r="T26" s="10"/>
-      <c r="U26" s="55"/>
-      <c r="V26" s="56"/>
-      <c r="W26" s="56"/>
-      <c r="X26" s="56"/>
-      <c r="Y26" s="56"/>
-      <c r="Z26" s="56"/>
-      <c r="AA26" s="57"/>
+      <c r="U26" s="76"/>
+      <c r="V26" s="77"/>
+      <c r="W26" s="77"/>
+      <c r="X26" s="77"/>
+      <c r="Y26" s="77"/>
+      <c r="Z26" s="77"/>
+      <c r="AA26" s="78"/>
     </row>
     <row r="27" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="64"/>
+      <c r="A27" s="74"/>
       <c r="B27" s="12">
         <v>118</v>
       </c>
@@ -3688,15 +3688,15 @@
         <v>10</v>
       </c>
       <c r="F27" s="14"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="54"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="60"/>
       <c r="N27" s="11"/>
-      <c r="O27" s="64"/>
+      <c r="O27" s="74"/>
       <c r="P27" s="12">
         <v>118</v>
       </c>
@@ -3710,16 +3710,16 @@
         <v>10</v>
       </c>
       <c r="T27" s="14"/>
-      <c r="U27" s="52"/>
-      <c r="V27" s="53"/>
-      <c r="W27" s="53"/>
-      <c r="X27" s="53"/>
-      <c r="Y27" s="53"/>
-      <c r="Z27" s="53"/>
-      <c r="AA27" s="54"/>
+      <c r="U27" s="58"/>
+      <c r="V27" s="59"/>
+      <c r="W27" s="59"/>
+      <c r="X27" s="59"/>
+      <c r="Y27" s="59"/>
+      <c r="Z27" s="59"/>
+      <c r="AA27" s="60"/>
     </row>
     <row r="28" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="64"/>
+      <c r="A28" s="74"/>
       <c r="B28" s="12">
         <v>119</v>
       </c>
@@ -3733,15 +3733,15 @@
         <v>10</v>
       </c>
       <c r="F28" s="14"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="54"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="60"/>
       <c r="N28" s="11"/>
-      <c r="O28" s="64"/>
+      <c r="O28" s="74"/>
       <c r="P28" s="12">
         <v>119</v>
       </c>
@@ -3755,16 +3755,16 @@
         <v>10</v>
       </c>
       <c r="T28" s="14"/>
-      <c r="U28" s="52"/>
-      <c r="V28" s="53"/>
-      <c r="W28" s="53"/>
-      <c r="X28" s="53"/>
-      <c r="Y28" s="53"/>
-      <c r="Z28" s="53"/>
-      <c r="AA28" s="54"/>
+      <c r="U28" s="58"/>
+      <c r="V28" s="59"/>
+      <c r="W28" s="59"/>
+      <c r="X28" s="59"/>
+      <c r="Y28" s="59"/>
+      <c r="Z28" s="59"/>
+      <c r="AA28" s="60"/>
     </row>
     <row r="29" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="64"/>
+      <c r="A29" s="74"/>
       <c r="B29" s="12">
         <v>120</v>
       </c>
@@ -3778,15 +3778,15 @@
         <v>10</v>
       </c>
       <c r="F29" s="14"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="54"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="60"/>
       <c r="N29" s="11"/>
-      <c r="O29" s="64"/>
+      <c r="O29" s="74"/>
       <c r="P29" s="12">
         <v>120</v>
       </c>
@@ -3800,16 +3800,16 @@
         <v>10</v>
       </c>
       <c r="T29" s="14"/>
-      <c r="U29" s="52"/>
-      <c r="V29" s="53"/>
-      <c r="W29" s="53"/>
-      <c r="X29" s="53"/>
-      <c r="Y29" s="53"/>
-      <c r="Z29" s="53"/>
-      <c r="AA29" s="54"/>
+      <c r="U29" s="58"/>
+      <c r="V29" s="59"/>
+      <c r="W29" s="59"/>
+      <c r="X29" s="59"/>
+      <c r="Y29" s="59"/>
+      <c r="Z29" s="59"/>
+      <c r="AA29" s="60"/>
     </row>
     <row r="30" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="64"/>
+      <c r="A30" s="74"/>
       <c r="B30" s="12">
         <v>121</v>
       </c>
@@ -3823,15 +3823,15 @@
         <v>10</v>
       </c>
       <c r="F30" s="14"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="54"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="60"/>
       <c r="N30" s="11"/>
-      <c r="O30" s="64"/>
+      <c r="O30" s="74"/>
       <c r="P30" s="12">
         <v>121</v>
       </c>
@@ -3845,16 +3845,16 @@
         <v>10</v>
       </c>
       <c r="T30" s="14"/>
-      <c r="U30" s="52"/>
-      <c r="V30" s="53"/>
-      <c r="W30" s="53"/>
-      <c r="X30" s="53"/>
-      <c r="Y30" s="53"/>
-      <c r="Z30" s="53"/>
-      <c r="AA30" s="54"/>
+      <c r="U30" s="58"/>
+      <c r="V30" s="59"/>
+      <c r="W30" s="59"/>
+      <c r="X30" s="59"/>
+      <c r="Y30" s="59"/>
+      <c r="Z30" s="59"/>
+      <c r="AA30" s="60"/>
     </row>
     <row r="31" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="64"/>
+      <c r="A31" s="74"/>
       <c r="B31" s="12">
         <v>122</v>
       </c>
@@ -3868,15 +3868,15 @@
         <v>10</v>
       </c>
       <c r="F31" s="14"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="54"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="60"/>
       <c r="N31" s="11"/>
-      <c r="O31" s="64"/>
+      <c r="O31" s="74"/>
       <c r="P31" s="12">
         <v>122</v>
       </c>
@@ -3890,16 +3890,16 @@
         <v>10</v>
       </c>
       <c r="T31" s="14"/>
-      <c r="U31" s="52"/>
-      <c r="V31" s="53"/>
-      <c r="W31" s="53"/>
-      <c r="X31" s="53"/>
-      <c r="Y31" s="53"/>
-      <c r="Z31" s="53"/>
-      <c r="AA31" s="54"/>
+      <c r="U31" s="58"/>
+      <c r="V31" s="59"/>
+      <c r="W31" s="59"/>
+      <c r="X31" s="59"/>
+      <c r="Y31" s="59"/>
+      <c r="Z31" s="59"/>
+      <c r="AA31" s="60"/>
     </row>
     <row r="32" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="64"/>
+      <c r="A32" s="74"/>
       <c r="B32" s="12">
         <v>123</v>
       </c>
@@ -3913,15 +3913,15 @@
         <v>10</v>
       </c>
       <c r="F32" s="14"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="54"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="60"/>
       <c r="N32" s="11"/>
-      <c r="O32" s="64"/>
+      <c r="O32" s="74"/>
       <c r="P32" s="12">
         <v>123</v>
       </c>
@@ -3935,16 +3935,16 @@
         <v>10</v>
       </c>
       <c r="T32" s="14"/>
-      <c r="U32" s="52"/>
-      <c r="V32" s="53"/>
-      <c r="W32" s="53"/>
-      <c r="X32" s="53"/>
-      <c r="Y32" s="53"/>
-      <c r="Z32" s="53"/>
-      <c r="AA32" s="54"/>
+      <c r="U32" s="58"/>
+      <c r="V32" s="59"/>
+      <c r="W32" s="59"/>
+      <c r="X32" s="59"/>
+      <c r="Y32" s="59"/>
+      <c r="Z32" s="59"/>
+      <c r="AA32" s="60"/>
     </row>
     <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="65"/>
+      <c r="A33" s="75"/>
       <c r="B33" s="15">
         <v>124</v>
       </c>
@@ -3958,15 +3958,15 @@
         <v>10</v>
       </c>
       <c r="F33" s="17"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="60"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="63"/>
       <c r="N33" s="11"/>
-      <c r="O33" s="65"/>
+      <c r="O33" s="75"/>
       <c r="P33" s="15">
         <v>124</v>
       </c>
@@ -3980,13 +3980,13 @@
         <v>10</v>
       </c>
       <c r="T33" s="17"/>
-      <c r="U33" s="58"/>
-      <c r="V33" s="59"/>
-      <c r="W33" s="59"/>
-      <c r="X33" s="59"/>
-      <c r="Y33" s="59"/>
-      <c r="Z33" s="59"/>
-      <c r="AA33" s="60"/>
+      <c r="U33" s="61"/>
+      <c r="V33" s="62"/>
+      <c r="W33" s="62"/>
+      <c r="X33" s="62"/>
+      <c r="Y33" s="62"/>
+      <c r="Z33" s="62"/>
+      <c r="AA33" s="63"/>
     </row>
     <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
@@ -4018,72 +4018,72 @@
       <c r="AA34" s="18"/>
     </row>
     <row r="35" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="66" t="s">
+      <c r="A35" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="67"/>
-      <c r="C35" s="67"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="67"/>
-      <c r="H35" s="67"/>
-      <c r="I35" s="67"/>
-      <c r="J35" s="67"/>
-      <c r="K35" s="67"/>
-      <c r="L35" s="67"/>
-      <c r="M35" s="68"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="92"/>
+      <c r="L35" s="92"/>
+      <c r="M35" s="93"/>
       <c r="N35" s="5"/>
-      <c r="O35" s="66" t="s">
+      <c r="O35" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="P35" s="67"/>
-      <c r="Q35" s="67"/>
-      <c r="R35" s="67"/>
-      <c r="S35" s="67"/>
-      <c r="T35" s="67"/>
-      <c r="U35" s="67"/>
-      <c r="V35" s="67"/>
-      <c r="W35" s="67"/>
-      <c r="X35" s="67"/>
-      <c r="Y35" s="67"/>
-      <c r="Z35" s="67"/>
-      <c r="AA35" s="68"/>
+      <c r="P35" s="92"/>
+      <c r="Q35" s="92"/>
+      <c r="R35" s="92"/>
+      <c r="S35" s="92"/>
+      <c r="T35" s="92"/>
+      <c r="U35" s="92"/>
+      <c r="V35" s="92"/>
+      <c r="W35" s="92"/>
+      <c r="X35" s="92"/>
+      <c r="Y35" s="92"/>
+      <c r="Z35" s="92"/>
+      <c r="AA35" s="93"/>
     </row>
     <row r="36" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="69"/>
-      <c r="B36" s="70"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="70"/>
-      <c r="I36" s="70"/>
-      <c r="J36" s="70"/>
-      <c r="K36" s="70"/>
-      <c r="L36" s="70"/>
-      <c r="M36" s="71"/>
+      <c r="A36" s="94"/>
+      <c r="B36" s="95"/>
+      <c r="C36" s="95"/>
+      <c r="D36" s="95"/>
+      <c r="E36" s="95"/>
+      <c r="F36" s="95"/>
+      <c r="G36" s="95"/>
+      <c r="H36" s="95"/>
+      <c r="I36" s="95"/>
+      <c r="J36" s="95"/>
+      <c r="K36" s="95"/>
+      <c r="L36" s="95"/>
+      <c r="M36" s="96"/>
       <c r="N36" s="5"/>
-      <c r="O36" s="69"/>
-      <c r="P36" s="70"/>
-      <c r="Q36" s="70"/>
-      <c r="R36" s="70"/>
-      <c r="S36" s="70"/>
-      <c r="T36" s="70"/>
-      <c r="U36" s="70"/>
-      <c r="V36" s="70"/>
-      <c r="W36" s="70"/>
-      <c r="X36" s="70"/>
-      <c r="Y36" s="70"/>
-      <c r="Z36" s="70"/>
-      <c r="AA36" s="71"/>
+      <c r="O36" s="94"/>
+      <c r="P36" s="95"/>
+      <c r="Q36" s="95"/>
+      <c r="R36" s="95"/>
+      <c r="S36" s="95"/>
+      <c r="T36" s="95"/>
+      <c r="U36" s="95"/>
+      <c r="V36" s="95"/>
+      <c r="W36" s="95"/>
+      <c r="X36" s="95"/>
+      <c r="Y36" s="95"/>
+      <c r="Z36" s="95"/>
+      <c r="AA36" s="96"/>
     </row>
     <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="81" t="s">
+      <c r="A37" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="82"/>
+      <c r="B37" s="90"/>
       <c r="C37" s="6" t="s">
         <v>4</v>
       </c>
@@ -4096,20 +4096,20 @@
       <c r="F37" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G37" s="81" t="s">
+      <c r="G37" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="H37" s="83"/>
-      <c r="I37" s="83"/>
-      <c r="J37" s="83"/>
-      <c r="K37" s="83"/>
-      <c r="L37" s="83"/>
-      <c r="M37" s="82"/>
+      <c r="H37" s="89"/>
+      <c r="I37" s="89"/>
+      <c r="J37" s="89"/>
+      <c r="K37" s="89"/>
+      <c r="L37" s="89"/>
+      <c r="M37" s="90"/>
       <c r="N37" s="7"/>
-      <c r="O37" s="81" t="s">
+      <c r="O37" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="P37" s="82"/>
+      <c r="P37" s="90"/>
       <c r="Q37" s="6" t="s">
         <v>4</v>
       </c>
@@ -4122,18 +4122,18 @@
       <c r="T37" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="U37" s="81" t="s">
+      <c r="U37" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="V37" s="83"/>
-      <c r="W37" s="83"/>
-      <c r="X37" s="83"/>
-      <c r="Y37" s="83"/>
-      <c r="Z37" s="83"/>
-      <c r="AA37" s="82"/>
+      <c r="V37" s="89"/>
+      <c r="W37" s="89"/>
+      <c r="X37" s="89"/>
+      <c r="Y37" s="89"/>
+      <c r="Z37" s="89"/>
+      <c r="AA37" s="90"/>
     </row>
     <row r="38" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="63" t="s">
+      <c r="A38" s="73" t="s">
         <v>13</v>
       </c>
       <c r="B38" s="8">
@@ -4151,15 +4151,15 @@
       <c r="F38" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="55"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="56"/>
-      <c r="K38" s="56"/>
-      <c r="L38" s="56"/>
-      <c r="M38" s="57"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="77"/>
+      <c r="I38" s="77"/>
+      <c r="J38" s="77"/>
+      <c r="K38" s="77"/>
+      <c r="L38" s="77"/>
+      <c r="M38" s="78"/>
       <c r="N38" s="11"/>
-      <c r="O38" s="63" t="s">
+      <c r="O38" s="73" t="s">
         <v>15</v>
       </c>
       <c r="P38" s="8">
@@ -4177,16 +4177,16 @@
       <c r="T38" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="U38" s="55"/>
-      <c r="V38" s="56"/>
-      <c r="W38" s="56"/>
-      <c r="X38" s="56"/>
-      <c r="Y38" s="56"/>
-      <c r="Z38" s="56"/>
-      <c r="AA38" s="57"/>
+      <c r="U38" s="76"/>
+      <c r="V38" s="77"/>
+      <c r="W38" s="77"/>
+      <c r="X38" s="77"/>
+      <c r="Y38" s="77"/>
+      <c r="Z38" s="77"/>
+      <c r="AA38" s="78"/>
     </row>
     <row r="39" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="64"/>
+      <c r="A39" s="74"/>
       <c r="B39" s="12">
         <v>202</v>
       </c>
@@ -4202,15 +4202,15 @@
       <c r="F39" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="52"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="53"/>
-      <c r="M39" s="54"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="59"/>
+      <c r="M39" s="60"/>
       <c r="N39" s="11"/>
-      <c r="O39" s="64"/>
+      <c r="O39" s="74"/>
       <c r="P39" s="12">
         <v>202</v>
       </c>
@@ -4226,16 +4226,16 @@
       <c r="T39" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="U39" s="52"/>
-      <c r="V39" s="53"/>
-      <c r="W39" s="53"/>
-      <c r="X39" s="53"/>
-      <c r="Y39" s="53"/>
-      <c r="Z39" s="53"/>
-      <c r="AA39" s="54"/>
+      <c r="U39" s="58"/>
+      <c r="V39" s="59"/>
+      <c r="W39" s="59"/>
+      <c r="X39" s="59"/>
+      <c r="Y39" s="59"/>
+      <c r="Z39" s="59"/>
+      <c r="AA39" s="60"/>
     </row>
     <row r="40" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="64"/>
+      <c r="A40" s="74"/>
       <c r="B40" s="12">
         <v>203</v>
       </c>
@@ -4251,15 +4251,15 @@
       <c r="F40" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G40" s="52"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="54"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="59"/>
+      <c r="M40" s="60"/>
       <c r="N40" s="11"/>
-      <c r="O40" s="64"/>
+      <c r="O40" s="74"/>
       <c r="P40" s="12">
         <v>203</v>
       </c>
@@ -4275,16 +4275,16 @@
       <c r="T40" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="U40" s="52"/>
-      <c r="V40" s="53"/>
-      <c r="W40" s="53"/>
-      <c r="X40" s="53"/>
-      <c r="Y40" s="53"/>
-      <c r="Z40" s="53"/>
-      <c r="AA40" s="54"/>
+      <c r="U40" s="58"/>
+      <c r="V40" s="59"/>
+      <c r="W40" s="59"/>
+      <c r="X40" s="59"/>
+      <c r="Y40" s="59"/>
+      <c r="Z40" s="59"/>
+      <c r="AA40" s="60"/>
     </row>
     <row r="41" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="64"/>
+      <c r="A41" s="74"/>
       <c r="B41" s="12">
         <v>204</v>
       </c>
@@ -4300,15 +4300,15 @@
       <c r="F41" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G41" s="52"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="53"/>
-      <c r="M41" s="54"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="59"/>
+      <c r="M41" s="60"/>
       <c r="N41" s="11"/>
-      <c r="O41" s="64"/>
+      <c r="O41" s="74"/>
       <c r="P41" s="12">
         <v>204</v>
       </c>
@@ -4324,16 +4324,16 @@
       <c r="T41" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="U41" s="52"/>
-      <c r="V41" s="53"/>
-      <c r="W41" s="53"/>
-      <c r="X41" s="53"/>
-      <c r="Y41" s="53"/>
-      <c r="Z41" s="53"/>
-      <c r="AA41" s="54"/>
+      <c r="U41" s="58"/>
+      <c r="V41" s="59"/>
+      <c r="W41" s="59"/>
+      <c r="X41" s="59"/>
+      <c r="Y41" s="59"/>
+      <c r="Z41" s="59"/>
+      <c r="AA41" s="60"/>
     </row>
     <row r="42" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="64"/>
+      <c r="A42" s="74"/>
       <c r="B42" s="12">
         <v>205</v>
       </c>
@@ -4349,15 +4349,15 @@
       <c r="F42" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G42" s="52"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
-      <c r="M42" s="54"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="59"/>
+      <c r="M42" s="60"/>
       <c r="N42" s="11"/>
-      <c r="O42" s="64"/>
+      <c r="O42" s="74"/>
       <c r="P42" s="12">
         <v>205</v>
       </c>
@@ -4373,16 +4373,16 @@
       <c r="T42" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="U42" s="52"/>
-      <c r="V42" s="53"/>
-      <c r="W42" s="53"/>
-      <c r="X42" s="53"/>
-      <c r="Y42" s="53"/>
-      <c r="Z42" s="53"/>
-      <c r="AA42" s="54"/>
+      <c r="U42" s="58"/>
+      <c r="V42" s="59"/>
+      <c r="W42" s="59"/>
+      <c r="X42" s="59"/>
+      <c r="Y42" s="59"/>
+      <c r="Z42" s="59"/>
+      <c r="AA42" s="60"/>
     </row>
     <row r="43" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="64"/>
+      <c r="A43" s="74"/>
       <c r="B43" s="12">
         <v>206</v>
       </c>
@@ -4398,15 +4398,15 @@
       <c r="F43" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G43" s="52"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="53"/>
-      <c r="M43" s="54"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="59"/>
+      <c r="J43" s="59"/>
+      <c r="K43" s="59"/>
+      <c r="L43" s="59"/>
+      <c r="M43" s="60"/>
       <c r="N43" s="11"/>
-      <c r="O43" s="64"/>
+      <c r="O43" s="74"/>
       <c r="P43" s="12">
         <v>206</v>
       </c>
@@ -4422,16 +4422,16 @@
       <c r="T43" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="U43" s="52"/>
-      <c r="V43" s="53"/>
-      <c r="W43" s="53"/>
-      <c r="X43" s="53"/>
-      <c r="Y43" s="53"/>
-      <c r="Z43" s="53"/>
-      <c r="AA43" s="54"/>
+      <c r="U43" s="58"/>
+      <c r="V43" s="59"/>
+      <c r="W43" s="59"/>
+      <c r="X43" s="59"/>
+      <c r="Y43" s="59"/>
+      <c r="Z43" s="59"/>
+      <c r="AA43" s="60"/>
     </row>
     <row r="44" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="64"/>
+      <c r="A44" s="74"/>
       <c r="B44" s="12">
         <v>207</v>
       </c>
@@ -4447,15 +4447,15 @@
       <c r="F44" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G44" s="52"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="53"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="53"/>
-      <c r="M44" s="54"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="59"/>
+      <c r="K44" s="59"/>
+      <c r="L44" s="59"/>
+      <c r="M44" s="60"/>
       <c r="N44" s="11"/>
-      <c r="O44" s="64"/>
+      <c r="O44" s="74"/>
       <c r="P44" s="12">
         <v>207</v>
       </c>
@@ -4471,16 +4471,16 @@
       <c r="T44" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="U44" s="52"/>
-      <c r="V44" s="53"/>
-      <c r="W44" s="53"/>
-      <c r="X44" s="53"/>
-      <c r="Y44" s="53"/>
-      <c r="Z44" s="53"/>
-      <c r="AA44" s="54"/>
+      <c r="U44" s="58"/>
+      <c r="V44" s="59"/>
+      <c r="W44" s="59"/>
+      <c r="X44" s="59"/>
+      <c r="Y44" s="59"/>
+      <c r="Z44" s="59"/>
+      <c r="AA44" s="60"/>
     </row>
     <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="65"/>
+      <c r="A45" s="75"/>
       <c r="B45" s="15">
         <v>208</v>
       </c>
@@ -4496,15 +4496,15 @@
       <c r="F45" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G45" s="58"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="59"/>
-      <c r="J45" s="59"/>
-      <c r="K45" s="59"/>
-      <c r="L45" s="59"/>
-      <c r="M45" s="60"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="62"/>
+      <c r="I45" s="62"/>
+      <c r="J45" s="62"/>
+      <c r="K45" s="62"/>
+      <c r="L45" s="62"/>
+      <c r="M45" s="63"/>
       <c r="N45" s="11"/>
-      <c r="O45" s="65"/>
+      <c r="O45" s="75"/>
       <c r="P45" s="15">
         <v>208</v>
       </c>
@@ -4520,16 +4520,16 @@
       <c r="T45" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="U45" s="58"/>
-      <c r="V45" s="59"/>
-      <c r="W45" s="59"/>
-      <c r="X45" s="59"/>
-      <c r="Y45" s="59"/>
-      <c r="Z45" s="59"/>
-      <c r="AA45" s="60"/>
+      <c r="U45" s="61"/>
+      <c r="V45" s="62"/>
+      <c r="W45" s="62"/>
+      <c r="X45" s="62"/>
+      <c r="Y45" s="62"/>
+      <c r="Z45" s="62"/>
+      <c r="AA45" s="63"/>
     </row>
     <row r="46" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="63" t="s">
+      <c r="A46" s="73" t="s">
         <v>13</v>
       </c>
       <c r="B46" s="8">
@@ -4547,15 +4547,15 @@
       <c r="F46" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="G46" s="55"/>
-      <c r="H46" s="56"/>
-      <c r="I46" s="56"/>
-      <c r="J46" s="56"/>
-      <c r="K46" s="56"/>
-      <c r="L46" s="56"/>
-      <c r="M46" s="57"/>
+      <c r="G46" s="76"/>
+      <c r="H46" s="77"/>
+      <c r="I46" s="77"/>
+      <c r="J46" s="77"/>
+      <c r="K46" s="77"/>
+      <c r="L46" s="77"/>
+      <c r="M46" s="78"/>
       <c r="N46" s="11"/>
-      <c r="O46" s="63" t="s">
+      <c r="O46" s="73" t="s">
         <v>15</v>
       </c>
       <c r="P46" s="8">
@@ -4573,16 +4573,16 @@
       <c r="T46" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="U46" s="55"/>
-      <c r="V46" s="56"/>
-      <c r="W46" s="56"/>
-      <c r="X46" s="56"/>
-      <c r="Y46" s="56"/>
-      <c r="Z46" s="56"/>
-      <c r="AA46" s="57"/>
+      <c r="U46" s="76"/>
+      <c r="V46" s="77"/>
+      <c r="W46" s="77"/>
+      <c r="X46" s="77"/>
+      <c r="Y46" s="77"/>
+      <c r="Z46" s="77"/>
+      <c r="AA46" s="78"/>
     </row>
     <row r="47" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="64"/>
+      <c r="A47" s="74"/>
       <c r="B47" s="12">
         <v>210</v>
       </c>
@@ -4598,15 +4598,15 @@
       <c r="F47" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="G47" s="52"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="53"/>
-      <c r="K47" s="53"/>
-      <c r="L47" s="53"/>
-      <c r="M47" s="54"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="59"/>
+      <c r="J47" s="59"/>
+      <c r="K47" s="59"/>
+      <c r="L47" s="59"/>
+      <c r="M47" s="60"/>
       <c r="N47" s="11"/>
-      <c r="O47" s="64"/>
+      <c r="O47" s="74"/>
       <c r="P47" s="12">
         <v>210</v>
       </c>
@@ -4622,16 +4622,16 @@
       <c r="T47" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="U47" s="52"/>
-      <c r="V47" s="53"/>
-      <c r="W47" s="53"/>
-      <c r="X47" s="53"/>
-      <c r="Y47" s="53"/>
-      <c r="Z47" s="53"/>
-      <c r="AA47" s="54"/>
+      <c r="U47" s="58"/>
+      <c r="V47" s="59"/>
+      <c r="W47" s="59"/>
+      <c r="X47" s="59"/>
+      <c r="Y47" s="59"/>
+      <c r="Z47" s="59"/>
+      <c r="AA47" s="60"/>
     </row>
     <row r="48" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="64"/>
+      <c r="A48" s="74"/>
       <c r="B48" s="12">
         <v>211</v>
       </c>
@@ -4647,15 +4647,15 @@
       <c r="F48" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G48" s="52"/>
-      <c r="H48" s="53"/>
-      <c r="I48" s="53"/>
-      <c r="J48" s="53"/>
-      <c r="K48" s="53"/>
-      <c r="L48" s="53"/>
-      <c r="M48" s="54"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="59"/>
+      <c r="L48" s="59"/>
+      <c r="M48" s="60"/>
       <c r="N48" s="11"/>
-      <c r="O48" s="64"/>
+      <c r="O48" s="74"/>
       <c r="P48" s="12">
         <v>211</v>
       </c>
@@ -4671,16 +4671,16 @@
       <c r="T48" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="U48" s="52"/>
-      <c r="V48" s="53"/>
-      <c r="W48" s="53"/>
-      <c r="X48" s="53"/>
-      <c r="Y48" s="53"/>
-      <c r="Z48" s="53"/>
-      <c r="AA48" s="54"/>
+      <c r="U48" s="58"/>
+      <c r="V48" s="59"/>
+      <c r="W48" s="59"/>
+      <c r="X48" s="59"/>
+      <c r="Y48" s="59"/>
+      <c r="Z48" s="59"/>
+      <c r="AA48" s="60"/>
     </row>
     <row r="49" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="64"/>
+      <c r="A49" s="74"/>
       <c r="B49" s="12">
         <v>212</v>
       </c>
@@ -4696,15 +4696,15 @@
       <c r="F49" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G49" s="52"/>
-      <c r="H49" s="53"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="53"/>
-      <c r="K49" s="53"/>
-      <c r="L49" s="53"/>
-      <c r="M49" s="54"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="59"/>
+      <c r="J49" s="59"/>
+      <c r="K49" s="59"/>
+      <c r="L49" s="59"/>
+      <c r="M49" s="60"/>
       <c r="N49" s="11"/>
-      <c r="O49" s="64"/>
+      <c r="O49" s="74"/>
       <c r="P49" s="12">
         <v>212</v>
       </c>
@@ -4720,16 +4720,16 @@
       <c r="T49" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="U49" s="52"/>
-      <c r="V49" s="53"/>
-      <c r="W49" s="53"/>
-      <c r="X49" s="53"/>
-      <c r="Y49" s="53"/>
-      <c r="Z49" s="53"/>
-      <c r="AA49" s="54"/>
+      <c r="U49" s="58"/>
+      <c r="V49" s="59"/>
+      <c r="W49" s="59"/>
+      <c r="X49" s="59"/>
+      <c r="Y49" s="59"/>
+      <c r="Z49" s="59"/>
+      <c r="AA49" s="60"/>
     </row>
     <row r="50" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="64"/>
+      <c r="A50" s="74"/>
       <c r="B50" s="12">
         <v>213</v>
       </c>
@@ -4745,15 +4745,15 @@
       <c r="F50" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G50" s="52"/>
-      <c r="H50" s="53"/>
-      <c r="I50" s="53"/>
-      <c r="J50" s="53"/>
-      <c r="K50" s="53"/>
-      <c r="L50" s="53"/>
-      <c r="M50" s="54"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="59"/>
+      <c r="I50" s="59"/>
+      <c r="J50" s="59"/>
+      <c r="K50" s="59"/>
+      <c r="L50" s="59"/>
+      <c r="M50" s="60"/>
       <c r="N50" s="11"/>
-      <c r="O50" s="64"/>
+      <c r="O50" s="74"/>
       <c r="P50" s="12">
         <v>213</v>
       </c>
@@ -4769,18 +4769,18 @@
       <c r="T50" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="U50" s="78" t="s">
+      <c r="U50" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="V50" s="53"/>
-      <c r="W50" s="53"/>
-      <c r="X50" s="53"/>
-      <c r="Y50" s="53"/>
-      <c r="Z50" s="53"/>
-      <c r="AA50" s="54"/>
+      <c r="V50" s="59"/>
+      <c r="W50" s="59"/>
+      <c r="X50" s="59"/>
+      <c r="Y50" s="59"/>
+      <c r="Z50" s="59"/>
+      <c r="AA50" s="60"/>
     </row>
     <row r="51" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="64"/>
+      <c r="A51" s="74"/>
       <c r="B51" s="12">
         <v>214</v>
       </c>
@@ -4796,15 +4796,15 @@
       <c r="F51" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G51" s="52"/>
-      <c r="H51" s="53"/>
-      <c r="I51" s="53"/>
-      <c r="J51" s="53"/>
-      <c r="K51" s="53"/>
-      <c r="L51" s="53"/>
-      <c r="M51" s="54"/>
+      <c r="G51" s="58"/>
+      <c r="H51" s="59"/>
+      <c r="I51" s="59"/>
+      <c r="J51" s="59"/>
+      <c r="K51" s="59"/>
+      <c r="L51" s="59"/>
+      <c r="M51" s="60"/>
       <c r="N51" s="11"/>
-      <c r="O51" s="64"/>
+      <c r="O51" s="74"/>
       <c r="P51" s="12">
         <v>214</v>
       </c>
@@ -4820,16 +4820,16 @@
       <c r="T51" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="U51" s="52"/>
-      <c r="V51" s="53"/>
-      <c r="W51" s="53"/>
-      <c r="X51" s="53"/>
-      <c r="Y51" s="53"/>
-      <c r="Z51" s="53"/>
-      <c r="AA51" s="54"/>
+      <c r="U51" s="58"/>
+      <c r="V51" s="59"/>
+      <c r="W51" s="59"/>
+      <c r="X51" s="59"/>
+      <c r="Y51" s="59"/>
+      <c r="Z51" s="59"/>
+      <c r="AA51" s="60"/>
     </row>
     <row r="52" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="64"/>
+      <c r="A52" s="74"/>
       <c r="B52" s="12">
         <v>215</v>
       </c>
@@ -4845,15 +4845,15 @@
       <c r="F52" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G52" s="52"/>
-      <c r="H52" s="53"/>
-      <c r="I52" s="53"/>
-      <c r="J52" s="53"/>
-      <c r="K52" s="53"/>
-      <c r="L52" s="53"/>
-      <c r="M52" s="54"/>
+      <c r="G52" s="58"/>
+      <c r="H52" s="59"/>
+      <c r="I52" s="59"/>
+      <c r="J52" s="59"/>
+      <c r="K52" s="59"/>
+      <c r="L52" s="59"/>
+      <c r="M52" s="60"/>
       <c r="N52" s="11"/>
-      <c r="O52" s="64"/>
+      <c r="O52" s="74"/>
       <c r="P52" s="12">
         <v>215</v>
       </c>
@@ -4869,16 +4869,16 @@
       <c r="T52" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="U52" s="52"/>
-      <c r="V52" s="53"/>
-      <c r="W52" s="53"/>
-      <c r="X52" s="53"/>
-      <c r="Y52" s="53"/>
-      <c r="Z52" s="53"/>
-      <c r="AA52" s="54"/>
+      <c r="U52" s="58"/>
+      <c r="V52" s="59"/>
+      <c r="W52" s="59"/>
+      <c r="X52" s="59"/>
+      <c r="Y52" s="59"/>
+      <c r="Z52" s="59"/>
+      <c r="AA52" s="60"/>
     </row>
     <row r="53" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="65"/>
+      <c r="A53" s="75"/>
       <c r="B53" s="15">
         <v>216</v>
       </c>
@@ -4894,15 +4894,15 @@
       <c r="F53" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G53" s="58"/>
-      <c r="H53" s="59"/>
-      <c r="I53" s="59"/>
-      <c r="J53" s="59"/>
-      <c r="K53" s="59"/>
-      <c r="L53" s="59"/>
-      <c r="M53" s="60"/>
+      <c r="G53" s="61"/>
+      <c r="H53" s="62"/>
+      <c r="I53" s="62"/>
+      <c r="J53" s="62"/>
+      <c r="K53" s="62"/>
+      <c r="L53" s="62"/>
+      <c r="M53" s="63"/>
       <c r="N53" s="11"/>
-      <c r="O53" s="65"/>
+      <c r="O53" s="75"/>
       <c r="P53" s="15">
         <v>216</v>
       </c>
@@ -4918,16 +4918,16 @@
       <c r="T53" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="U53" s="58"/>
-      <c r="V53" s="59"/>
-      <c r="W53" s="59"/>
-      <c r="X53" s="59"/>
-      <c r="Y53" s="59"/>
-      <c r="Z53" s="59"/>
-      <c r="AA53" s="60"/>
+      <c r="U53" s="61"/>
+      <c r="V53" s="62"/>
+      <c r="W53" s="62"/>
+      <c r="X53" s="62"/>
+      <c r="Y53" s="62"/>
+      <c r="Z53" s="62"/>
+      <c r="AA53" s="63"/>
     </row>
     <row r="54" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="63" t="s">
+      <c r="A54" s="73" t="s">
         <v>13</v>
       </c>
       <c r="B54" s="8">
@@ -4945,15 +4945,15 @@
       <c r="F54" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G54" s="55"/>
-      <c r="H54" s="56"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="56"/>
-      <c r="K54" s="56"/>
-      <c r="L54" s="56"/>
-      <c r="M54" s="57"/>
+      <c r="G54" s="76"/>
+      <c r="H54" s="77"/>
+      <c r="I54" s="77"/>
+      <c r="J54" s="77"/>
+      <c r="K54" s="77"/>
+      <c r="L54" s="77"/>
+      <c r="M54" s="78"/>
       <c r="N54" s="26"/>
-      <c r="O54" s="63" t="s">
+      <c r="O54" s="73" t="s">
         <v>15</v>
       </c>
       <c r="P54" s="8">
@@ -4971,18 +4971,18 @@
       <c r="T54" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="U54" s="78" t="s">
+      <c r="U54" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="V54" s="53"/>
-      <c r="W54" s="53"/>
-      <c r="X54" s="53"/>
-      <c r="Y54" s="53"/>
-      <c r="Z54" s="53"/>
-      <c r="AA54" s="54"/>
+      <c r="V54" s="59"/>
+      <c r="W54" s="59"/>
+      <c r="X54" s="59"/>
+      <c r="Y54" s="59"/>
+      <c r="Z54" s="59"/>
+      <c r="AA54" s="60"/>
     </row>
     <row r="55" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="64"/>
+      <c r="A55" s="74"/>
       <c r="B55" s="12">
         <v>218</v>
       </c>
@@ -4998,15 +4998,15 @@
       <c r="F55" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="G55" s="52"/>
-      <c r="H55" s="53"/>
-      <c r="I55" s="53"/>
-      <c r="J55" s="53"/>
-      <c r="K55" s="53"/>
-      <c r="L55" s="53"/>
-      <c r="M55" s="54"/>
+      <c r="G55" s="58"/>
+      <c r="H55" s="59"/>
+      <c r="I55" s="59"/>
+      <c r="J55" s="59"/>
+      <c r="K55" s="59"/>
+      <c r="L55" s="59"/>
+      <c r="M55" s="60"/>
       <c r="N55" s="26"/>
-      <c r="O55" s="64"/>
+      <c r="O55" s="74"/>
       <c r="P55" s="12">
         <v>218</v>
       </c>
@@ -5022,18 +5022,18 @@
       <c r="T55" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="U55" s="78" t="s">
+      <c r="U55" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="V55" s="53"/>
-      <c r="W55" s="53"/>
-      <c r="X55" s="53"/>
-      <c r="Y55" s="53"/>
-      <c r="Z55" s="53"/>
-      <c r="AA55" s="54"/>
+      <c r="V55" s="59"/>
+      <c r="W55" s="59"/>
+      <c r="X55" s="59"/>
+      <c r="Y55" s="59"/>
+      <c r="Z55" s="59"/>
+      <c r="AA55" s="60"/>
     </row>
     <row r="56" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="64"/>
+      <c r="A56" s="74"/>
       <c r="B56" s="12">
         <v>219</v>
       </c>
@@ -5049,15 +5049,15 @@
       <c r="F56" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="G56" s="52"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="53"/>
-      <c r="K56" s="53"/>
-      <c r="L56" s="53"/>
-      <c r="M56" s="54"/>
+      <c r="G56" s="58"/>
+      <c r="H56" s="59"/>
+      <c r="I56" s="59"/>
+      <c r="J56" s="59"/>
+      <c r="K56" s="59"/>
+      <c r="L56" s="59"/>
+      <c r="M56" s="60"/>
       <c r="N56" s="26"/>
-      <c r="O56" s="64"/>
+      <c r="O56" s="74"/>
       <c r="P56" s="12">
         <v>219</v>
       </c>
@@ -5073,18 +5073,18 @@
       <c r="T56" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="U56" s="78" t="s">
+      <c r="U56" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="V56" s="53"/>
-      <c r="W56" s="53"/>
-      <c r="X56" s="53"/>
-      <c r="Y56" s="53"/>
-      <c r="Z56" s="53"/>
-      <c r="AA56" s="54"/>
+      <c r="V56" s="59"/>
+      <c r="W56" s="59"/>
+      <c r="X56" s="59"/>
+      <c r="Y56" s="59"/>
+      <c r="Z56" s="59"/>
+      <c r="AA56" s="60"/>
     </row>
     <row r="57" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="64"/>
+      <c r="A57" s="74"/>
       <c r="B57" s="12">
         <v>220</v>
       </c>
@@ -5100,15 +5100,15 @@
       <c r="F57" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="G57" s="52"/>
-      <c r="H57" s="53"/>
-      <c r="I57" s="53"/>
-      <c r="J57" s="53"/>
-      <c r="K57" s="53"/>
-      <c r="L57" s="53"/>
-      <c r="M57" s="54"/>
+      <c r="G57" s="58"/>
+      <c r="H57" s="59"/>
+      <c r="I57" s="59"/>
+      <c r="J57" s="59"/>
+      <c r="K57" s="59"/>
+      <c r="L57" s="59"/>
+      <c r="M57" s="60"/>
       <c r="N57" s="26"/>
-      <c r="O57" s="64"/>
+      <c r="O57" s="74"/>
       <c r="P57" s="12">
         <v>220</v>
       </c>
@@ -5124,18 +5124,18 @@
       <c r="T57" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="U57" s="84" t="s">
+      <c r="U57" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="V57" s="85"/>
-      <c r="W57" s="85"/>
-      <c r="X57" s="85"/>
-      <c r="Y57" s="85"/>
-      <c r="Z57" s="85"/>
-      <c r="AA57" s="86"/>
+      <c r="V57" s="71"/>
+      <c r="W57" s="71"/>
+      <c r="X57" s="71"/>
+      <c r="Y57" s="71"/>
+      <c r="Z57" s="71"/>
+      <c r="AA57" s="72"/>
     </row>
     <row r="58" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="64"/>
+      <c r="A58" s="74"/>
       <c r="B58" s="12">
         <v>221</v>
       </c>
@@ -5149,15 +5149,15 @@
         <v>10</v>
       </c>
       <c r="F58" s="14"/>
-      <c r="G58" s="52"/>
-      <c r="H58" s="53"/>
-      <c r="I58" s="53"/>
-      <c r="J58" s="53"/>
-      <c r="K58" s="53"/>
-      <c r="L58" s="53"/>
-      <c r="M58" s="54"/>
+      <c r="G58" s="58"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="59"/>
+      <c r="J58" s="59"/>
+      <c r="K58" s="59"/>
+      <c r="L58" s="59"/>
+      <c r="M58" s="60"/>
       <c r="N58" s="26"/>
-      <c r="O58" s="64"/>
+      <c r="O58" s="74"/>
       <c r="P58" s="12">
         <v>221</v>
       </c>
@@ -5173,18 +5173,18 @@
       <c r="T58" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U58" s="88" t="s">
+      <c r="U58" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="V58" s="89"/>
-      <c r="W58" s="89"/>
-      <c r="X58" s="89"/>
-      <c r="Y58" s="89"/>
-      <c r="Z58" s="89"/>
-      <c r="AA58" s="90"/>
+      <c r="V58" s="68"/>
+      <c r="W58" s="68"/>
+      <c r="X58" s="68"/>
+      <c r="Y58" s="68"/>
+      <c r="Z58" s="68"/>
+      <c r="AA58" s="69"/>
     </row>
     <row r="59" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="64"/>
+      <c r="A59" s="74"/>
       <c r="B59" s="12">
         <v>222</v>
       </c>
@@ -5198,15 +5198,15 @@
         <v>10</v>
       </c>
       <c r="F59" s="14"/>
-      <c r="G59" s="52"/>
-      <c r="H59" s="53"/>
-      <c r="I59" s="53"/>
-      <c r="J59" s="53"/>
-      <c r="K59" s="53"/>
-      <c r="L59" s="53"/>
-      <c r="M59" s="54"/>
+      <c r="G59" s="58"/>
+      <c r="H59" s="59"/>
+      <c r="I59" s="59"/>
+      <c r="J59" s="59"/>
+      <c r="K59" s="59"/>
+      <c r="L59" s="59"/>
+      <c r="M59" s="60"/>
       <c r="N59" s="26"/>
-      <c r="O59" s="64"/>
+      <c r="O59" s="74"/>
       <c r="P59" s="12">
         <v>222</v>
       </c>
@@ -5222,18 +5222,18 @@
       <c r="T59" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="U59" s="78" t="s">
+      <c r="U59" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="V59" s="53"/>
-      <c r="W59" s="53"/>
-      <c r="X59" s="53"/>
-      <c r="Y59" s="53"/>
-      <c r="Z59" s="53"/>
-      <c r="AA59" s="54"/>
+      <c r="V59" s="59"/>
+      <c r="W59" s="59"/>
+      <c r="X59" s="59"/>
+      <c r="Y59" s="59"/>
+      <c r="Z59" s="59"/>
+      <c r="AA59" s="60"/>
     </row>
     <row r="60" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="64"/>
+      <c r="A60" s="74"/>
       <c r="B60" s="12">
         <v>223</v>
       </c>
@@ -5247,15 +5247,15 @@
         <v>10</v>
       </c>
       <c r="F60" s="14"/>
-      <c r="G60" s="52"/>
-      <c r="H60" s="53"/>
-      <c r="I60" s="53"/>
-      <c r="J60" s="53"/>
-      <c r="K60" s="53"/>
-      <c r="L60" s="53"/>
-      <c r="M60" s="54"/>
+      <c r="G60" s="58"/>
+      <c r="H60" s="59"/>
+      <c r="I60" s="59"/>
+      <c r="J60" s="59"/>
+      <c r="K60" s="59"/>
+      <c r="L60" s="59"/>
+      <c r="M60" s="60"/>
       <c r="N60" s="26"/>
-      <c r="O60" s="64"/>
+      <c r="O60" s="74"/>
       <c r="P60" s="12">
         <v>223</v>
       </c>
@@ -5271,18 +5271,18 @@
       <c r="T60" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="U60" s="78" t="s">
+      <c r="U60" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="V60" s="53"/>
-      <c r="W60" s="53"/>
-      <c r="X60" s="53"/>
-      <c r="Y60" s="53"/>
-      <c r="Z60" s="53"/>
-      <c r="AA60" s="54"/>
+      <c r="V60" s="59"/>
+      <c r="W60" s="59"/>
+      <c r="X60" s="59"/>
+      <c r="Y60" s="59"/>
+      <c r="Z60" s="59"/>
+      <c r="AA60" s="60"/>
     </row>
     <row r="61" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="65"/>
+      <c r="A61" s="75"/>
       <c r="B61" s="15">
         <v>224</v>
       </c>
@@ -5296,15 +5296,15 @@
         <v>10</v>
       </c>
       <c r="F61" s="17"/>
-      <c r="G61" s="58"/>
-      <c r="H61" s="59"/>
-      <c r="I61" s="59"/>
-      <c r="J61" s="59"/>
-      <c r="K61" s="59"/>
-      <c r="L61" s="59"/>
-      <c r="M61" s="60"/>
+      <c r="G61" s="61"/>
+      <c r="H61" s="62"/>
+      <c r="I61" s="62"/>
+      <c r="J61" s="62"/>
+      <c r="K61" s="62"/>
+      <c r="L61" s="62"/>
+      <c r="M61" s="63"/>
       <c r="N61" s="26"/>
-      <c r="O61" s="65"/>
+      <c r="O61" s="75"/>
       <c r="P61" s="15">
         <v>224</v>
       </c>
@@ -5320,18 +5320,18 @@
       <c r="T61" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="U61" s="87" t="s">
+      <c r="U61" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="V61" s="59"/>
-      <c r="W61" s="59"/>
-      <c r="X61" s="59"/>
-      <c r="Y61" s="59"/>
-      <c r="Z61" s="59"/>
-      <c r="AA61" s="60"/>
-    </row>
-    <row r="62" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="63" t="s">
+      <c r="V61" s="62"/>
+      <c r="W61" s="62"/>
+      <c r="X61" s="62"/>
+      <c r="Y61" s="62"/>
+      <c r="Z61" s="62"/>
+      <c r="AA61" s="63"/>
+    </row>
+    <row r="62" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="73" t="s">
         <v>13</v>
       </c>
       <c r="B62" s="8">
@@ -5346,16 +5346,18 @@
       <c r="E62" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F62" s="10"/>
-      <c r="G62" s="55"/>
-      <c r="H62" s="56"/>
-      <c r="I62" s="56"/>
-      <c r="J62" s="56"/>
-      <c r="K62" s="56"/>
-      <c r="L62" s="56"/>
-      <c r="M62" s="57"/>
+      <c r="F62" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G62" s="76"/>
+      <c r="H62" s="77"/>
+      <c r="I62" s="77"/>
+      <c r="J62" s="77"/>
+      <c r="K62" s="77"/>
+      <c r="L62" s="77"/>
+      <c r="M62" s="78"/>
       <c r="N62" s="26"/>
-      <c r="O62" s="63" t="s">
+      <c r="O62" s="73" t="s">
         <v>15</v>
       </c>
       <c r="P62" s="8">
@@ -5371,16 +5373,16 @@
         <v>10</v>
       </c>
       <c r="T62" s="10"/>
-      <c r="U62" s="55"/>
-      <c r="V62" s="56"/>
-      <c r="W62" s="56"/>
-      <c r="X62" s="56"/>
-      <c r="Y62" s="56"/>
-      <c r="Z62" s="56"/>
-      <c r="AA62" s="57"/>
+      <c r="U62" s="76"/>
+      <c r="V62" s="77"/>
+      <c r="W62" s="77"/>
+      <c r="X62" s="77"/>
+      <c r="Y62" s="77"/>
+      <c r="Z62" s="77"/>
+      <c r="AA62" s="78"/>
     </row>
     <row r="63" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="64"/>
+      <c r="A63" s="74"/>
       <c r="B63" s="12">
         <v>226</v>
       </c>
@@ -5393,16 +5395,18 @@
       <c r="E63" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F63" s="14"/>
-      <c r="G63" s="52"/>
-      <c r="H63" s="53"/>
-      <c r="I63" s="53"/>
-      <c r="J63" s="53"/>
-      <c r="K63" s="53"/>
-      <c r="L63" s="53"/>
-      <c r="M63" s="54"/>
+      <c r="F63" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G63" s="58"/>
+      <c r="H63" s="59"/>
+      <c r="I63" s="59"/>
+      <c r="J63" s="59"/>
+      <c r="K63" s="59"/>
+      <c r="L63" s="59"/>
+      <c r="M63" s="60"/>
       <c r="N63" s="26"/>
-      <c r="O63" s="64"/>
+      <c r="O63" s="74"/>
       <c r="P63" s="12">
         <v>226</v>
       </c>
@@ -5416,16 +5420,16 @@
         <v>10</v>
       </c>
       <c r="T63" s="14"/>
-      <c r="U63" s="52"/>
-      <c r="V63" s="53"/>
-      <c r="W63" s="53"/>
-      <c r="X63" s="53"/>
-      <c r="Y63" s="53"/>
-      <c r="Z63" s="53"/>
-      <c r="AA63" s="54"/>
+      <c r="U63" s="58"/>
+      <c r="V63" s="59"/>
+      <c r="W63" s="59"/>
+      <c r="X63" s="59"/>
+      <c r="Y63" s="59"/>
+      <c r="Z63" s="59"/>
+      <c r="AA63" s="60"/>
     </row>
     <row r="64" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="64"/>
+      <c r="A64" s="74"/>
       <c r="B64" s="12">
         <v>227</v>
       </c>
@@ -5439,15 +5443,15 @@
         <v>10</v>
       </c>
       <c r="F64" s="14"/>
-      <c r="G64" s="52"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="53"/>
-      <c r="J64" s="53"/>
-      <c r="K64" s="53"/>
-      <c r="L64" s="53"/>
-      <c r="M64" s="54"/>
+      <c r="G64" s="58"/>
+      <c r="H64" s="59"/>
+      <c r="I64" s="59"/>
+      <c r="J64" s="59"/>
+      <c r="K64" s="59"/>
+      <c r="L64" s="59"/>
+      <c r="M64" s="60"/>
       <c r="N64" s="26"/>
-      <c r="O64" s="64"/>
+      <c r="O64" s="74"/>
       <c r="P64" s="12">
         <v>227</v>
       </c>
@@ -5461,16 +5465,16 @@
         <v>10</v>
       </c>
       <c r="T64" s="25"/>
-      <c r="U64" s="78"/>
-      <c r="V64" s="53"/>
-      <c r="W64" s="53"/>
-      <c r="X64" s="53"/>
-      <c r="Y64" s="53"/>
-      <c r="Z64" s="53"/>
-      <c r="AA64" s="54"/>
+      <c r="U64" s="80"/>
+      <c r="V64" s="59"/>
+      <c r="W64" s="59"/>
+      <c r="X64" s="59"/>
+      <c r="Y64" s="59"/>
+      <c r="Z64" s="59"/>
+      <c r="AA64" s="60"/>
     </row>
     <row r="65" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="64"/>
+      <c r="A65" s="74"/>
       <c r="B65" s="12">
         <v>228</v>
       </c>
@@ -5484,15 +5488,15 @@
         <v>10</v>
       </c>
       <c r="F65" s="14"/>
-      <c r="G65" s="52"/>
-      <c r="H65" s="53"/>
-      <c r="I65" s="53"/>
-      <c r="J65" s="53"/>
-      <c r="K65" s="53"/>
-      <c r="L65" s="53"/>
-      <c r="M65" s="54"/>
+      <c r="G65" s="58"/>
+      <c r="H65" s="59"/>
+      <c r="I65" s="59"/>
+      <c r="J65" s="59"/>
+      <c r="K65" s="59"/>
+      <c r="L65" s="59"/>
+      <c r="M65" s="60"/>
       <c r="N65" s="26"/>
-      <c r="O65" s="64"/>
+      <c r="O65" s="74"/>
       <c r="P65" s="12">
         <v>228</v>
       </c>
@@ -5506,16 +5510,16 @@
         <v>10</v>
       </c>
       <c r="T65" s="25"/>
-      <c r="U65" s="78"/>
-      <c r="V65" s="53"/>
-      <c r="W65" s="53"/>
-      <c r="X65" s="53"/>
-      <c r="Y65" s="53"/>
-      <c r="Z65" s="53"/>
-      <c r="AA65" s="54"/>
+      <c r="U65" s="80"/>
+      <c r="V65" s="59"/>
+      <c r="W65" s="59"/>
+      <c r="X65" s="59"/>
+      <c r="Y65" s="59"/>
+      <c r="Z65" s="59"/>
+      <c r="AA65" s="60"/>
     </row>
     <row r="66" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="64"/>
+      <c r="A66" s="74"/>
       <c r="B66" s="12">
         <v>229</v>
       </c>
@@ -5529,15 +5533,15 @@
         <v>10</v>
       </c>
       <c r="F66" s="14"/>
-      <c r="G66" s="52"/>
-      <c r="H66" s="53"/>
-      <c r="I66" s="53"/>
-      <c r="J66" s="53"/>
-      <c r="K66" s="53"/>
-      <c r="L66" s="53"/>
-      <c r="M66" s="54"/>
+      <c r="G66" s="58"/>
+      <c r="H66" s="59"/>
+      <c r="I66" s="59"/>
+      <c r="J66" s="59"/>
+      <c r="K66" s="59"/>
+      <c r="L66" s="59"/>
+      <c r="M66" s="60"/>
       <c r="N66" s="26"/>
-      <c r="O66" s="64"/>
+      <c r="O66" s="74"/>
       <c r="P66" s="12">
         <v>229</v>
       </c>
@@ -5551,16 +5555,16 @@
         <v>10</v>
       </c>
       <c r="T66" s="25"/>
-      <c r="U66" s="78"/>
-      <c r="V66" s="53"/>
-      <c r="W66" s="53"/>
-      <c r="X66" s="53"/>
-      <c r="Y66" s="53"/>
-      <c r="Z66" s="53"/>
-      <c r="AA66" s="54"/>
+      <c r="U66" s="80"/>
+      <c r="V66" s="59"/>
+      <c r="W66" s="59"/>
+      <c r="X66" s="59"/>
+      <c r="Y66" s="59"/>
+      <c r="Z66" s="59"/>
+      <c r="AA66" s="60"/>
     </row>
     <row r="67" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="64"/>
+      <c r="A67" s="74"/>
       <c r="B67" s="12">
         <v>230</v>
       </c>
@@ -5574,15 +5578,15 @@
         <v>10</v>
       </c>
       <c r="F67" s="14"/>
-      <c r="G67" s="52"/>
-      <c r="H67" s="53"/>
-      <c r="I67" s="53"/>
-      <c r="J67" s="53"/>
-      <c r="K67" s="53"/>
-      <c r="L67" s="53"/>
-      <c r="M67" s="54"/>
+      <c r="G67" s="58"/>
+      <c r="H67" s="59"/>
+      <c r="I67" s="59"/>
+      <c r="J67" s="59"/>
+      <c r="K67" s="59"/>
+      <c r="L67" s="59"/>
+      <c r="M67" s="60"/>
       <c r="N67" s="26"/>
-      <c r="O67" s="64"/>
+      <c r="O67" s="74"/>
       <c r="P67" s="12">
         <v>230</v>
       </c>
@@ -5596,16 +5600,16 @@
         <v>10</v>
       </c>
       <c r="T67" s="48"/>
-      <c r="U67" s="84"/>
-      <c r="V67" s="85"/>
-      <c r="W67" s="85"/>
-      <c r="X67" s="85"/>
-      <c r="Y67" s="85"/>
-      <c r="Z67" s="85"/>
-      <c r="AA67" s="86"/>
+      <c r="U67" s="70"/>
+      <c r="V67" s="71"/>
+      <c r="W67" s="71"/>
+      <c r="X67" s="71"/>
+      <c r="Y67" s="71"/>
+      <c r="Z67" s="71"/>
+      <c r="AA67" s="72"/>
     </row>
     <row r="68" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="64"/>
+      <c r="A68" s="74"/>
       <c r="B68" s="12">
         <v>231</v>
       </c>
@@ -5619,15 +5623,15 @@
         <v>10</v>
       </c>
       <c r="F68" s="14"/>
-      <c r="G68" s="52"/>
-      <c r="H68" s="53"/>
-      <c r="I68" s="53"/>
-      <c r="J68" s="53"/>
-      <c r="K68" s="53"/>
-      <c r="L68" s="53"/>
-      <c r="M68" s="54"/>
+      <c r="G68" s="58"/>
+      <c r="H68" s="59"/>
+      <c r="I68" s="59"/>
+      <c r="J68" s="59"/>
+      <c r="K68" s="59"/>
+      <c r="L68" s="59"/>
+      <c r="M68" s="60"/>
       <c r="N68" s="26"/>
-      <c r="O68" s="64"/>
+      <c r="O68" s="74"/>
       <c r="P68" s="12">
         <v>231</v>
       </c>
@@ -5641,16 +5645,16 @@
         <v>10</v>
       </c>
       <c r="T68" s="47"/>
-      <c r="U68" s="91"/>
-      <c r="V68" s="89"/>
-      <c r="W68" s="89"/>
-      <c r="X68" s="89"/>
-      <c r="Y68" s="89"/>
-      <c r="Z68" s="89"/>
-      <c r="AA68" s="90"/>
+      <c r="U68" s="67"/>
+      <c r="V68" s="68"/>
+      <c r="W68" s="68"/>
+      <c r="X68" s="68"/>
+      <c r="Y68" s="68"/>
+      <c r="Z68" s="68"/>
+      <c r="AA68" s="69"/>
     </row>
     <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="65"/>
+      <c r="A69" s="75"/>
       <c r="B69" s="15">
         <v>232</v>
       </c>
@@ -5664,15 +5668,15 @@
         <v>10</v>
       </c>
       <c r="F69" s="17"/>
-      <c r="G69" s="58"/>
-      <c r="H69" s="59"/>
-      <c r="I69" s="59"/>
-      <c r="J69" s="59"/>
-      <c r="K69" s="59"/>
-      <c r="L69" s="59"/>
-      <c r="M69" s="60"/>
+      <c r="G69" s="61"/>
+      <c r="H69" s="62"/>
+      <c r="I69" s="62"/>
+      <c r="J69" s="62"/>
+      <c r="K69" s="62"/>
+      <c r="L69" s="62"/>
+      <c r="M69" s="63"/>
       <c r="N69" s="26"/>
-      <c r="O69" s="65"/>
+      <c r="O69" s="75"/>
       <c r="P69" s="15">
         <v>232</v>
       </c>
@@ -5686,16 +5690,16 @@
         <v>10</v>
       </c>
       <c r="T69" s="17"/>
-      <c r="U69" s="58"/>
-      <c r="V69" s="59"/>
-      <c r="W69" s="59"/>
-      <c r="X69" s="59"/>
-      <c r="Y69" s="59"/>
-      <c r="Z69" s="59"/>
-      <c r="AA69" s="60"/>
+      <c r="U69" s="61"/>
+      <c r="V69" s="62"/>
+      <c r="W69" s="62"/>
+      <c r="X69" s="62"/>
+      <c r="Y69" s="62"/>
+      <c r="Z69" s="62"/>
+      <c r="AA69" s="63"/>
     </row>
     <row r="70" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="63" t="s">
+      <c r="A70" s="73" t="s">
         <v>13</v>
       </c>
       <c r="B70" s="8">
@@ -5711,15 +5715,15 @@
         <v>10</v>
       </c>
       <c r="F70" s="10"/>
-      <c r="G70" s="55"/>
-      <c r="H70" s="56"/>
-      <c r="I70" s="56"/>
-      <c r="J70" s="56"/>
-      <c r="K70" s="56"/>
-      <c r="L70" s="56"/>
-      <c r="M70" s="57"/>
+      <c r="G70" s="76"/>
+      <c r="H70" s="77"/>
+      <c r="I70" s="77"/>
+      <c r="J70" s="77"/>
+      <c r="K70" s="77"/>
+      <c r="L70" s="77"/>
+      <c r="M70" s="78"/>
       <c r="N70" s="26"/>
-      <c r="O70" s="63" t="s">
+      <c r="O70" s="73" t="s">
         <v>9</v>
       </c>
       <c r="P70" s="8">
@@ -5735,16 +5739,16 @@
         <v>10</v>
       </c>
       <c r="T70" s="10"/>
-      <c r="U70" s="55"/>
-      <c r="V70" s="56"/>
-      <c r="W70" s="56"/>
-      <c r="X70" s="56"/>
-      <c r="Y70" s="56"/>
-      <c r="Z70" s="56"/>
-      <c r="AA70" s="57"/>
+      <c r="U70" s="76"/>
+      <c r="V70" s="77"/>
+      <c r="W70" s="77"/>
+      <c r="X70" s="77"/>
+      <c r="Y70" s="77"/>
+      <c r="Z70" s="77"/>
+      <c r="AA70" s="78"/>
     </row>
     <row r="71" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="64"/>
+      <c r="A71" s="74"/>
       <c r="B71" s="12">
         <v>234</v>
       </c>
@@ -5758,15 +5762,15 @@
         <v>10</v>
       </c>
       <c r="F71" s="14"/>
-      <c r="G71" s="52"/>
-      <c r="H71" s="53"/>
-      <c r="I71" s="53"/>
-      <c r="J71" s="53"/>
-      <c r="K71" s="53"/>
-      <c r="L71" s="53"/>
-      <c r="M71" s="54"/>
+      <c r="G71" s="58"/>
+      <c r="H71" s="59"/>
+      <c r="I71" s="59"/>
+      <c r="J71" s="59"/>
+      <c r="K71" s="59"/>
+      <c r="L71" s="59"/>
+      <c r="M71" s="60"/>
       <c r="N71" s="26"/>
-      <c r="O71" s="64"/>
+      <c r="O71" s="74"/>
       <c r="P71" s="12">
         <v>234</v>
       </c>
@@ -5780,16 +5784,16 @@
         <v>10</v>
       </c>
       <c r="T71" s="14"/>
-      <c r="U71" s="52"/>
-      <c r="V71" s="53"/>
-      <c r="W71" s="53"/>
-      <c r="X71" s="53"/>
-      <c r="Y71" s="53"/>
-      <c r="Z71" s="53"/>
-      <c r="AA71" s="54"/>
+      <c r="U71" s="58"/>
+      <c r="V71" s="59"/>
+      <c r="W71" s="59"/>
+      <c r="X71" s="59"/>
+      <c r="Y71" s="59"/>
+      <c r="Z71" s="59"/>
+      <c r="AA71" s="60"/>
     </row>
     <row r="72" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="64"/>
+      <c r="A72" s="74"/>
       <c r="B72" s="12">
         <v>235</v>
       </c>
@@ -5803,15 +5807,15 @@
         <v>10</v>
       </c>
       <c r="F72" s="14"/>
-      <c r="G72" s="52"/>
-      <c r="H72" s="53"/>
-      <c r="I72" s="53"/>
-      <c r="J72" s="53"/>
-      <c r="K72" s="53"/>
-      <c r="L72" s="53"/>
-      <c r="M72" s="54"/>
+      <c r="G72" s="58"/>
+      <c r="H72" s="59"/>
+      <c r="I72" s="59"/>
+      <c r="J72" s="59"/>
+      <c r="K72" s="59"/>
+      <c r="L72" s="59"/>
+      <c r="M72" s="60"/>
       <c r="N72" s="26"/>
-      <c r="O72" s="64"/>
+      <c r="O72" s="74"/>
       <c r="P72" s="12">
         <v>235</v>
       </c>
@@ -5825,16 +5829,16 @@
         <v>10</v>
       </c>
       <c r="T72" s="14"/>
-      <c r="U72" s="52"/>
-      <c r="V72" s="53"/>
-      <c r="W72" s="53"/>
-      <c r="X72" s="53"/>
-      <c r="Y72" s="53"/>
-      <c r="Z72" s="53"/>
-      <c r="AA72" s="54"/>
+      <c r="U72" s="58"/>
+      <c r="V72" s="59"/>
+      <c r="W72" s="59"/>
+      <c r="X72" s="59"/>
+      <c r="Y72" s="59"/>
+      <c r="Z72" s="59"/>
+      <c r="AA72" s="60"/>
     </row>
     <row r="73" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="64"/>
+      <c r="A73" s="74"/>
       <c r="B73" s="12">
         <v>236</v>
       </c>
@@ -5848,15 +5852,15 @@
         <v>10</v>
       </c>
       <c r="F73" s="14"/>
-      <c r="G73" s="52"/>
-      <c r="H73" s="53"/>
-      <c r="I73" s="53"/>
-      <c r="J73" s="53"/>
-      <c r="K73" s="53"/>
-      <c r="L73" s="53"/>
-      <c r="M73" s="54"/>
+      <c r="G73" s="58"/>
+      <c r="H73" s="59"/>
+      <c r="I73" s="59"/>
+      <c r="J73" s="59"/>
+      <c r="K73" s="59"/>
+      <c r="L73" s="59"/>
+      <c r="M73" s="60"/>
       <c r="N73" s="26"/>
-      <c r="O73" s="64"/>
+      <c r="O73" s="74"/>
       <c r="P73" s="12">
         <v>236</v>
       </c>
@@ -5870,16 +5874,16 @@
         <v>10</v>
       </c>
       <c r="T73" s="14"/>
-      <c r="U73" s="52"/>
-      <c r="V73" s="53"/>
-      <c r="W73" s="53"/>
-      <c r="X73" s="53"/>
-      <c r="Y73" s="53"/>
-      <c r="Z73" s="53"/>
-      <c r="AA73" s="54"/>
+      <c r="U73" s="58"/>
+      <c r="V73" s="59"/>
+      <c r="W73" s="59"/>
+      <c r="X73" s="59"/>
+      <c r="Y73" s="59"/>
+      <c r="Z73" s="59"/>
+      <c r="AA73" s="60"/>
     </row>
     <row r="74" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="64"/>
+      <c r="A74" s="74"/>
       <c r="B74" s="12">
         <v>237</v>
       </c>
@@ -5893,15 +5897,15 @@
         <v>10</v>
       </c>
       <c r="F74" s="14"/>
-      <c r="G74" s="52"/>
-      <c r="H74" s="53"/>
-      <c r="I74" s="53"/>
-      <c r="J74" s="53"/>
-      <c r="K74" s="53"/>
-      <c r="L74" s="53"/>
-      <c r="M74" s="54"/>
+      <c r="G74" s="58"/>
+      <c r="H74" s="59"/>
+      <c r="I74" s="59"/>
+      <c r="J74" s="59"/>
+      <c r="K74" s="59"/>
+      <c r="L74" s="59"/>
+      <c r="M74" s="60"/>
       <c r="N74" s="26"/>
-      <c r="O74" s="64"/>
+      <c r="O74" s="74"/>
       <c r="P74" s="12">
         <v>237</v>
       </c>
@@ -5915,16 +5919,16 @@
         <v>10</v>
       </c>
       <c r="T74" s="14"/>
-      <c r="U74" s="52"/>
-      <c r="V74" s="53"/>
-      <c r="W74" s="53"/>
-      <c r="X74" s="53"/>
-      <c r="Y74" s="53"/>
-      <c r="Z74" s="53"/>
-      <c r="AA74" s="54"/>
+      <c r="U74" s="58"/>
+      <c r="V74" s="59"/>
+      <c r="W74" s="59"/>
+      <c r="X74" s="59"/>
+      <c r="Y74" s="59"/>
+      <c r="Z74" s="59"/>
+      <c r="AA74" s="60"/>
     </row>
     <row r="75" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="64"/>
+      <c r="A75" s="74"/>
       <c r="B75" s="12">
         <v>238</v>
       </c>
@@ -5938,15 +5942,15 @@
         <v>10</v>
       </c>
       <c r="F75" s="14"/>
-      <c r="G75" s="52"/>
-      <c r="H75" s="53"/>
-      <c r="I75" s="53"/>
-      <c r="J75" s="53"/>
-      <c r="K75" s="53"/>
-      <c r="L75" s="53"/>
-      <c r="M75" s="54"/>
+      <c r="G75" s="58"/>
+      <c r="H75" s="59"/>
+      <c r="I75" s="59"/>
+      <c r="J75" s="59"/>
+      <c r="K75" s="59"/>
+      <c r="L75" s="59"/>
+      <c r="M75" s="60"/>
       <c r="N75" s="26"/>
-      <c r="O75" s="64"/>
+      <c r="O75" s="74"/>
       <c r="P75" s="12">
         <v>238</v>
       </c>
@@ -5960,16 +5964,16 @@
         <v>10</v>
       </c>
       <c r="T75" s="14"/>
-      <c r="U75" s="52"/>
-      <c r="V75" s="53"/>
-      <c r="W75" s="53"/>
-      <c r="X75" s="53"/>
-      <c r="Y75" s="53"/>
-      <c r="Z75" s="53"/>
-      <c r="AA75" s="54"/>
+      <c r="U75" s="58"/>
+      <c r="V75" s="59"/>
+      <c r="W75" s="59"/>
+      <c r="X75" s="59"/>
+      <c r="Y75" s="59"/>
+      <c r="Z75" s="59"/>
+      <c r="AA75" s="60"/>
     </row>
     <row r="76" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="64"/>
+      <c r="A76" s="74"/>
       <c r="B76" s="12">
         <v>239</v>
       </c>
@@ -5983,15 +5987,15 @@
         <v>10</v>
       </c>
       <c r="F76" s="14"/>
-      <c r="G76" s="52"/>
-      <c r="H76" s="53"/>
-      <c r="I76" s="53"/>
-      <c r="J76" s="53"/>
-      <c r="K76" s="53"/>
-      <c r="L76" s="53"/>
-      <c r="M76" s="54"/>
+      <c r="G76" s="58"/>
+      <c r="H76" s="59"/>
+      <c r="I76" s="59"/>
+      <c r="J76" s="59"/>
+      <c r="K76" s="59"/>
+      <c r="L76" s="59"/>
+      <c r="M76" s="60"/>
       <c r="N76" s="26"/>
-      <c r="O76" s="64"/>
+      <c r="O76" s="74"/>
       <c r="P76" s="12">
         <v>239</v>
       </c>
@@ -6005,16 +6009,16 @@
         <v>10</v>
       </c>
       <c r="T76" s="14"/>
-      <c r="U76" s="52"/>
-      <c r="V76" s="53"/>
-      <c r="W76" s="53"/>
-      <c r="X76" s="53"/>
-      <c r="Y76" s="53"/>
-      <c r="Z76" s="53"/>
-      <c r="AA76" s="54"/>
+      <c r="U76" s="58"/>
+      <c r="V76" s="59"/>
+      <c r="W76" s="59"/>
+      <c r="X76" s="59"/>
+      <c r="Y76" s="59"/>
+      <c r="Z76" s="59"/>
+      <c r="AA76" s="60"/>
     </row>
     <row r="77" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="65"/>
+      <c r="A77" s="75"/>
       <c r="B77" s="15">
         <v>240</v>
       </c>
@@ -6028,15 +6032,15 @@
         <v>10</v>
       </c>
       <c r="F77" s="17"/>
-      <c r="G77" s="58"/>
-      <c r="H77" s="59"/>
-      <c r="I77" s="59"/>
-      <c r="J77" s="59"/>
-      <c r="K77" s="59"/>
-      <c r="L77" s="59"/>
-      <c r="M77" s="60"/>
+      <c r="G77" s="61"/>
+      <c r="H77" s="62"/>
+      <c r="I77" s="62"/>
+      <c r="J77" s="62"/>
+      <c r="K77" s="62"/>
+      <c r="L77" s="62"/>
+      <c r="M77" s="63"/>
       <c r="N77" s="26"/>
-      <c r="O77" s="65"/>
+      <c r="O77" s="75"/>
       <c r="P77" s="15">
         <v>240</v>
       </c>
@@ -6050,47 +6054,47 @@
         <v>10</v>
       </c>
       <c r="T77" s="17"/>
-      <c r="U77" s="58"/>
-      <c r="V77" s="59"/>
-      <c r="W77" s="59"/>
-      <c r="X77" s="59"/>
-      <c r="Y77" s="59"/>
-      <c r="Z77" s="59"/>
-      <c r="AA77" s="60"/>
+      <c r="U77" s="61"/>
+      <c r="V77" s="62"/>
+      <c r="W77" s="62"/>
+      <c r="X77" s="62"/>
+      <c r="Y77" s="62"/>
+      <c r="Z77" s="62"/>
+      <c r="AA77" s="63"/>
     </row>
     <row r="78" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="94" t="s">
+      <c r="A78" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="B78" s="95" t="s">
+      <c r="B78" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="C78" s="96" t="s">
-        <v>10</v>
-      </c>
-      <c r="D78" s="96" t="s">
-        <v>10</v>
-      </c>
-      <c r="E78" s="96" t="s">
-        <v>10</v>
-      </c>
-      <c r="F78" s="97" t="s">
+      <c r="C78" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" s="105" t="s">
         <v>56</v>
       </c>
-      <c r="G78" s="98" t="s">
+      <c r="G78" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="H78" s="99"/>
-      <c r="I78" s="99"/>
-      <c r="J78" s="99"/>
-      <c r="K78" s="99"/>
-      <c r="L78" s="99"/>
-      <c r="M78" s="100"/>
+      <c r="H78" s="86"/>
+      <c r="I78" s="86"/>
+      <c r="J78" s="86"/>
+      <c r="K78" s="86"/>
+      <c r="L78" s="86"/>
+      <c r="M78" s="87"/>
       <c r="N78" s="26"/>
-      <c r="O78" s="63" t="s">
+      <c r="O78" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="P78" s="72" t="s">
+      <c r="P78" s="52" t="s">
         <v>58</v>
       </c>
       <c r="Q78" s="9" t="s">
@@ -6102,40 +6106,40 @@
       <c r="S78" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="T78" s="75"/>
-      <c r="U78" s="55"/>
-      <c r="V78" s="56"/>
-      <c r="W78" s="56"/>
-      <c r="X78" s="56"/>
-      <c r="Y78" s="56"/>
-      <c r="Z78" s="56"/>
-      <c r="AA78" s="57"/>
+      <c r="T78" s="64"/>
+      <c r="U78" s="76"/>
+      <c r="V78" s="77"/>
+      <c r="W78" s="77"/>
+      <c r="X78" s="77"/>
+      <c r="Y78" s="77"/>
+      <c r="Z78" s="77"/>
+      <c r="AA78" s="78"/>
     </row>
     <row r="79" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="101"/>
-      <c r="B79" s="102"/>
-      <c r="C79" s="103" t="s">
-        <v>10</v>
-      </c>
-      <c r="D79" s="103" t="s">
-        <v>10</v>
-      </c>
-      <c r="E79" s="103" t="s">
-        <v>10</v>
-      </c>
-      <c r="F79" s="104"/>
-      <c r="G79" s="105" t="s">
+      <c r="A79" s="103"/>
+      <c r="B79" s="111"/>
+      <c r="C79" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" s="106"/>
+      <c r="G79" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="H79" s="106"/>
-      <c r="I79" s="106"/>
-      <c r="J79" s="106"/>
-      <c r="K79" s="106"/>
-      <c r="L79" s="106"/>
-      <c r="M79" s="107"/>
+      <c r="H79" s="98"/>
+      <c r="I79" s="98"/>
+      <c r="J79" s="98"/>
+      <c r="K79" s="98"/>
+      <c r="L79" s="98"/>
+      <c r="M79" s="99"/>
       <c r="N79" s="26"/>
-      <c r="O79" s="64"/>
-      <c r="P79" s="73"/>
+      <c r="O79" s="74"/>
+      <c r="P79" s="53"/>
       <c r="Q79" s="13" t="s">
         <v>10</v>
       </c>
@@ -6145,40 +6149,40 @@
       <c r="S79" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T79" s="76"/>
-      <c r="U79" s="52"/>
-      <c r="V79" s="53"/>
-      <c r="W79" s="53"/>
-      <c r="X79" s="53"/>
-      <c r="Y79" s="53"/>
-      <c r="Z79" s="53"/>
-      <c r="AA79" s="54"/>
+      <c r="T79" s="65"/>
+      <c r="U79" s="58"/>
+      <c r="V79" s="59"/>
+      <c r="W79" s="59"/>
+      <c r="X79" s="59"/>
+      <c r="Y79" s="59"/>
+      <c r="Z79" s="59"/>
+      <c r="AA79" s="60"/>
     </row>
     <row r="80" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="101"/>
-      <c r="B80" s="102"/>
-      <c r="C80" s="103" t="s">
-        <v>10</v>
-      </c>
-      <c r="D80" s="103" t="s">
-        <v>10</v>
-      </c>
-      <c r="E80" s="103" t="s">
-        <v>10</v>
-      </c>
-      <c r="F80" s="104"/>
-      <c r="G80" s="105" t="s">
+      <c r="A80" s="103"/>
+      <c r="B80" s="111"/>
+      <c r="C80" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" s="106"/>
+      <c r="G80" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="H80" s="106"/>
-      <c r="I80" s="106"/>
-      <c r="J80" s="106"/>
-      <c r="K80" s="106"/>
-      <c r="L80" s="106"/>
-      <c r="M80" s="107"/>
+      <c r="H80" s="98"/>
+      <c r="I80" s="98"/>
+      <c r="J80" s="98"/>
+      <c r="K80" s="98"/>
+      <c r="L80" s="98"/>
+      <c r="M80" s="99"/>
       <c r="N80" s="26"/>
-      <c r="O80" s="64"/>
-      <c r="P80" s="73"/>
+      <c r="O80" s="74"/>
+      <c r="P80" s="53"/>
       <c r="Q80" s="13" t="s">
         <v>10</v>
       </c>
@@ -6188,40 +6192,40 @@
       <c r="S80" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T80" s="76"/>
-      <c r="U80" s="52"/>
-      <c r="V80" s="53"/>
-      <c r="W80" s="53"/>
-      <c r="X80" s="53"/>
-      <c r="Y80" s="53"/>
-      <c r="Z80" s="53"/>
-      <c r="AA80" s="54"/>
+      <c r="T80" s="65"/>
+      <c r="U80" s="58"/>
+      <c r="V80" s="59"/>
+      <c r="W80" s="59"/>
+      <c r="X80" s="59"/>
+      <c r="Y80" s="59"/>
+      <c r="Z80" s="59"/>
+      <c r="AA80" s="60"/>
     </row>
     <row r="81" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="101"/>
-      <c r="B81" s="102"/>
-      <c r="C81" s="103" t="s">
-        <v>10</v>
-      </c>
-      <c r="D81" s="103" t="s">
-        <v>10</v>
-      </c>
-      <c r="E81" s="103" t="s">
-        <v>10</v>
-      </c>
-      <c r="F81" s="104"/>
-      <c r="G81" s="105" t="s">
+      <c r="A81" s="103"/>
+      <c r="B81" s="111"/>
+      <c r="C81" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" s="106"/>
+      <c r="G81" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="H81" s="106"/>
-      <c r="I81" s="106"/>
-      <c r="J81" s="106"/>
-      <c r="K81" s="106"/>
-      <c r="L81" s="106"/>
-      <c r="M81" s="107"/>
+      <c r="H81" s="98"/>
+      <c r="I81" s="98"/>
+      <c r="J81" s="98"/>
+      <c r="K81" s="98"/>
+      <c r="L81" s="98"/>
+      <c r="M81" s="99"/>
       <c r="N81" s="26"/>
-      <c r="O81" s="64"/>
-      <c r="P81" s="73"/>
+      <c r="O81" s="74"/>
+      <c r="P81" s="53"/>
       <c r="Q81" s="13" t="s">
         <v>10</v>
       </c>
@@ -6231,40 +6235,40 @@
       <c r="S81" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T81" s="76"/>
-      <c r="U81" s="52"/>
-      <c r="V81" s="53"/>
-      <c r="W81" s="53"/>
-      <c r="X81" s="53"/>
-      <c r="Y81" s="53"/>
-      <c r="Z81" s="53"/>
-      <c r="AA81" s="54"/>
+      <c r="T81" s="65"/>
+      <c r="U81" s="58"/>
+      <c r="V81" s="59"/>
+      <c r="W81" s="59"/>
+      <c r="X81" s="59"/>
+      <c r="Y81" s="59"/>
+      <c r="Z81" s="59"/>
+      <c r="AA81" s="60"/>
     </row>
     <row r="82" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="101"/>
-      <c r="B82" s="102"/>
-      <c r="C82" s="103" t="s">
-        <v>10</v>
-      </c>
-      <c r="D82" s="103" t="s">
-        <v>10</v>
-      </c>
-      <c r="E82" s="103" t="s">
-        <v>10</v>
-      </c>
-      <c r="F82" s="104"/>
-      <c r="G82" s="105" t="s">
+      <c r="A82" s="103"/>
+      <c r="B82" s="111"/>
+      <c r="C82" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" s="106"/>
+      <c r="G82" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="H82" s="106"/>
-      <c r="I82" s="106"/>
-      <c r="J82" s="106"/>
-      <c r="K82" s="106"/>
-      <c r="L82" s="106"/>
-      <c r="M82" s="107"/>
+      <c r="H82" s="98"/>
+      <c r="I82" s="98"/>
+      <c r="J82" s="98"/>
+      <c r="K82" s="98"/>
+      <c r="L82" s="98"/>
+      <c r="M82" s="99"/>
       <c r="N82" s="26"/>
-      <c r="O82" s="64"/>
-      <c r="P82" s="73"/>
+      <c r="O82" s="74"/>
+      <c r="P82" s="53"/>
       <c r="Q82" s="13" t="s">
         <v>10</v>
       </c>
@@ -6274,40 +6278,40 @@
       <c r="S82" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T82" s="76"/>
-      <c r="U82" s="52"/>
-      <c r="V82" s="53"/>
-      <c r="W82" s="53"/>
-      <c r="X82" s="53"/>
-      <c r="Y82" s="53"/>
-      <c r="Z82" s="53"/>
-      <c r="AA82" s="54"/>
+      <c r="T82" s="65"/>
+      <c r="U82" s="58"/>
+      <c r="V82" s="59"/>
+      <c r="W82" s="59"/>
+      <c r="X82" s="59"/>
+      <c r="Y82" s="59"/>
+      <c r="Z82" s="59"/>
+      <c r="AA82" s="60"/>
     </row>
     <row r="83" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="101"/>
-      <c r="B83" s="102"/>
-      <c r="C83" s="103" t="s">
-        <v>10</v>
-      </c>
-      <c r="D83" s="103" t="s">
-        <v>10</v>
-      </c>
-      <c r="E83" s="103" t="s">
-        <v>10</v>
-      </c>
-      <c r="F83" s="104"/>
-      <c r="G83" s="105" t="s">
+      <c r="A83" s="103"/>
+      <c r="B83" s="111"/>
+      <c r="C83" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" s="106"/>
+      <c r="G83" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="H83" s="106"/>
-      <c r="I83" s="106"/>
-      <c r="J83" s="106"/>
-      <c r="K83" s="106"/>
-      <c r="L83" s="106"/>
-      <c r="M83" s="107"/>
+      <c r="H83" s="98"/>
+      <c r="I83" s="98"/>
+      <c r="J83" s="98"/>
+      <c r="K83" s="98"/>
+      <c r="L83" s="98"/>
+      <c r="M83" s="99"/>
       <c r="N83" s="26"/>
-      <c r="O83" s="64"/>
-      <c r="P83" s="73"/>
+      <c r="O83" s="74"/>
+      <c r="P83" s="53"/>
       <c r="Q83" s="13" t="s">
         <v>10</v>
       </c>
@@ -6317,40 +6321,40 @@
       <c r="S83" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T83" s="76"/>
-      <c r="U83" s="52"/>
-      <c r="V83" s="53"/>
-      <c r="W83" s="53"/>
-      <c r="X83" s="53"/>
-      <c r="Y83" s="53"/>
-      <c r="Z83" s="53"/>
-      <c r="AA83" s="54"/>
+      <c r="T83" s="65"/>
+      <c r="U83" s="58"/>
+      <c r="V83" s="59"/>
+      <c r="W83" s="59"/>
+      <c r="X83" s="59"/>
+      <c r="Y83" s="59"/>
+      <c r="Z83" s="59"/>
+      <c r="AA83" s="60"/>
     </row>
     <row r="84" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="101"/>
-      <c r="B84" s="102"/>
-      <c r="C84" s="103" t="s">
-        <v>10</v>
-      </c>
-      <c r="D84" s="103" t="s">
-        <v>10</v>
-      </c>
-      <c r="E84" s="103" t="s">
-        <v>10</v>
-      </c>
-      <c r="F84" s="104"/>
-      <c r="G84" s="105" t="s">
+      <c r="A84" s="103"/>
+      <c r="B84" s="111"/>
+      <c r="C84" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" s="106"/>
+      <c r="G84" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="H84" s="106"/>
-      <c r="I84" s="106"/>
-      <c r="J84" s="106"/>
-      <c r="K84" s="106"/>
-      <c r="L84" s="106"/>
-      <c r="M84" s="107"/>
+      <c r="H84" s="98"/>
+      <c r="I84" s="98"/>
+      <c r="J84" s="98"/>
+      <c r="K84" s="98"/>
+      <c r="L84" s="98"/>
+      <c r="M84" s="99"/>
       <c r="N84" s="26"/>
-      <c r="O84" s="64"/>
-      <c r="P84" s="73"/>
+      <c r="O84" s="74"/>
+      <c r="P84" s="53"/>
       <c r="Q84" s="13" t="s">
         <v>10</v>
       </c>
@@ -6360,40 +6364,40 @@
       <c r="S84" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T84" s="76"/>
-      <c r="U84" s="52"/>
-      <c r="V84" s="53"/>
-      <c r="W84" s="53"/>
-      <c r="X84" s="53"/>
-      <c r="Y84" s="53"/>
-      <c r="Z84" s="53"/>
-      <c r="AA84" s="54"/>
+      <c r="T84" s="65"/>
+      <c r="U84" s="58"/>
+      <c r="V84" s="59"/>
+      <c r="W84" s="59"/>
+      <c r="X84" s="59"/>
+      <c r="Y84" s="59"/>
+      <c r="Z84" s="59"/>
+      <c r="AA84" s="60"/>
     </row>
     <row r="85" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="108"/>
-      <c r="B85" s="109"/>
-      <c r="C85" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="D85" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="E85" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="F85" s="111"/>
-      <c r="G85" s="112" t="s">
+      <c r="A85" s="104"/>
+      <c r="B85" s="112"/>
+      <c r="C85" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" s="107"/>
+      <c r="G85" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="H85" s="113"/>
-      <c r="I85" s="113"/>
-      <c r="J85" s="113"/>
-      <c r="K85" s="113"/>
-      <c r="L85" s="113"/>
-      <c r="M85" s="114"/>
+      <c r="H85" s="82"/>
+      <c r="I85" s="82"/>
+      <c r="J85" s="82"/>
+      <c r="K85" s="82"/>
+      <c r="L85" s="82"/>
+      <c r="M85" s="83"/>
       <c r="N85" s="26"/>
-      <c r="O85" s="65"/>
-      <c r="P85" s="74"/>
+      <c r="O85" s="75"/>
+      <c r="P85" s="54"/>
       <c r="Q85" s="16" t="s">
         <v>10</v>
       </c>
@@ -6403,20 +6407,20 @@
       <c r="S85" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="T85" s="77"/>
-      <c r="U85" s="58"/>
-      <c r="V85" s="59"/>
-      <c r="W85" s="59"/>
-      <c r="X85" s="59"/>
-      <c r="Y85" s="59"/>
-      <c r="Z85" s="59"/>
-      <c r="AA85" s="60"/>
+      <c r="T85" s="66"/>
+      <c r="U85" s="61"/>
+      <c r="V85" s="62"/>
+      <c r="W85" s="62"/>
+      <c r="X85" s="62"/>
+      <c r="Y85" s="62"/>
+      <c r="Z85" s="62"/>
+      <c r="AA85" s="63"/>
     </row>
     <row r="86" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="63" t="s">
+      <c r="A86" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B86" s="72" t="s">
+      <c r="B86" s="52" t="s">
         <v>66</v>
       </c>
       <c r="C86" s="9" t="s">
@@ -6428,21 +6432,21 @@
       <c r="E86" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F86" s="49" t="s">
+      <c r="F86" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="G86" s="55"/>
-      <c r="H86" s="56"/>
-      <c r="I86" s="56"/>
-      <c r="J86" s="56"/>
-      <c r="K86" s="56"/>
-      <c r="L86" s="56"/>
-      <c r="M86" s="57"/>
+      <c r="G86" s="76"/>
+      <c r="H86" s="77"/>
+      <c r="I86" s="77"/>
+      <c r="J86" s="77"/>
+      <c r="K86" s="77"/>
+      <c r="L86" s="77"/>
+      <c r="M86" s="78"/>
       <c r="N86" s="26"/>
-      <c r="O86" s="63" t="s">
+      <c r="O86" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="P86" s="72" t="s">
+      <c r="P86" s="52" t="s">
         <v>68</v>
       </c>
       <c r="Q86" s="9" t="s">
@@ -6454,18 +6458,18 @@
       <c r="S86" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="T86" s="75"/>
-      <c r="U86" s="55"/>
-      <c r="V86" s="56"/>
-      <c r="W86" s="56"/>
-      <c r="X86" s="56"/>
-      <c r="Y86" s="56"/>
-      <c r="Z86" s="56"/>
-      <c r="AA86" s="57"/>
+      <c r="T86" s="64"/>
+      <c r="U86" s="76"/>
+      <c r="V86" s="77"/>
+      <c r="W86" s="77"/>
+      <c r="X86" s="77"/>
+      <c r="Y86" s="77"/>
+      <c r="Z86" s="77"/>
+      <c r="AA86" s="78"/>
     </row>
     <row r="87" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="64"/>
-      <c r="B87" s="73"/>
+      <c r="A87" s="74"/>
+      <c r="B87" s="53"/>
       <c r="C87" s="13" t="s">
         <v>10</v>
       </c>
@@ -6475,17 +6479,17 @@
       <c r="E87" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F87" s="50"/>
-      <c r="G87" s="52"/>
-      <c r="H87" s="53"/>
-      <c r="I87" s="53"/>
-      <c r="J87" s="53"/>
-      <c r="K87" s="53"/>
-      <c r="L87" s="53"/>
-      <c r="M87" s="54"/>
+      <c r="F87" s="56"/>
+      <c r="G87" s="58"/>
+      <c r="H87" s="59"/>
+      <c r="I87" s="59"/>
+      <c r="J87" s="59"/>
+      <c r="K87" s="59"/>
+      <c r="L87" s="59"/>
+      <c r="M87" s="60"/>
       <c r="N87" s="26"/>
-      <c r="O87" s="64"/>
-      <c r="P87" s="73"/>
+      <c r="O87" s="74"/>
+      <c r="P87" s="53"/>
       <c r="Q87" s="13" t="s">
         <v>10</v>
       </c>
@@ -6495,18 +6499,18 @@
       <c r="S87" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T87" s="76"/>
-      <c r="U87" s="52"/>
-      <c r="V87" s="53"/>
-      <c r="W87" s="53"/>
-      <c r="X87" s="53"/>
-      <c r="Y87" s="53"/>
-      <c r="Z87" s="53"/>
-      <c r="AA87" s="54"/>
+      <c r="T87" s="65"/>
+      <c r="U87" s="58"/>
+      <c r="V87" s="59"/>
+      <c r="W87" s="59"/>
+      <c r="X87" s="59"/>
+      <c r="Y87" s="59"/>
+      <c r="Z87" s="59"/>
+      <c r="AA87" s="60"/>
     </row>
     <row r="88" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="64"/>
-      <c r="B88" s="73"/>
+      <c r="A88" s="74"/>
+      <c r="B88" s="53"/>
       <c r="C88" s="13" t="s">
         <v>10</v>
       </c>
@@ -6516,17 +6520,17 @@
       <c r="E88" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F88" s="50"/>
-      <c r="G88" s="52"/>
-      <c r="H88" s="53"/>
-      <c r="I88" s="53"/>
-      <c r="J88" s="53"/>
-      <c r="K88" s="53"/>
-      <c r="L88" s="53"/>
-      <c r="M88" s="54"/>
+      <c r="F88" s="56"/>
+      <c r="G88" s="58"/>
+      <c r="H88" s="59"/>
+      <c r="I88" s="59"/>
+      <c r="J88" s="59"/>
+      <c r="K88" s="59"/>
+      <c r="L88" s="59"/>
+      <c r="M88" s="60"/>
       <c r="N88" s="26"/>
-      <c r="O88" s="64"/>
-      <c r="P88" s="73"/>
+      <c r="O88" s="74"/>
+      <c r="P88" s="53"/>
       <c r="Q88" s="13" t="s">
         <v>10</v>
       </c>
@@ -6536,18 +6540,18 @@
       <c r="S88" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T88" s="76"/>
-      <c r="U88" s="52"/>
-      <c r="V88" s="53"/>
-      <c r="W88" s="53"/>
-      <c r="X88" s="53"/>
-      <c r="Y88" s="53"/>
-      <c r="Z88" s="53"/>
-      <c r="AA88" s="54"/>
+      <c r="T88" s="65"/>
+      <c r="U88" s="58"/>
+      <c r="V88" s="59"/>
+      <c r="W88" s="59"/>
+      <c r="X88" s="59"/>
+      <c r="Y88" s="59"/>
+      <c r="Z88" s="59"/>
+      <c r="AA88" s="60"/>
     </row>
     <row r="89" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="64"/>
-      <c r="B89" s="73"/>
+      <c r="A89" s="74"/>
+      <c r="B89" s="53"/>
       <c r="C89" s="13" t="s">
         <v>10</v>
       </c>
@@ -6557,17 +6561,17 @@
       <c r="E89" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F89" s="50"/>
-      <c r="G89" s="52"/>
-      <c r="H89" s="53"/>
-      <c r="I89" s="53"/>
-      <c r="J89" s="53"/>
-      <c r="K89" s="53"/>
-      <c r="L89" s="53"/>
-      <c r="M89" s="54"/>
+      <c r="F89" s="56"/>
+      <c r="G89" s="58"/>
+      <c r="H89" s="59"/>
+      <c r="I89" s="59"/>
+      <c r="J89" s="59"/>
+      <c r="K89" s="59"/>
+      <c r="L89" s="59"/>
+      <c r="M89" s="60"/>
       <c r="N89" s="26"/>
-      <c r="O89" s="64"/>
-      <c r="P89" s="73"/>
+      <c r="O89" s="74"/>
+      <c r="P89" s="53"/>
       <c r="Q89" s="13" t="s">
         <v>10</v>
       </c>
@@ -6577,18 +6581,18 @@
       <c r="S89" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T89" s="76"/>
-      <c r="U89" s="52"/>
-      <c r="V89" s="53"/>
-      <c r="W89" s="53"/>
-      <c r="X89" s="53"/>
-      <c r="Y89" s="53"/>
-      <c r="Z89" s="53"/>
-      <c r="AA89" s="54"/>
+      <c r="T89" s="65"/>
+      <c r="U89" s="58"/>
+      <c r="V89" s="59"/>
+      <c r="W89" s="59"/>
+      <c r="X89" s="59"/>
+      <c r="Y89" s="59"/>
+      <c r="Z89" s="59"/>
+      <c r="AA89" s="60"/>
     </row>
     <row r="90" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="64"/>
-      <c r="B90" s="73"/>
+      <c r="A90" s="74"/>
+      <c r="B90" s="53"/>
       <c r="C90" s="13" t="s">
         <v>10</v>
       </c>
@@ -6598,17 +6602,17 @@
       <c r="E90" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F90" s="50"/>
-      <c r="G90" s="52"/>
-      <c r="H90" s="53"/>
-      <c r="I90" s="53"/>
-      <c r="J90" s="53"/>
-      <c r="K90" s="53"/>
-      <c r="L90" s="53"/>
-      <c r="M90" s="54"/>
+      <c r="F90" s="56"/>
+      <c r="G90" s="58"/>
+      <c r="H90" s="59"/>
+      <c r="I90" s="59"/>
+      <c r="J90" s="59"/>
+      <c r="K90" s="59"/>
+      <c r="L90" s="59"/>
+      <c r="M90" s="60"/>
       <c r="N90" s="26"/>
-      <c r="O90" s="64"/>
-      <c r="P90" s="73"/>
+      <c r="O90" s="74"/>
+      <c r="P90" s="53"/>
       <c r="Q90" s="13" t="s">
         <v>10</v>
       </c>
@@ -6618,18 +6622,18 @@
       <c r="S90" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T90" s="76"/>
-      <c r="U90" s="52"/>
-      <c r="V90" s="53"/>
-      <c r="W90" s="53"/>
-      <c r="X90" s="53"/>
-      <c r="Y90" s="53"/>
-      <c r="Z90" s="53"/>
-      <c r="AA90" s="54"/>
+      <c r="T90" s="65"/>
+      <c r="U90" s="58"/>
+      <c r="V90" s="59"/>
+      <c r="W90" s="59"/>
+      <c r="X90" s="59"/>
+      <c r="Y90" s="59"/>
+      <c r="Z90" s="59"/>
+      <c r="AA90" s="60"/>
     </row>
     <row r="91" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="64"/>
-      <c r="B91" s="73"/>
+      <c r="A91" s="74"/>
+      <c r="B91" s="53"/>
       <c r="C91" s="13" t="s">
         <v>10</v>
       </c>
@@ -6639,17 +6643,17 @@
       <c r="E91" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F91" s="50"/>
-      <c r="G91" s="52"/>
-      <c r="H91" s="53"/>
-      <c r="I91" s="53"/>
-      <c r="J91" s="53"/>
-      <c r="K91" s="53"/>
-      <c r="L91" s="53"/>
-      <c r="M91" s="54"/>
+      <c r="F91" s="56"/>
+      <c r="G91" s="58"/>
+      <c r="H91" s="59"/>
+      <c r="I91" s="59"/>
+      <c r="J91" s="59"/>
+      <c r="K91" s="59"/>
+      <c r="L91" s="59"/>
+      <c r="M91" s="60"/>
       <c r="N91" s="26"/>
-      <c r="O91" s="64"/>
-      <c r="P91" s="73"/>
+      <c r="O91" s="74"/>
+      <c r="P91" s="53"/>
       <c r="Q91" s="13" t="s">
         <v>10</v>
       </c>
@@ -6659,18 +6663,18 @@
       <c r="S91" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T91" s="76"/>
-      <c r="U91" s="52"/>
-      <c r="V91" s="53"/>
-      <c r="W91" s="53"/>
-      <c r="X91" s="53"/>
-      <c r="Y91" s="53"/>
-      <c r="Z91" s="53"/>
-      <c r="AA91" s="54"/>
+      <c r="T91" s="65"/>
+      <c r="U91" s="58"/>
+      <c r="V91" s="59"/>
+      <c r="W91" s="59"/>
+      <c r="X91" s="59"/>
+      <c r="Y91" s="59"/>
+      <c r="Z91" s="59"/>
+      <c r="AA91" s="60"/>
     </row>
     <row r="92" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="64"/>
-      <c r="B92" s="73"/>
+      <c r="A92" s="74"/>
+      <c r="B92" s="53"/>
       <c r="C92" s="13" t="s">
         <v>10</v>
       </c>
@@ -6680,17 +6684,17 @@
       <c r="E92" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F92" s="50"/>
-      <c r="G92" s="52"/>
-      <c r="H92" s="53"/>
-      <c r="I92" s="53"/>
-      <c r="J92" s="53"/>
-      <c r="K92" s="53"/>
-      <c r="L92" s="53"/>
-      <c r="M92" s="54"/>
+      <c r="F92" s="56"/>
+      <c r="G92" s="58"/>
+      <c r="H92" s="59"/>
+      <c r="I92" s="59"/>
+      <c r="J92" s="59"/>
+      <c r="K92" s="59"/>
+      <c r="L92" s="59"/>
+      <c r="M92" s="60"/>
       <c r="N92" s="26"/>
-      <c r="O92" s="64"/>
-      <c r="P92" s="73"/>
+      <c r="O92" s="74"/>
+      <c r="P92" s="53"/>
       <c r="Q92" s="13" t="s">
         <v>10</v>
       </c>
@@ -6700,18 +6704,18 @@
       <c r="S92" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T92" s="76"/>
-      <c r="U92" s="52"/>
-      <c r="V92" s="53"/>
-      <c r="W92" s="53"/>
-      <c r="X92" s="53"/>
-      <c r="Y92" s="53"/>
-      <c r="Z92" s="53"/>
-      <c r="AA92" s="54"/>
+      <c r="T92" s="65"/>
+      <c r="U92" s="58"/>
+      <c r="V92" s="59"/>
+      <c r="W92" s="59"/>
+      <c r="X92" s="59"/>
+      <c r="Y92" s="59"/>
+      <c r="Z92" s="59"/>
+      <c r="AA92" s="60"/>
     </row>
     <row r="93" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="65"/>
-      <c r="B93" s="74"/>
+      <c r="A93" s="75"/>
+      <c r="B93" s="54"/>
       <c r="C93" s="16" t="s">
         <v>10</v>
       </c>
@@ -6721,17 +6725,17 @@
       <c r="E93" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F93" s="51"/>
-      <c r="G93" s="58"/>
-      <c r="H93" s="59"/>
-      <c r="I93" s="59"/>
-      <c r="J93" s="59"/>
-      <c r="K93" s="59"/>
-      <c r="L93" s="59"/>
-      <c r="M93" s="60"/>
+      <c r="F93" s="57"/>
+      <c r="G93" s="61"/>
+      <c r="H93" s="62"/>
+      <c r="I93" s="62"/>
+      <c r="J93" s="62"/>
+      <c r="K93" s="62"/>
+      <c r="L93" s="62"/>
+      <c r="M93" s="63"/>
       <c r="N93" s="26"/>
-      <c r="O93" s="65"/>
-      <c r="P93" s="74"/>
+      <c r="O93" s="75"/>
+      <c r="P93" s="54"/>
       <c r="Q93" s="16" t="s">
         <v>10</v>
       </c>
@@ -6741,20 +6745,20 @@
       <c r="S93" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="T93" s="77"/>
-      <c r="U93" s="58"/>
-      <c r="V93" s="59"/>
-      <c r="W93" s="59"/>
-      <c r="X93" s="59"/>
-      <c r="Y93" s="59"/>
-      <c r="Z93" s="59"/>
-      <c r="AA93" s="60"/>
+      <c r="T93" s="66"/>
+      <c r="U93" s="61"/>
+      <c r="V93" s="62"/>
+      <c r="W93" s="62"/>
+      <c r="X93" s="62"/>
+      <c r="Y93" s="62"/>
+      <c r="Z93" s="62"/>
+      <c r="AA93" s="63"/>
     </row>
     <row r="94" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="63" t="s">
+      <c r="A94" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B94" s="72" t="s">
+      <c r="B94" s="52" t="s">
         <v>69</v>
       </c>
       <c r="C94" s="9" t="s">
@@ -6766,21 +6770,21 @@
       <c r="E94" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F94" s="49" t="s">
+      <c r="F94" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="G94" s="55"/>
-      <c r="H94" s="56"/>
-      <c r="I94" s="56"/>
-      <c r="J94" s="56"/>
-      <c r="K94" s="56"/>
-      <c r="L94" s="56"/>
-      <c r="M94" s="57"/>
+      <c r="G94" s="76"/>
+      <c r="H94" s="77"/>
+      <c r="I94" s="77"/>
+      <c r="J94" s="77"/>
+      <c r="K94" s="77"/>
+      <c r="L94" s="77"/>
+      <c r="M94" s="78"/>
       <c r="N94" s="26"/>
-      <c r="O94" s="63" t="s">
+      <c r="O94" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="P94" s="72" t="s">
+      <c r="P94" s="52" t="s">
         <v>71</v>
       </c>
       <c r="Q94" s="9" t="s">
@@ -6792,18 +6796,18 @@
       <c r="S94" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="T94" s="75"/>
-      <c r="U94" s="55"/>
-      <c r="V94" s="56"/>
-      <c r="W94" s="56"/>
-      <c r="X94" s="56"/>
-      <c r="Y94" s="56"/>
-      <c r="Z94" s="56"/>
-      <c r="AA94" s="57"/>
+      <c r="T94" s="64"/>
+      <c r="U94" s="76"/>
+      <c r="V94" s="77"/>
+      <c r="W94" s="77"/>
+      <c r="X94" s="77"/>
+      <c r="Y94" s="77"/>
+      <c r="Z94" s="77"/>
+      <c r="AA94" s="78"/>
     </row>
     <row r="95" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="64"/>
-      <c r="B95" s="73"/>
+      <c r="A95" s="74"/>
+      <c r="B95" s="53"/>
       <c r="C95" s="13" t="s">
         <v>10</v>
       </c>
@@ -6813,17 +6817,17 @@
       <c r="E95" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F95" s="50"/>
-      <c r="G95" s="52"/>
-      <c r="H95" s="53"/>
-      <c r="I95" s="53"/>
-      <c r="J95" s="53"/>
-      <c r="K95" s="53"/>
-      <c r="L95" s="53"/>
-      <c r="M95" s="54"/>
+      <c r="F95" s="56"/>
+      <c r="G95" s="58"/>
+      <c r="H95" s="59"/>
+      <c r="I95" s="59"/>
+      <c r="J95" s="59"/>
+      <c r="K95" s="59"/>
+      <c r="L95" s="59"/>
+      <c r="M95" s="60"/>
       <c r="N95" s="26"/>
-      <c r="O95" s="64"/>
-      <c r="P95" s="73"/>
+      <c r="O95" s="74"/>
+      <c r="P95" s="53"/>
       <c r="Q95" s="13" t="s">
         <v>10</v>
       </c>
@@ -6833,18 +6837,18 @@
       <c r="S95" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T95" s="76"/>
-      <c r="U95" s="52"/>
-      <c r="V95" s="53"/>
-      <c r="W95" s="53"/>
-      <c r="X95" s="53"/>
-      <c r="Y95" s="53"/>
-      <c r="Z95" s="53"/>
-      <c r="AA95" s="54"/>
+      <c r="T95" s="65"/>
+      <c r="U95" s="58"/>
+      <c r="V95" s="59"/>
+      <c r="W95" s="59"/>
+      <c r="X95" s="59"/>
+      <c r="Y95" s="59"/>
+      <c r="Z95" s="59"/>
+      <c r="AA95" s="60"/>
     </row>
     <row r="96" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="64"/>
-      <c r="B96" s="73"/>
+      <c r="A96" s="74"/>
+      <c r="B96" s="53"/>
       <c r="C96" s="13" t="s">
         <v>10</v>
       </c>
@@ -6854,17 +6858,17 @@
       <c r="E96" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F96" s="50"/>
-      <c r="G96" s="52"/>
-      <c r="H96" s="53"/>
-      <c r="I96" s="53"/>
-      <c r="J96" s="53"/>
-      <c r="K96" s="53"/>
-      <c r="L96" s="53"/>
-      <c r="M96" s="54"/>
+      <c r="F96" s="56"/>
+      <c r="G96" s="58"/>
+      <c r="H96" s="59"/>
+      <c r="I96" s="59"/>
+      <c r="J96" s="59"/>
+      <c r="K96" s="59"/>
+      <c r="L96" s="59"/>
+      <c r="M96" s="60"/>
       <c r="N96" s="26"/>
-      <c r="O96" s="64"/>
-      <c r="P96" s="73"/>
+      <c r="O96" s="74"/>
+      <c r="P96" s="53"/>
       <c r="Q96" s="13" t="s">
         <v>10</v>
       </c>
@@ -6874,18 +6878,18 @@
       <c r="S96" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T96" s="76"/>
-      <c r="U96" s="52"/>
-      <c r="V96" s="53"/>
-      <c r="W96" s="53"/>
-      <c r="X96" s="53"/>
-      <c r="Y96" s="53"/>
-      <c r="Z96" s="53"/>
-      <c r="AA96" s="54"/>
+      <c r="T96" s="65"/>
+      <c r="U96" s="58"/>
+      <c r="V96" s="59"/>
+      <c r="W96" s="59"/>
+      <c r="X96" s="59"/>
+      <c r="Y96" s="59"/>
+      <c r="Z96" s="59"/>
+      <c r="AA96" s="60"/>
     </row>
     <row r="97" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="64"/>
-      <c r="B97" s="73"/>
+      <c r="A97" s="74"/>
+      <c r="B97" s="53"/>
       <c r="C97" s="13" t="s">
         <v>10</v>
       </c>
@@ -6895,17 +6899,17 @@
       <c r="E97" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F97" s="50"/>
-      <c r="G97" s="52"/>
-      <c r="H97" s="53"/>
-      <c r="I97" s="53"/>
-      <c r="J97" s="53"/>
-      <c r="K97" s="53"/>
-      <c r="L97" s="53"/>
-      <c r="M97" s="54"/>
+      <c r="F97" s="56"/>
+      <c r="G97" s="58"/>
+      <c r="H97" s="59"/>
+      <c r="I97" s="59"/>
+      <c r="J97" s="59"/>
+      <c r="K97" s="59"/>
+      <c r="L97" s="59"/>
+      <c r="M97" s="60"/>
       <c r="N97" s="26"/>
-      <c r="O97" s="64"/>
-      <c r="P97" s="73"/>
+      <c r="O97" s="74"/>
+      <c r="P97" s="53"/>
       <c r="Q97" s="13" t="s">
         <v>10</v>
       </c>
@@ -6915,18 +6919,18 @@
       <c r="S97" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T97" s="76"/>
-      <c r="U97" s="52"/>
-      <c r="V97" s="53"/>
-      <c r="W97" s="53"/>
-      <c r="X97" s="53"/>
-      <c r="Y97" s="53"/>
-      <c r="Z97" s="53"/>
-      <c r="AA97" s="54"/>
+      <c r="T97" s="65"/>
+      <c r="U97" s="58"/>
+      <c r="V97" s="59"/>
+      <c r="W97" s="59"/>
+      <c r="X97" s="59"/>
+      <c r="Y97" s="59"/>
+      <c r="Z97" s="59"/>
+      <c r="AA97" s="60"/>
     </row>
     <row r="98" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="64"/>
-      <c r="B98" s="73"/>
+      <c r="A98" s="74"/>
+      <c r="B98" s="53"/>
       <c r="C98" s="13" t="s">
         <v>10</v>
       </c>
@@ -6936,17 +6940,17 @@
       <c r="E98" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F98" s="50"/>
-      <c r="G98" s="52"/>
-      <c r="H98" s="53"/>
-      <c r="I98" s="53"/>
-      <c r="J98" s="53"/>
-      <c r="K98" s="53"/>
-      <c r="L98" s="53"/>
-      <c r="M98" s="54"/>
+      <c r="F98" s="56"/>
+      <c r="G98" s="58"/>
+      <c r="H98" s="59"/>
+      <c r="I98" s="59"/>
+      <c r="J98" s="59"/>
+      <c r="K98" s="59"/>
+      <c r="L98" s="59"/>
+      <c r="M98" s="60"/>
       <c r="N98" s="26"/>
-      <c r="O98" s="64"/>
-      <c r="P98" s="73"/>
+      <c r="O98" s="74"/>
+      <c r="P98" s="53"/>
       <c r="Q98" s="13" t="s">
         <v>10</v>
       </c>
@@ -6956,18 +6960,18 @@
       <c r="S98" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T98" s="76"/>
-      <c r="U98" s="52"/>
-      <c r="V98" s="53"/>
-      <c r="W98" s="53"/>
-      <c r="X98" s="53"/>
-      <c r="Y98" s="53"/>
-      <c r="Z98" s="53"/>
-      <c r="AA98" s="54"/>
+      <c r="T98" s="65"/>
+      <c r="U98" s="58"/>
+      <c r="V98" s="59"/>
+      <c r="W98" s="59"/>
+      <c r="X98" s="59"/>
+      <c r="Y98" s="59"/>
+      <c r="Z98" s="59"/>
+      <c r="AA98" s="60"/>
     </row>
     <row r="99" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="64"/>
-      <c r="B99" s="73"/>
+      <c r="A99" s="74"/>
+      <c r="B99" s="53"/>
       <c r="C99" s="13" t="s">
         <v>10</v>
       </c>
@@ -6977,17 +6981,17 @@
       <c r="E99" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F99" s="50"/>
-      <c r="G99" s="52"/>
-      <c r="H99" s="53"/>
-      <c r="I99" s="53"/>
-      <c r="J99" s="53"/>
-      <c r="K99" s="53"/>
-      <c r="L99" s="53"/>
-      <c r="M99" s="54"/>
+      <c r="F99" s="56"/>
+      <c r="G99" s="58"/>
+      <c r="H99" s="59"/>
+      <c r="I99" s="59"/>
+      <c r="J99" s="59"/>
+      <c r="K99" s="59"/>
+      <c r="L99" s="59"/>
+      <c r="M99" s="60"/>
       <c r="N99" s="26"/>
-      <c r="O99" s="64"/>
-      <c r="P99" s="73"/>
+      <c r="O99" s="74"/>
+      <c r="P99" s="53"/>
       <c r="Q99" s="13" t="s">
         <v>10</v>
       </c>
@@ -6997,18 +7001,18 @@
       <c r="S99" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T99" s="76"/>
-      <c r="U99" s="52"/>
-      <c r="V99" s="53"/>
-      <c r="W99" s="53"/>
-      <c r="X99" s="53"/>
-      <c r="Y99" s="53"/>
-      <c r="Z99" s="53"/>
-      <c r="AA99" s="54"/>
+      <c r="T99" s="65"/>
+      <c r="U99" s="58"/>
+      <c r="V99" s="59"/>
+      <c r="W99" s="59"/>
+      <c r="X99" s="59"/>
+      <c r="Y99" s="59"/>
+      <c r="Z99" s="59"/>
+      <c r="AA99" s="60"/>
     </row>
     <row r="100" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="64"/>
-      <c r="B100" s="73"/>
+      <c r="A100" s="74"/>
+      <c r="B100" s="53"/>
       <c r="C100" s="13" t="s">
         <v>10</v>
       </c>
@@ -7018,17 +7022,17 @@
       <c r="E100" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F100" s="50"/>
-      <c r="G100" s="52"/>
-      <c r="H100" s="53"/>
-      <c r="I100" s="53"/>
-      <c r="J100" s="53"/>
-      <c r="K100" s="53"/>
-      <c r="L100" s="53"/>
-      <c r="M100" s="54"/>
+      <c r="F100" s="56"/>
+      <c r="G100" s="58"/>
+      <c r="H100" s="59"/>
+      <c r="I100" s="59"/>
+      <c r="J100" s="59"/>
+      <c r="K100" s="59"/>
+      <c r="L100" s="59"/>
+      <c r="M100" s="60"/>
       <c r="N100" s="26"/>
-      <c r="O100" s="64"/>
-      <c r="P100" s="73"/>
+      <c r="O100" s="74"/>
+      <c r="P100" s="53"/>
       <c r="Q100" s="13" t="s">
         <v>10</v>
       </c>
@@ -7038,18 +7042,18 @@
       <c r="S100" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T100" s="76"/>
-      <c r="U100" s="52"/>
-      <c r="V100" s="53"/>
-      <c r="W100" s="53"/>
-      <c r="X100" s="53"/>
-      <c r="Y100" s="53"/>
-      <c r="Z100" s="53"/>
-      <c r="AA100" s="54"/>
+      <c r="T100" s="65"/>
+      <c r="U100" s="58"/>
+      <c r="V100" s="59"/>
+      <c r="W100" s="59"/>
+      <c r="X100" s="59"/>
+      <c r="Y100" s="59"/>
+      <c r="Z100" s="59"/>
+      <c r="AA100" s="60"/>
     </row>
     <row r="101" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="65"/>
-      <c r="B101" s="74"/>
+      <c r="A101" s="75"/>
+      <c r="B101" s="54"/>
       <c r="C101" s="16" t="s">
         <v>10</v>
       </c>
@@ -7059,17 +7063,17 @@
       <c r="E101" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F101" s="51"/>
-      <c r="G101" s="58"/>
-      <c r="H101" s="59"/>
-      <c r="I101" s="59"/>
-      <c r="J101" s="59"/>
-      <c r="K101" s="59"/>
-      <c r="L101" s="59"/>
-      <c r="M101" s="60"/>
+      <c r="F101" s="57"/>
+      <c r="G101" s="61"/>
+      <c r="H101" s="62"/>
+      <c r="I101" s="62"/>
+      <c r="J101" s="62"/>
+      <c r="K101" s="62"/>
+      <c r="L101" s="62"/>
+      <c r="M101" s="63"/>
       <c r="N101" s="26"/>
-      <c r="O101" s="65"/>
-      <c r="P101" s="74"/>
+      <c r="O101" s="75"/>
+      <c r="P101" s="54"/>
       <c r="Q101" s="16" t="s">
         <v>10</v>
       </c>
@@ -7079,20 +7083,20 @@
       <c r="S101" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="T101" s="77"/>
-      <c r="U101" s="58"/>
-      <c r="V101" s="59"/>
-      <c r="W101" s="59"/>
-      <c r="X101" s="59"/>
-      <c r="Y101" s="59"/>
-      <c r="Z101" s="59"/>
-      <c r="AA101" s="60"/>
+      <c r="T101" s="66"/>
+      <c r="U101" s="61"/>
+      <c r="V101" s="62"/>
+      <c r="W101" s="62"/>
+      <c r="X101" s="62"/>
+      <c r="Y101" s="62"/>
+      <c r="Z101" s="62"/>
+      <c r="AA101" s="63"/>
     </row>
     <row r="102" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="63" t="s">
+      <c r="A102" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B102" s="72" t="s">
+      <c r="B102" s="52" t="s">
         <v>72</v>
       </c>
       <c r="C102" s="9" t="s">
@@ -7104,21 +7108,21 @@
       <c r="E102" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F102" s="49" t="s">
+      <c r="F102" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="G102" s="55"/>
-      <c r="H102" s="56"/>
-      <c r="I102" s="56"/>
-      <c r="J102" s="56"/>
-      <c r="K102" s="56"/>
-      <c r="L102" s="56"/>
-      <c r="M102" s="57"/>
+      <c r="G102" s="76"/>
+      <c r="H102" s="77"/>
+      <c r="I102" s="77"/>
+      <c r="J102" s="77"/>
+      <c r="K102" s="77"/>
+      <c r="L102" s="77"/>
+      <c r="M102" s="78"/>
       <c r="N102" s="26"/>
-      <c r="O102" s="63" t="s">
+      <c r="O102" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="P102" s="72" t="s">
+      <c r="P102" s="52" t="s">
         <v>74</v>
       </c>
       <c r="Q102" s="9" t="s">
@@ -7130,18 +7134,18 @@
       <c r="S102" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="T102" s="75"/>
-      <c r="U102" s="55"/>
-      <c r="V102" s="56"/>
-      <c r="W102" s="56"/>
-      <c r="X102" s="56"/>
-      <c r="Y102" s="56"/>
-      <c r="Z102" s="56"/>
-      <c r="AA102" s="57"/>
+      <c r="T102" s="64"/>
+      <c r="U102" s="76"/>
+      <c r="V102" s="77"/>
+      <c r="W102" s="77"/>
+      <c r="X102" s="77"/>
+      <c r="Y102" s="77"/>
+      <c r="Z102" s="77"/>
+      <c r="AA102" s="78"/>
     </row>
     <row r="103" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="64"/>
-      <c r="B103" s="73"/>
+      <c r="A103" s="74"/>
+      <c r="B103" s="53"/>
       <c r="C103" s="13" t="s">
         <v>10</v>
       </c>
@@ -7151,17 +7155,17 @@
       <c r="E103" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F103" s="50"/>
-      <c r="G103" s="52"/>
-      <c r="H103" s="53"/>
-      <c r="I103" s="53"/>
-      <c r="J103" s="53"/>
-      <c r="K103" s="53"/>
-      <c r="L103" s="53"/>
-      <c r="M103" s="54"/>
+      <c r="F103" s="56"/>
+      <c r="G103" s="58"/>
+      <c r="H103" s="59"/>
+      <c r="I103" s="59"/>
+      <c r="J103" s="59"/>
+      <c r="K103" s="59"/>
+      <c r="L103" s="59"/>
+      <c r="M103" s="60"/>
       <c r="N103" s="26"/>
-      <c r="O103" s="64"/>
-      <c r="P103" s="73"/>
+      <c r="O103" s="74"/>
+      <c r="P103" s="53"/>
       <c r="Q103" s="13" t="s">
         <v>10</v>
       </c>
@@ -7171,18 +7175,18 @@
       <c r="S103" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T103" s="76"/>
-      <c r="U103" s="52"/>
-      <c r="V103" s="53"/>
-      <c r="W103" s="53"/>
-      <c r="X103" s="53"/>
-      <c r="Y103" s="53"/>
-      <c r="Z103" s="53"/>
-      <c r="AA103" s="54"/>
+      <c r="T103" s="65"/>
+      <c r="U103" s="58"/>
+      <c r="V103" s="59"/>
+      <c r="W103" s="59"/>
+      <c r="X103" s="59"/>
+      <c r="Y103" s="59"/>
+      <c r="Z103" s="59"/>
+      <c r="AA103" s="60"/>
     </row>
     <row r="104" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="64"/>
-      <c r="B104" s="73"/>
+      <c r="A104" s="74"/>
+      <c r="B104" s="53"/>
       <c r="C104" s="13" t="s">
         <v>10</v>
       </c>
@@ -7192,17 +7196,17 @@
       <c r="E104" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F104" s="50"/>
-      <c r="G104" s="52"/>
-      <c r="H104" s="53"/>
-      <c r="I104" s="53"/>
-      <c r="J104" s="53"/>
-      <c r="K104" s="53"/>
-      <c r="L104" s="53"/>
-      <c r="M104" s="54"/>
+      <c r="F104" s="56"/>
+      <c r="G104" s="58"/>
+      <c r="H104" s="59"/>
+      <c r="I104" s="59"/>
+      <c r="J104" s="59"/>
+      <c r="K104" s="59"/>
+      <c r="L104" s="59"/>
+      <c r="M104" s="60"/>
       <c r="N104" s="26"/>
-      <c r="O104" s="64"/>
-      <c r="P104" s="73"/>
+      <c r="O104" s="74"/>
+      <c r="P104" s="53"/>
       <c r="Q104" s="13" t="s">
         <v>10</v>
       </c>
@@ -7212,18 +7216,18 @@
       <c r="S104" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T104" s="76"/>
-      <c r="U104" s="52"/>
-      <c r="V104" s="53"/>
-      <c r="W104" s="53"/>
-      <c r="X104" s="53"/>
-      <c r="Y104" s="53"/>
-      <c r="Z104" s="53"/>
-      <c r="AA104" s="54"/>
+      <c r="T104" s="65"/>
+      <c r="U104" s="58"/>
+      <c r="V104" s="59"/>
+      <c r="W104" s="59"/>
+      <c r="X104" s="59"/>
+      <c r="Y104" s="59"/>
+      <c r="Z104" s="59"/>
+      <c r="AA104" s="60"/>
     </row>
     <row r="105" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="64"/>
-      <c r="B105" s="73"/>
+      <c r="A105" s="74"/>
+      <c r="B105" s="53"/>
       <c r="C105" s="13" t="s">
         <v>10</v>
       </c>
@@ -7233,17 +7237,17 @@
       <c r="E105" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F105" s="50"/>
-      <c r="G105" s="52"/>
-      <c r="H105" s="53"/>
-      <c r="I105" s="53"/>
-      <c r="J105" s="53"/>
-      <c r="K105" s="53"/>
-      <c r="L105" s="53"/>
-      <c r="M105" s="54"/>
+      <c r="F105" s="56"/>
+      <c r="G105" s="58"/>
+      <c r="H105" s="59"/>
+      <c r="I105" s="59"/>
+      <c r="J105" s="59"/>
+      <c r="K105" s="59"/>
+      <c r="L105" s="59"/>
+      <c r="M105" s="60"/>
       <c r="N105" s="26"/>
-      <c r="O105" s="64"/>
-      <c r="P105" s="73"/>
+      <c r="O105" s="74"/>
+      <c r="P105" s="53"/>
       <c r="Q105" s="13" t="s">
         <v>10</v>
       </c>
@@ -7253,18 +7257,18 @@
       <c r="S105" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T105" s="76"/>
-      <c r="U105" s="52"/>
-      <c r="V105" s="53"/>
-      <c r="W105" s="53"/>
-      <c r="X105" s="53"/>
-      <c r="Y105" s="53"/>
-      <c r="Z105" s="53"/>
-      <c r="AA105" s="54"/>
+      <c r="T105" s="65"/>
+      <c r="U105" s="58"/>
+      <c r="V105" s="59"/>
+      <c r="W105" s="59"/>
+      <c r="X105" s="59"/>
+      <c r="Y105" s="59"/>
+      <c r="Z105" s="59"/>
+      <c r="AA105" s="60"/>
     </row>
     <row r="106" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="64"/>
-      <c r="B106" s="73"/>
+      <c r="A106" s="74"/>
+      <c r="B106" s="53"/>
       <c r="C106" s="13" t="s">
         <v>10</v>
       </c>
@@ -7274,17 +7278,17 @@
       <c r="E106" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F106" s="50"/>
-      <c r="G106" s="52"/>
-      <c r="H106" s="53"/>
-      <c r="I106" s="53"/>
-      <c r="J106" s="53"/>
-      <c r="K106" s="53"/>
-      <c r="L106" s="53"/>
-      <c r="M106" s="54"/>
+      <c r="F106" s="56"/>
+      <c r="G106" s="58"/>
+      <c r="H106" s="59"/>
+      <c r="I106" s="59"/>
+      <c r="J106" s="59"/>
+      <c r="K106" s="59"/>
+      <c r="L106" s="59"/>
+      <c r="M106" s="60"/>
       <c r="N106" s="26"/>
-      <c r="O106" s="64"/>
-      <c r="P106" s="73"/>
+      <c r="O106" s="74"/>
+      <c r="P106" s="53"/>
       <c r="Q106" s="13" t="s">
         <v>10</v>
       </c>
@@ -7294,18 +7298,18 @@
       <c r="S106" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T106" s="76"/>
-      <c r="U106" s="52"/>
-      <c r="V106" s="53"/>
-      <c r="W106" s="53"/>
-      <c r="X106" s="53"/>
-      <c r="Y106" s="53"/>
-      <c r="Z106" s="53"/>
-      <c r="AA106" s="54"/>
+      <c r="T106" s="65"/>
+      <c r="U106" s="58"/>
+      <c r="V106" s="59"/>
+      <c r="W106" s="59"/>
+      <c r="X106" s="59"/>
+      <c r="Y106" s="59"/>
+      <c r="Z106" s="59"/>
+      <c r="AA106" s="60"/>
     </row>
     <row r="107" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="64"/>
-      <c r="B107" s="73"/>
+      <c r="A107" s="74"/>
+      <c r="B107" s="53"/>
       <c r="C107" s="13" t="s">
         <v>10</v>
       </c>
@@ -7315,17 +7319,17 @@
       <c r="E107" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F107" s="50"/>
-      <c r="G107" s="52"/>
-      <c r="H107" s="53"/>
-      <c r="I107" s="53"/>
-      <c r="J107" s="53"/>
-      <c r="K107" s="53"/>
-      <c r="L107" s="53"/>
-      <c r="M107" s="54"/>
+      <c r="F107" s="56"/>
+      <c r="G107" s="58"/>
+      <c r="H107" s="59"/>
+      <c r="I107" s="59"/>
+      <c r="J107" s="59"/>
+      <c r="K107" s="59"/>
+      <c r="L107" s="59"/>
+      <c r="M107" s="60"/>
       <c r="N107" s="26"/>
-      <c r="O107" s="64"/>
-      <c r="P107" s="73"/>
+      <c r="O107" s="74"/>
+      <c r="P107" s="53"/>
       <c r="Q107" s="13" t="s">
         <v>10</v>
       </c>
@@ -7335,18 +7339,18 @@
       <c r="S107" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T107" s="76"/>
-      <c r="U107" s="52"/>
-      <c r="V107" s="53"/>
-      <c r="W107" s="53"/>
-      <c r="X107" s="53"/>
-      <c r="Y107" s="53"/>
-      <c r="Z107" s="53"/>
-      <c r="AA107" s="54"/>
+      <c r="T107" s="65"/>
+      <c r="U107" s="58"/>
+      <c r="V107" s="59"/>
+      <c r="W107" s="59"/>
+      <c r="X107" s="59"/>
+      <c r="Y107" s="59"/>
+      <c r="Z107" s="59"/>
+      <c r="AA107" s="60"/>
     </row>
     <row r="108" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="64"/>
-      <c r="B108" s="73"/>
+      <c r="A108" s="74"/>
+      <c r="B108" s="53"/>
       <c r="C108" s="13" t="s">
         <v>10</v>
       </c>
@@ -7356,17 +7360,17 @@
       <c r="E108" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F108" s="50"/>
-      <c r="G108" s="52"/>
-      <c r="H108" s="53"/>
-      <c r="I108" s="53"/>
-      <c r="J108" s="53"/>
-      <c r="K108" s="53"/>
-      <c r="L108" s="53"/>
-      <c r="M108" s="54"/>
+      <c r="F108" s="56"/>
+      <c r="G108" s="58"/>
+      <c r="H108" s="59"/>
+      <c r="I108" s="59"/>
+      <c r="J108" s="59"/>
+      <c r="K108" s="59"/>
+      <c r="L108" s="59"/>
+      <c r="M108" s="60"/>
       <c r="N108" s="26"/>
-      <c r="O108" s="64"/>
-      <c r="P108" s="73"/>
+      <c r="O108" s="74"/>
+      <c r="P108" s="53"/>
       <c r="Q108" s="13" t="s">
         <v>10</v>
       </c>
@@ -7376,18 +7380,18 @@
       <c r="S108" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T108" s="76"/>
-      <c r="U108" s="52"/>
-      <c r="V108" s="53"/>
-      <c r="W108" s="53"/>
-      <c r="X108" s="53"/>
-      <c r="Y108" s="53"/>
-      <c r="Z108" s="53"/>
-      <c r="AA108" s="54"/>
+      <c r="T108" s="65"/>
+      <c r="U108" s="58"/>
+      <c r="V108" s="59"/>
+      <c r="W108" s="59"/>
+      <c r="X108" s="59"/>
+      <c r="Y108" s="59"/>
+      <c r="Z108" s="59"/>
+      <c r="AA108" s="60"/>
     </row>
     <row r="109" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="65"/>
-      <c r="B109" s="74"/>
+      <c r="A109" s="75"/>
+      <c r="B109" s="54"/>
       <c r="C109" s="16" t="s">
         <v>10</v>
       </c>
@@ -7397,17 +7401,17 @@
       <c r="E109" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F109" s="51"/>
-      <c r="G109" s="58"/>
-      <c r="H109" s="59"/>
-      <c r="I109" s="59"/>
-      <c r="J109" s="59"/>
-      <c r="K109" s="59"/>
-      <c r="L109" s="59"/>
-      <c r="M109" s="60"/>
+      <c r="F109" s="57"/>
+      <c r="G109" s="61"/>
+      <c r="H109" s="62"/>
+      <c r="I109" s="62"/>
+      <c r="J109" s="62"/>
+      <c r="K109" s="62"/>
+      <c r="L109" s="62"/>
+      <c r="M109" s="63"/>
       <c r="N109" s="26"/>
-      <c r="O109" s="65"/>
-      <c r="P109" s="74"/>
+      <c r="O109" s="75"/>
+      <c r="P109" s="54"/>
       <c r="Q109" s="16" t="s">
         <v>10</v>
       </c>
@@ -7417,20 +7421,20 @@
       <c r="S109" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="T109" s="77"/>
-      <c r="U109" s="58"/>
-      <c r="V109" s="59"/>
-      <c r="W109" s="59"/>
-      <c r="X109" s="59"/>
-      <c r="Y109" s="59"/>
-      <c r="Z109" s="59"/>
-      <c r="AA109" s="60"/>
+      <c r="T109" s="66"/>
+      <c r="U109" s="61"/>
+      <c r="V109" s="62"/>
+      <c r="W109" s="62"/>
+      <c r="X109" s="62"/>
+      <c r="Y109" s="62"/>
+      <c r="Z109" s="62"/>
+      <c r="AA109" s="63"/>
     </row>
     <row r="110" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="63" t="s">
+      <c r="A110" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B110" s="72" t="s">
+      <c r="B110" s="52" t="s">
         <v>75</v>
       </c>
       <c r="C110" s="9" t="s">
@@ -7442,21 +7446,21 @@
       <c r="E110" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F110" s="49" t="s">
+      <c r="F110" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="G110" s="55"/>
-      <c r="H110" s="56"/>
-      <c r="I110" s="56"/>
-      <c r="J110" s="56"/>
-      <c r="K110" s="56"/>
-      <c r="L110" s="56"/>
-      <c r="M110" s="57"/>
+      <c r="G110" s="76"/>
+      <c r="H110" s="77"/>
+      <c r="I110" s="77"/>
+      <c r="J110" s="77"/>
+      <c r="K110" s="77"/>
+      <c r="L110" s="77"/>
+      <c r="M110" s="78"/>
       <c r="N110" s="26"/>
-      <c r="O110" s="63" t="s">
+      <c r="O110" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="P110" s="72" t="s">
+      <c r="P110" s="52" t="s">
         <v>77</v>
       </c>
       <c r="Q110" s="9" t="s">
@@ -7468,18 +7472,18 @@
       <c r="S110" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="T110" s="75"/>
-      <c r="U110" s="55"/>
-      <c r="V110" s="56"/>
-      <c r="W110" s="56"/>
-      <c r="X110" s="56"/>
-      <c r="Y110" s="56"/>
-      <c r="Z110" s="56"/>
-      <c r="AA110" s="57"/>
+      <c r="T110" s="64"/>
+      <c r="U110" s="76"/>
+      <c r="V110" s="77"/>
+      <c r="W110" s="77"/>
+      <c r="X110" s="77"/>
+      <c r="Y110" s="77"/>
+      <c r="Z110" s="77"/>
+      <c r="AA110" s="78"/>
     </row>
     <row r="111" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="64"/>
-      <c r="B111" s="73"/>
+      <c r="A111" s="74"/>
+      <c r="B111" s="53"/>
       <c r="C111" s="13" t="s">
         <v>10</v>
       </c>
@@ -7489,17 +7493,17 @@
       <c r="E111" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F111" s="50"/>
-      <c r="G111" s="52"/>
-      <c r="H111" s="53"/>
-      <c r="I111" s="53"/>
-      <c r="J111" s="53"/>
-      <c r="K111" s="53"/>
-      <c r="L111" s="53"/>
-      <c r="M111" s="54"/>
+      <c r="F111" s="56"/>
+      <c r="G111" s="58"/>
+      <c r="H111" s="59"/>
+      <c r="I111" s="59"/>
+      <c r="J111" s="59"/>
+      <c r="K111" s="59"/>
+      <c r="L111" s="59"/>
+      <c r="M111" s="60"/>
       <c r="N111" s="26"/>
-      <c r="O111" s="64"/>
-      <c r="P111" s="73"/>
+      <c r="O111" s="74"/>
+      <c r="P111" s="53"/>
       <c r="Q111" s="13" t="s">
         <v>10</v>
       </c>
@@ -7509,18 +7513,18 @@
       <c r="S111" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T111" s="76"/>
-      <c r="U111" s="52"/>
-      <c r="V111" s="53"/>
-      <c r="W111" s="53"/>
-      <c r="X111" s="53"/>
-      <c r="Y111" s="53"/>
-      <c r="Z111" s="53"/>
-      <c r="AA111" s="54"/>
+      <c r="T111" s="65"/>
+      <c r="U111" s="58"/>
+      <c r="V111" s="59"/>
+      <c r="W111" s="59"/>
+      <c r="X111" s="59"/>
+      <c r="Y111" s="59"/>
+      <c r="Z111" s="59"/>
+      <c r="AA111" s="60"/>
     </row>
     <row r="112" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="64"/>
-      <c r="B112" s="73"/>
+      <c r="A112" s="74"/>
+      <c r="B112" s="53"/>
       <c r="C112" s="13" t="s">
         <v>10</v>
       </c>
@@ -7530,17 +7534,17 @@
       <c r="E112" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F112" s="50"/>
-      <c r="G112" s="52"/>
-      <c r="H112" s="53"/>
-      <c r="I112" s="53"/>
-      <c r="J112" s="53"/>
-      <c r="K112" s="53"/>
-      <c r="L112" s="53"/>
-      <c r="M112" s="54"/>
+      <c r="F112" s="56"/>
+      <c r="G112" s="58"/>
+      <c r="H112" s="59"/>
+      <c r="I112" s="59"/>
+      <c r="J112" s="59"/>
+      <c r="K112" s="59"/>
+      <c r="L112" s="59"/>
+      <c r="M112" s="60"/>
       <c r="N112" s="26"/>
-      <c r="O112" s="64"/>
-      <c r="P112" s="73"/>
+      <c r="O112" s="74"/>
+      <c r="P112" s="53"/>
       <c r="Q112" s="13" t="s">
         <v>10</v>
       </c>
@@ -7550,18 +7554,18 @@
       <c r="S112" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T112" s="76"/>
-      <c r="U112" s="52"/>
-      <c r="V112" s="53"/>
-      <c r="W112" s="53"/>
-      <c r="X112" s="53"/>
-      <c r="Y112" s="53"/>
-      <c r="Z112" s="53"/>
-      <c r="AA112" s="54"/>
+      <c r="T112" s="65"/>
+      <c r="U112" s="58"/>
+      <c r="V112" s="59"/>
+      <c r="W112" s="59"/>
+      <c r="X112" s="59"/>
+      <c r="Y112" s="59"/>
+      <c r="Z112" s="59"/>
+      <c r="AA112" s="60"/>
     </row>
     <row r="113" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="64"/>
-      <c r="B113" s="73"/>
+      <c r="A113" s="74"/>
+      <c r="B113" s="53"/>
       <c r="C113" s="13" t="s">
         <v>10</v>
       </c>
@@ -7571,17 +7575,17 @@
       <c r="E113" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F113" s="50"/>
-      <c r="G113" s="52"/>
-      <c r="H113" s="53"/>
-      <c r="I113" s="53"/>
-      <c r="J113" s="53"/>
-      <c r="K113" s="53"/>
-      <c r="L113" s="53"/>
-      <c r="M113" s="54"/>
+      <c r="F113" s="56"/>
+      <c r="G113" s="58"/>
+      <c r="H113" s="59"/>
+      <c r="I113" s="59"/>
+      <c r="J113" s="59"/>
+      <c r="K113" s="59"/>
+      <c r="L113" s="59"/>
+      <c r="M113" s="60"/>
       <c r="N113" s="26"/>
-      <c r="O113" s="64"/>
-      <c r="P113" s="73"/>
+      <c r="O113" s="74"/>
+      <c r="P113" s="53"/>
       <c r="Q113" s="13" t="s">
         <v>10</v>
       </c>
@@ -7591,18 +7595,18 @@
       <c r="S113" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T113" s="76"/>
-      <c r="U113" s="52"/>
-      <c r="V113" s="53"/>
-      <c r="W113" s="53"/>
-      <c r="X113" s="53"/>
-      <c r="Y113" s="53"/>
-      <c r="Z113" s="53"/>
-      <c r="AA113" s="54"/>
+      <c r="T113" s="65"/>
+      <c r="U113" s="58"/>
+      <c r="V113" s="59"/>
+      <c r="W113" s="59"/>
+      <c r="X113" s="59"/>
+      <c r="Y113" s="59"/>
+      <c r="Z113" s="59"/>
+      <c r="AA113" s="60"/>
     </row>
     <row r="114" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="64"/>
-      <c r="B114" s="73"/>
+      <c r="A114" s="74"/>
+      <c r="B114" s="53"/>
       <c r="C114" s="13" t="s">
         <v>10</v>
       </c>
@@ -7612,17 +7616,17 @@
       <c r="E114" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F114" s="50"/>
-      <c r="G114" s="52"/>
-      <c r="H114" s="53"/>
-      <c r="I114" s="53"/>
-      <c r="J114" s="53"/>
-      <c r="K114" s="53"/>
-      <c r="L114" s="53"/>
-      <c r="M114" s="54"/>
+      <c r="F114" s="56"/>
+      <c r="G114" s="58"/>
+      <c r="H114" s="59"/>
+      <c r="I114" s="59"/>
+      <c r="J114" s="59"/>
+      <c r="K114" s="59"/>
+      <c r="L114" s="59"/>
+      <c r="M114" s="60"/>
       <c r="N114" s="26"/>
-      <c r="O114" s="64"/>
-      <c r="P114" s="73"/>
+      <c r="O114" s="74"/>
+      <c r="P114" s="53"/>
       <c r="Q114" s="13" t="s">
         <v>10</v>
       </c>
@@ -7632,18 +7636,18 @@
       <c r="S114" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T114" s="76"/>
-      <c r="U114" s="52"/>
-      <c r="V114" s="53"/>
-      <c r="W114" s="53"/>
-      <c r="X114" s="53"/>
-      <c r="Y114" s="53"/>
-      <c r="Z114" s="53"/>
-      <c r="AA114" s="54"/>
+      <c r="T114" s="65"/>
+      <c r="U114" s="58"/>
+      <c r="V114" s="59"/>
+      <c r="W114" s="59"/>
+      <c r="X114" s="59"/>
+      <c r="Y114" s="59"/>
+      <c r="Z114" s="59"/>
+      <c r="AA114" s="60"/>
     </row>
     <row r="115" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="64"/>
-      <c r="B115" s="73"/>
+      <c r="A115" s="74"/>
+      <c r="B115" s="53"/>
       <c r="C115" s="13" t="s">
         <v>10</v>
       </c>
@@ -7653,17 +7657,17 @@
       <c r="E115" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F115" s="50"/>
-      <c r="G115" s="52"/>
-      <c r="H115" s="53"/>
-      <c r="I115" s="53"/>
-      <c r="J115" s="53"/>
-      <c r="K115" s="53"/>
-      <c r="L115" s="53"/>
-      <c r="M115" s="54"/>
+      <c r="F115" s="56"/>
+      <c r="G115" s="58"/>
+      <c r="H115" s="59"/>
+      <c r="I115" s="59"/>
+      <c r="J115" s="59"/>
+      <c r="K115" s="59"/>
+      <c r="L115" s="59"/>
+      <c r="M115" s="60"/>
       <c r="N115" s="26"/>
-      <c r="O115" s="64"/>
-      <c r="P115" s="73"/>
+      <c r="O115" s="74"/>
+      <c r="P115" s="53"/>
       <c r="Q115" s="13" t="s">
         <v>10</v>
       </c>
@@ -7673,18 +7677,18 @@
       <c r="S115" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T115" s="76"/>
-      <c r="U115" s="52"/>
-      <c r="V115" s="53"/>
-      <c r="W115" s="53"/>
-      <c r="X115" s="53"/>
-      <c r="Y115" s="53"/>
-      <c r="Z115" s="53"/>
-      <c r="AA115" s="54"/>
+      <c r="T115" s="65"/>
+      <c r="U115" s="58"/>
+      <c r="V115" s="59"/>
+      <c r="W115" s="59"/>
+      <c r="X115" s="59"/>
+      <c r="Y115" s="59"/>
+      <c r="Z115" s="59"/>
+      <c r="AA115" s="60"/>
     </row>
     <row r="116" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="64"/>
-      <c r="B116" s="73"/>
+      <c r="A116" s="74"/>
+      <c r="B116" s="53"/>
       <c r="C116" s="13" t="s">
         <v>10</v>
       </c>
@@ -7694,17 +7698,17 @@
       <c r="E116" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F116" s="50"/>
-      <c r="G116" s="52"/>
-      <c r="H116" s="53"/>
-      <c r="I116" s="53"/>
-      <c r="J116" s="53"/>
-      <c r="K116" s="53"/>
-      <c r="L116" s="53"/>
-      <c r="M116" s="54"/>
+      <c r="F116" s="56"/>
+      <c r="G116" s="58"/>
+      <c r="H116" s="59"/>
+      <c r="I116" s="59"/>
+      <c r="J116" s="59"/>
+      <c r="K116" s="59"/>
+      <c r="L116" s="59"/>
+      <c r="M116" s="60"/>
       <c r="N116" s="26"/>
-      <c r="O116" s="64"/>
-      <c r="P116" s="73"/>
+      <c r="O116" s="74"/>
+      <c r="P116" s="53"/>
       <c r="Q116" s="13" t="s">
         <v>10</v>
       </c>
@@ -7714,18 +7718,18 @@
       <c r="S116" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T116" s="76"/>
-      <c r="U116" s="52"/>
-      <c r="V116" s="53"/>
-      <c r="W116" s="53"/>
-      <c r="X116" s="53"/>
-      <c r="Y116" s="53"/>
-      <c r="Z116" s="53"/>
-      <c r="AA116" s="54"/>
+      <c r="T116" s="65"/>
+      <c r="U116" s="58"/>
+      <c r="V116" s="59"/>
+      <c r="W116" s="59"/>
+      <c r="X116" s="59"/>
+      <c r="Y116" s="59"/>
+      <c r="Z116" s="59"/>
+      <c r="AA116" s="60"/>
     </row>
     <row r="117" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="65"/>
-      <c r="B117" s="74"/>
+      <c r="A117" s="75"/>
+      <c r="B117" s="54"/>
       <c r="C117" s="16" t="s">
         <v>10</v>
       </c>
@@ -7735,17 +7739,17 @@
       <c r="E117" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F117" s="51"/>
-      <c r="G117" s="58"/>
-      <c r="H117" s="59"/>
-      <c r="I117" s="59"/>
-      <c r="J117" s="59"/>
-      <c r="K117" s="59"/>
-      <c r="L117" s="59"/>
-      <c r="M117" s="60"/>
+      <c r="F117" s="57"/>
+      <c r="G117" s="61"/>
+      <c r="H117" s="62"/>
+      <c r="I117" s="62"/>
+      <c r="J117" s="62"/>
+      <c r="K117" s="62"/>
+      <c r="L117" s="62"/>
+      <c r="M117" s="63"/>
       <c r="N117" s="26"/>
-      <c r="O117" s="65"/>
-      <c r="P117" s="74"/>
+      <c r="O117" s="75"/>
+      <c r="P117" s="54"/>
       <c r="Q117" s="16" t="s">
         <v>10</v>
       </c>
@@ -7755,20 +7759,20 @@
       <c r="S117" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="T117" s="77"/>
-      <c r="U117" s="58"/>
-      <c r="V117" s="59"/>
-      <c r="W117" s="59"/>
-      <c r="X117" s="59"/>
-      <c r="Y117" s="59"/>
-      <c r="Z117" s="59"/>
-      <c r="AA117" s="60"/>
+      <c r="T117" s="66"/>
+      <c r="U117" s="61"/>
+      <c r="V117" s="62"/>
+      <c r="W117" s="62"/>
+      <c r="X117" s="62"/>
+      <c r="Y117" s="62"/>
+      <c r="Z117" s="62"/>
+      <c r="AA117" s="63"/>
     </row>
     <row r="118" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="63" t="s">
+      <c r="A118" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B118" s="72" t="s">
+      <c r="B118" s="52" t="s">
         <v>78</v>
       </c>
       <c r="C118" s="9" t="s">
@@ -7780,21 +7784,21 @@
       <c r="E118" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F118" s="49" t="s">
+      <c r="F118" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="G118" s="55"/>
-      <c r="H118" s="56"/>
-      <c r="I118" s="56"/>
-      <c r="J118" s="56"/>
-      <c r="K118" s="56"/>
-      <c r="L118" s="56"/>
-      <c r="M118" s="57"/>
+      <c r="G118" s="76"/>
+      <c r="H118" s="77"/>
+      <c r="I118" s="77"/>
+      <c r="J118" s="77"/>
+      <c r="K118" s="77"/>
+      <c r="L118" s="77"/>
+      <c r="M118" s="78"/>
       <c r="N118" s="26"/>
-      <c r="O118" s="63" t="s">
+      <c r="O118" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="P118" s="72" t="s">
+      <c r="P118" s="52" t="s">
         <v>79</v>
       </c>
       <c r="Q118" s="9" t="s">
@@ -7806,18 +7810,18 @@
       <c r="S118" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="T118" s="75"/>
-      <c r="U118" s="55"/>
-      <c r="V118" s="56"/>
-      <c r="W118" s="56"/>
-      <c r="X118" s="56"/>
-      <c r="Y118" s="56"/>
-      <c r="Z118" s="56"/>
-      <c r="AA118" s="57"/>
+      <c r="T118" s="64"/>
+      <c r="U118" s="76"/>
+      <c r="V118" s="77"/>
+      <c r="W118" s="77"/>
+      <c r="X118" s="77"/>
+      <c r="Y118" s="77"/>
+      <c r="Z118" s="77"/>
+      <c r="AA118" s="78"/>
     </row>
     <row r="119" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="64"/>
-      <c r="B119" s="73"/>
+      <c r="A119" s="74"/>
+      <c r="B119" s="53"/>
       <c r="C119" s="13" t="s">
         <v>10</v>
       </c>
@@ -7827,17 +7831,17 @@
       <c r="E119" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F119" s="50"/>
-      <c r="G119" s="52"/>
-      <c r="H119" s="53"/>
-      <c r="I119" s="53"/>
-      <c r="J119" s="53"/>
-      <c r="K119" s="53"/>
-      <c r="L119" s="53"/>
-      <c r="M119" s="54"/>
+      <c r="F119" s="56"/>
+      <c r="G119" s="58"/>
+      <c r="H119" s="59"/>
+      <c r="I119" s="59"/>
+      <c r="J119" s="59"/>
+      <c r="K119" s="59"/>
+      <c r="L119" s="59"/>
+      <c r="M119" s="60"/>
       <c r="N119" s="26"/>
-      <c r="O119" s="64"/>
-      <c r="P119" s="73"/>
+      <c r="O119" s="74"/>
+      <c r="P119" s="53"/>
       <c r="Q119" s="13" t="s">
         <v>10</v>
       </c>
@@ -7847,18 +7851,18 @@
       <c r="S119" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T119" s="76"/>
-      <c r="U119" s="52"/>
-      <c r="V119" s="53"/>
-      <c r="W119" s="53"/>
-      <c r="X119" s="53"/>
-      <c r="Y119" s="53"/>
-      <c r="Z119" s="53"/>
-      <c r="AA119" s="54"/>
+      <c r="T119" s="65"/>
+      <c r="U119" s="58"/>
+      <c r="V119" s="59"/>
+      <c r="W119" s="59"/>
+      <c r="X119" s="59"/>
+      <c r="Y119" s="59"/>
+      <c r="Z119" s="59"/>
+      <c r="AA119" s="60"/>
     </row>
     <row r="120" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="64"/>
-      <c r="B120" s="73"/>
+      <c r="A120" s="74"/>
+      <c r="B120" s="53"/>
       <c r="C120" s="13" t="s">
         <v>10</v>
       </c>
@@ -7868,17 +7872,17 @@
       <c r="E120" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F120" s="50"/>
-      <c r="G120" s="52"/>
-      <c r="H120" s="53"/>
-      <c r="I120" s="53"/>
-      <c r="J120" s="53"/>
-      <c r="K120" s="53"/>
-      <c r="L120" s="53"/>
-      <c r="M120" s="54"/>
+      <c r="F120" s="56"/>
+      <c r="G120" s="58"/>
+      <c r="H120" s="59"/>
+      <c r="I120" s="59"/>
+      <c r="J120" s="59"/>
+      <c r="K120" s="59"/>
+      <c r="L120" s="59"/>
+      <c r="M120" s="60"/>
       <c r="N120" s="26"/>
-      <c r="O120" s="64"/>
-      <c r="P120" s="73"/>
+      <c r="O120" s="74"/>
+      <c r="P120" s="53"/>
       <c r="Q120" s="13" t="s">
         <v>10</v>
       </c>
@@ -7888,18 +7892,18 @@
       <c r="S120" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T120" s="76"/>
-      <c r="U120" s="52"/>
-      <c r="V120" s="53"/>
-      <c r="W120" s="53"/>
-      <c r="X120" s="53"/>
-      <c r="Y120" s="53"/>
-      <c r="Z120" s="53"/>
-      <c r="AA120" s="54"/>
+      <c r="T120" s="65"/>
+      <c r="U120" s="58"/>
+      <c r="V120" s="59"/>
+      <c r="W120" s="59"/>
+      <c r="X120" s="59"/>
+      <c r="Y120" s="59"/>
+      <c r="Z120" s="59"/>
+      <c r="AA120" s="60"/>
     </row>
     <row r="121" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="64"/>
-      <c r="B121" s="73"/>
+      <c r="A121" s="74"/>
+      <c r="B121" s="53"/>
       <c r="C121" s="13" t="s">
         <v>10</v>
       </c>
@@ -7909,17 +7913,17 @@
       <c r="E121" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F121" s="50"/>
-      <c r="G121" s="52"/>
-      <c r="H121" s="53"/>
-      <c r="I121" s="53"/>
-      <c r="J121" s="53"/>
-      <c r="K121" s="53"/>
-      <c r="L121" s="53"/>
-      <c r="M121" s="54"/>
+      <c r="F121" s="56"/>
+      <c r="G121" s="58"/>
+      <c r="H121" s="59"/>
+      <c r="I121" s="59"/>
+      <c r="J121" s="59"/>
+      <c r="K121" s="59"/>
+      <c r="L121" s="59"/>
+      <c r="M121" s="60"/>
       <c r="N121" s="26"/>
-      <c r="O121" s="64"/>
-      <c r="P121" s="73"/>
+      <c r="O121" s="74"/>
+      <c r="P121" s="53"/>
       <c r="Q121" s="13" t="s">
         <v>10</v>
       </c>
@@ -7929,18 +7933,18 @@
       <c r="S121" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T121" s="76"/>
-      <c r="U121" s="52"/>
-      <c r="V121" s="53"/>
-      <c r="W121" s="53"/>
-      <c r="X121" s="53"/>
-      <c r="Y121" s="53"/>
-      <c r="Z121" s="53"/>
-      <c r="AA121" s="54"/>
+      <c r="T121" s="65"/>
+      <c r="U121" s="58"/>
+      <c r="V121" s="59"/>
+      <c r="W121" s="59"/>
+      <c r="X121" s="59"/>
+      <c r="Y121" s="59"/>
+      <c r="Z121" s="59"/>
+      <c r="AA121" s="60"/>
     </row>
     <row r="122" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="64"/>
-      <c r="B122" s="73"/>
+      <c r="A122" s="74"/>
+      <c r="B122" s="53"/>
       <c r="C122" s="13" t="s">
         <v>10</v>
       </c>
@@ -7950,17 +7954,17 @@
       <c r="E122" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F122" s="50"/>
-      <c r="G122" s="52"/>
-      <c r="H122" s="53"/>
-      <c r="I122" s="53"/>
-      <c r="J122" s="53"/>
-      <c r="K122" s="53"/>
-      <c r="L122" s="53"/>
-      <c r="M122" s="54"/>
+      <c r="F122" s="56"/>
+      <c r="G122" s="58"/>
+      <c r="H122" s="59"/>
+      <c r="I122" s="59"/>
+      <c r="J122" s="59"/>
+      <c r="K122" s="59"/>
+      <c r="L122" s="59"/>
+      <c r="M122" s="60"/>
       <c r="N122" s="26"/>
-      <c r="O122" s="64"/>
-      <c r="P122" s="73"/>
+      <c r="O122" s="74"/>
+      <c r="P122" s="53"/>
       <c r="Q122" s="13" t="s">
         <v>10</v>
       </c>
@@ -7970,18 +7974,18 @@
       <c r="S122" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T122" s="76"/>
-      <c r="U122" s="52"/>
-      <c r="V122" s="53"/>
-      <c r="W122" s="53"/>
-      <c r="X122" s="53"/>
-      <c r="Y122" s="53"/>
-      <c r="Z122" s="53"/>
-      <c r="AA122" s="54"/>
+      <c r="T122" s="65"/>
+      <c r="U122" s="58"/>
+      <c r="V122" s="59"/>
+      <c r="W122" s="59"/>
+      <c r="X122" s="59"/>
+      <c r="Y122" s="59"/>
+      <c r="Z122" s="59"/>
+      <c r="AA122" s="60"/>
     </row>
     <row r="123" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="64"/>
-      <c r="B123" s="73"/>
+      <c r="A123" s="74"/>
+      <c r="B123" s="53"/>
       <c r="C123" s="13" t="s">
         <v>10</v>
       </c>
@@ -7991,17 +7995,17 @@
       <c r="E123" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F123" s="50"/>
-      <c r="G123" s="52"/>
-      <c r="H123" s="53"/>
-      <c r="I123" s="53"/>
-      <c r="J123" s="53"/>
-      <c r="K123" s="53"/>
-      <c r="L123" s="53"/>
-      <c r="M123" s="54"/>
+      <c r="F123" s="56"/>
+      <c r="G123" s="58"/>
+      <c r="H123" s="59"/>
+      <c r="I123" s="59"/>
+      <c r="J123" s="59"/>
+      <c r="K123" s="59"/>
+      <c r="L123" s="59"/>
+      <c r="M123" s="60"/>
       <c r="N123" s="26"/>
-      <c r="O123" s="64"/>
-      <c r="P123" s="73"/>
+      <c r="O123" s="74"/>
+      <c r="P123" s="53"/>
       <c r="Q123" s="13" t="s">
         <v>10</v>
       </c>
@@ -8011,18 +8015,18 @@
       <c r="S123" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T123" s="76"/>
-      <c r="U123" s="52"/>
-      <c r="V123" s="53"/>
-      <c r="W123" s="53"/>
-      <c r="X123" s="53"/>
-      <c r="Y123" s="53"/>
-      <c r="Z123" s="53"/>
-      <c r="AA123" s="54"/>
+      <c r="T123" s="65"/>
+      <c r="U123" s="58"/>
+      <c r="V123" s="59"/>
+      <c r="W123" s="59"/>
+      <c r="X123" s="59"/>
+      <c r="Y123" s="59"/>
+      <c r="Z123" s="59"/>
+      <c r="AA123" s="60"/>
     </row>
     <row r="124" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="64"/>
-      <c r="B124" s="73"/>
+      <c r="A124" s="74"/>
+      <c r="B124" s="53"/>
       <c r="C124" s="13" t="s">
         <v>10</v>
       </c>
@@ -8032,17 +8036,17 @@
       <c r="E124" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F124" s="50"/>
-      <c r="G124" s="52"/>
-      <c r="H124" s="53"/>
-      <c r="I124" s="53"/>
-      <c r="J124" s="53"/>
-      <c r="K124" s="53"/>
-      <c r="L124" s="53"/>
-      <c r="M124" s="54"/>
+      <c r="F124" s="56"/>
+      <c r="G124" s="58"/>
+      <c r="H124" s="59"/>
+      <c r="I124" s="59"/>
+      <c r="J124" s="59"/>
+      <c r="K124" s="59"/>
+      <c r="L124" s="59"/>
+      <c r="M124" s="60"/>
       <c r="N124" s="26"/>
-      <c r="O124" s="64"/>
-      <c r="P124" s="73"/>
+      <c r="O124" s="74"/>
+      <c r="P124" s="53"/>
       <c r="Q124" s="13" t="s">
         <v>10</v>
       </c>
@@ -8052,18 +8056,18 @@
       <c r="S124" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T124" s="76"/>
-      <c r="U124" s="52"/>
-      <c r="V124" s="53"/>
-      <c r="W124" s="53"/>
-      <c r="X124" s="53"/>
-      <c r="Y124" s="53"/>
-      <c r="Z124" s="53"/>
-      <c r="AA124" s="54"/>
+      <c r="T124" s="65"/>
+      <c r="U124" s="58"/>
+      <c r="V124" s="59"/>
+      <c r="W124" s="59"/>
+      <c r="X124" s="59"/>
+      <c r="Y124" s="59"/>
+      <c r="Z124" s="59"/>
+      <c r="AA124" s="60"/>
     </row>
     <row r="125" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="65"/>
-      <c r="B125" s="74"/>
+      <c r="A125" s="75"/>
+      <c r="B125" s="54"/>
       <c r="C125" s="16" t="s">
         <v>10</v>
       </c>
@@ -8073,17 +8077,17 @@
       <c r="E125" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F125" s="51"/>
-      <c r="G125" s="58"/>
-      <c r="H125" s="59"/>
-      <c r="I125" s="59"/>
-      <c r="J125" s="59"/>
-      <c r="K125" s="59"/>
-      <c r="L125" s="59"/>
-      <c r="M125" s="60"/>
+      <c r="F125" s="57"/>
+      <c r="G125" s="61"/>
+      <c r="H125" s="62"/>
+      <c r="I125" s="62"/>
+      <c r="J125" s="62"/>
+      <c r="K125" s="62"/>
+      <c r="L125" s="62"/>
+      <c r="M125" s="63"/>
       <c r="N125" s="26"/>
-      <c r="O125" s="65"/>
-      <c r="P125" s="74"/>
+      <c r="O125" s="75"/>
+      <c r="P125" s="54"/>
       <c r="Q125" s="16" t="s">
         <v>10</v>
       </c>
@@ -8093,20 +8097,20 @@
       <c r="S125" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="T125" s="77"/>
-      <c r="U125" s="58"/>
-      <c r="V125" s="59"/>
-      <c r="W125" s="59"/>
-      <c r="X125" s="59"/>
-      <c r="Y125" s="59"/>
-      <c r="Z125" s="59"/>
-      <c r="AA125" s="60"/>
+      <c r="T125" s="66"/>
+      <c r="U125" s="61"/>
+      <c r="V125" s="62"/>
+      <c r="W125" s="62"/>
+      <c r="X125" s="62"/>
+      <c r="Y125" s="62"/>
+      <c r="Z125" s="62"/>
+      <c r="AA125" s="63"/>
     </row>
     <row r="126" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="63" t="s">
+      <c r="A126" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B126" s="72" t="s">
+      <c r="B126" s="52" t="s">
         <v>80</v>
       </c>
       <c r="C126" s="9" t="s">
@@ -8118,21 +8122,21 @@
       <c r="E126" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F126" s="49" t="s">
+      <c r="F126" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="G126" s="55"/>
-      <c r="H126" s="56"/>
-      <c r="I126" s="56"/>
-      <c r="J126" s="56"/>
-      <c r="K126" s="56"/>
-      <c r="L126" s="56"/>
-      <c r="M126" s="57"/>
+      <c r="G126" s="76"/>
+      <c r="H126" s="77"/>
+      <c r="I126" s="77"/>
+      <c r="J126" s="77"/>
+      <c r="K126" s="77"/>
+      <c r="L126" s="77"/>
+      <c r="M126" s="78"/>
       <c r="N126" s="26"/>
-      <c r="O126" s="63" t="s">
+      <c r="O126" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="P126" s="72" t="s">
+      <c r="P126" s="52" t="s">
         <v>81</v>
       </c>
       <c r="Q126" s="9" t="s">
@@ -8144,18 +8148,18 @@
       <c r="S126" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="T126" s="75"/>
-      <c r="U126" s="55"/>
-      <c r="V126" s="56"/>
-      <c r="W126" s="56"/>
-      <c r="X126" s="56"/>
-      <c r="Y126" s="56"/>
-      <c r="Z126" s="56"/>
-      <c r="AA126" s="57"/>
+      <c r="T126" s="64"/>
+      <c r="U126" s="76"/>
+      <c r="V126" s="77"/>
+      <c r="W126" s="77"/>
+      <c r="X126" s="77"/>
+      <c r="Y126" s="77"/>
+      <c r="Z126" s="77"/>
+      <c r="AA126" s="78"/>
     </row>
     <row r="127" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="64"/>
-      <c r="B127" s="73"/>
+      <c r="A127" s="74"/>
+      <c r="B127" s="53"/>
       <c r="C127" s="13" t="s">
         <v>10</v>
       </c>
@@ -8165,17 +8169,17 @@
       <c r="E127" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F127" s="50"/>
-      <c r="G127" s="52"/>
-      <c r="H127" s="53"/>
-      <c r="I127" s="53"/>
-      <c r="J127" s="53"/>
-      <c r="K127" s="53"/>
-      <c r="L127" s="53"/>
-      <c r="M127" s="54"/>
+      <c r="F127" s="56"/>
+      <c r="G127" s="58"/>
+      <c r="H127" s="59"/>
+      <c r="I127" s="59"/>
+      <c r="J127" s="59"/>
+      <c r="K127" s="59"/>
+      <c r="L127" s="59"/>
+      <c r="M127" s="60"/>
       <c r="N127" s="26"/>
-      <c r="O127" s="64"/>
-      <c r="P127" s="73"/>
+      <c r="O127" s="74"/>
+      <c r="P127" s="53"/>
       <c r="Q127" s="13" t="s">
         <v>10</v>
       </c>
@@ -8185,18 +8189,18 @@
       <c r="S127" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T127" s="76"/>
-      <c r="U127" s="52"/>
-      <c r="V127" s="53"/>
-      <c r="W127" s="53"/>
-      <c r="X127" s="53"/>
-      <c r="Y127" s="53"/>
-      <c r="Z127" s="53"/>
-      <c r="AA127" s="54"/>
+      <c r="T127" s="65"/>
+      <c r="U127" s="58"/>
+      <c r="V127" s="59"/>
+      <c r="W127" s="59"/>
+      <c r="X127" s="59"/>
+      <c r="Y127" s="59"/>
+      <c r="Z127" s="59"/>
+      <c r="AA127" s="60"/>
     </row>
     <row r="128" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="64"/>
-      <c r="B128" s="73"/>
+      <c r="A128" s="74"/>
+      <c r="B128" s="53"/>
       <c r="C128" s="13" t="s">
         <v>10</v>
       </c>
@@ -8206,17 +8210,17 @@
       <c r="E128" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F128" s="50"/>
-      <c r="G128" s="52"/>
-      <c r="H128" s="53"/>
-      <c r="I128" s="53"/>
-      <c r="J128" s="53"/>
-      <c r="K128" s="53"/>
-      <c r="L128" s="53"/>
-      <c r="M128" s="54"/>
+      <c r="F128" s="56"/>
+      <c r="G128" s="58"/>
+      <c r="H128" s="59"/>
+      <c r="I128" s="59"/>
+      <c r="J128" s="59"/>
+      <c r="K128" s="59"/>
+      <c r="L128" s="59"/>
+      <c r="M128" s="60"/>
       <c r="N128" s="26"/>
-      <c r="O128" s="64"/>
-      <c r="P128" s="73"/>
+      <c r="O128" s="74"/>
+      <c r="P128" s="53"/>
       <c r="Q128" s="13" t="s">
         <v>10</v>
       </c>
@@ -8226,18 +8230,18 @@
       <c r="S128" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T128" s="76"/>
-      <c r="U128" s="52"/>
-      <c r="V128" s="53"/>
-      <c r="W128" s="53"/>
-      <c r="X128" s="53"/>
-      <c r="Y128" s="53"/>
-      <c r="Z128" s="53"/>
-      <c r="AA128" s="54"/>
+      <c r="T128" s="65"/>
+      <c r="U128" s="58"/>
+      <c r="V128" s="59"/>
+      <c r="W128" s="59"/>
+      <c r="X128" s="59"/>
+      <c r="Y128" s="59"/>
+      <c r="Z128" s="59"/>
+      <c r="AA128" s="60"/>
     </row>
     <row r="129" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="64"/>
-      <c r="B129" s="73"/>
+      <c r="A129" s="74"/>
+      <c r="B129" s="53"/>
       <c r="C129" s="13" t="s">
         <v>10</v>
       </c>
@@ -8247,17 +8251,17 @@
       <c r="E129" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F129" s="50"/>
-      <c r="G129" s="52"/>
-      <c r="H129" s="53"/>
-      <c r="I129" s="53"/>
-      <c r="J129" s="53"/>
-      <c r="K129" s="53"/>
-      <c r="L129" s="53"/>
-      <c r="M129" s="54"/>
+      <c r="F129" s="56"/>
+      <c r="G129" s="58"/>
+      <c r="H129" s="59"/>
+      <c r="I129" s="59"/>
+      <c r="J129" s="59"/>
+      <c r="K129" s="59"/>
+      <c r="L129" s="59"/>
+      <c r="M129" s="60"/>
       <c r="N129" s="26"/>
-      <c r="O129" s="64"/>
-      <c r="P129" s="73"/>
+      <c r="O129" s="74"/>
+      <c r="P129" s="53"/>
       <c r="Q129" s="13" t="s">
         <v>10</v>
       </c>
@@ -8267,18 +8271,18 @@
       <c r="S129" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T129" s="76"/>
-      <c r="U129" s="52"/>
-      <c r="V129" s="53"/>
-      <c r="W129" s="53"/>
-      <c r="X129" s="53"/>
-      <c r="Y129" s="53"/>
-      <c r="Z129" s="53"/>
-      <c r="AA129" s="54"/>
+      <c r="T129" s="65"/>
+      <c r="U129" s="58"/>
+      <c r="V129" s="59"/>
+      <c r="W129" s="59"/>
+      <c r="X129" s="59"/>
+      <c r="Y129" s="59"/>
+      <c r="Z129" s="59"/>
+      <c r="AA129" s="60"/>
     </row>
     <row r="130" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="64"/>
-      <c r="B130" s="73"/>
+      <c r="A130" s="74"/>
+      <c r="B130" s="53"/>
       <c r="C130" s="13" t="s">
         <v>10</v>
       </c>
@@ -8288,17 +8292,17 @@
       <c r="E130" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F130" s="50"/>
-      <c r="G130" s="52"/>
-      <c r="H130" s="53"/>
-      <c r="I130" s="53"/>
-      <c r="J130" s="53"/>
-      <c r="K130" s="53"/>
-      <c r="L130" s="53"/>
-      <c r="M130" s="54"/>
+      <c r="F130" s="56"/>
+      <c r="G130" s="58"/>
+      <c r="H130" s="59"/>
+      <c r="I130" s="59"/>
+      <c r="J130" s="59"/>
+      <c r="K130" s="59"/>
+      <c r="L130" s="59"/>
+      <c r="M130" s="60"/>
       <c r="N130" s="26"/>
-      <c r="O130" s="64"/>
-      <c r="P130" s="73"/>
+      <c r="O130" s="74"/>
+      <c r="P130" s="53"/>
       <c r="Q130" s="13" t="s">
         <v>10</v>
       </c>
@@ -8308,18 +8312,18 @@
       <c r="S130" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T130" s="76"/>
-      <c r="U130" s="52"/>
-      <c r="V130" s="53"/>
-      <c r="W130" s="53"/>
-      <c r="X130" s="53"/>
-      <c r="Y130" s="53"/>
-      <c r="Z130" s="53"/>
-      <c r="AA130" s="54"/>
+      <c r="T130" s="65"/>
+      <c r="U130" s="58"/>
+      <c r="V130" s="59"/>
+      <c r="W130" s="59"/>
+      <c r="X130" s="59"/>
+      <c r="Y130" s="59"/>
+      <c r="Z130" s="59"/>
+      <c r="AA130" s="60"/>
     </row>
     <row r="131" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="64"/>
-      <c r="B131" s="73"/>
+      <c r="A131" s="74"/>
+      <c r="B131" s="53"/>
       <c r="C131" s="13" t="s">
         <v>10</v>
       </c>
@@ -8329,17 +8333,17 @@
       <c r="E131" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F131" s="50"/>
-      <c r="G131" s="52"/>
-      <c r="H131" s="53"/>
-      <c r="I131" s="53"/>
-      <c r="J131" s="53"/>
-      <c r="K131" s="53"/>
-      <c r="L131" s="53"/>
-      <c r="M131" s="54"/>
+      <c r="F131" s="56"/>
+      <c r="G131" s="58"/>
+      <c r="H131" s="59"/>
+      <c r="I131" s="59"/>
+      <c r="J131" s="59"/>
+      <c r="K131" s="59"/>
+      <c r="L131" s="59"/>
+      <c r="M131" s="60"/>
       <c r="N131" s="26"/>
-      <c r="O131" s="64"/>
-      <c r="P131" s="73"/>
+      <c r="O131" s="74"/>
+      <c r="P131" s="53"/>
       <c r="Q131" s="13" t="s">
         <v>10</v>
       </c>
@@ -8349,18 +8353,18 @@
       <c r="S131" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T131" s="76"/>
-      <c r="U131" s="52"/>
-      <c r="V131" s="53"/>
-      <c r="W131" s="53"/>
-      <c r="X131" s="53"/>
-      <c r="Y131" s="53"/>
-      <c r="Z131" s="53"/>
-      <c r="AA131" s="54"/>
+      <c r="T131" s="65"/>
+      <c r="U131" s="58"/>
+      <c r="V131" s="59"/>
+      <c r="W131" s="59"/>
+      <c r="X131" s="59"/>
+      <c r="Y131" s="59"/>
+      <c r="Z131" s="59"/>
+      <c r="AA131" s="60"/>
     </row>
     <row r="132" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="64"/>
-      <c r="B132" s="73"/>
+      <c r="A132" s="74"/>
+      <c r="B132" s="53"/>
       <c r="C132" s="13" t="s">
         <v>10</v>
       </c>
@@ -8370,17 +8374,17 @@
       <c r="E132" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F132" s="50"/>
-      <c r="G132" s="52"/>
-      <c r="H132" s="53"/>
-      <c r="I132" s="53"/>
-      <c r="J132" s="53"/>
-      <c r="K132" s="53"/>
-      <c r="L132" s="53"/>
-      <c r="M132" s="54"/>
+      <c r="F132" s="56"/>
+      <c r="G132" s="58"/>
+      <c r="H132" s="59"/>
+      <c r="I132" s="59"/>
+      <c r="J132" s="59"/>
+      <c r="K132" s="59"/>
+      <c r="L132" s="59"/>
+      <c r="M132" s="60"/>
       <c r="N132" s="26"/>
-      <c r="O132" s="64"/>
-      <c r="P132" s="73"/>
+      <c r="O132" s="74"/>
+      <c r="P132" s="53"/>
       <c r="Q132" s="13" t="s">
         <v>10</v>
       </c>
@@ -8390,18 +8394,18 @@
       <c r="S132" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T132" s="76"/>
-      <c r="U132" s="52"/>
-      <c r="V132" s="53"/>
-      <c r="W132" s="53"/>
-      <c r="X132" s="53"/>
-      <c r="Y132" s="53"/>
-      <c r="Z132" s="53"/>
-      <c r="AA132" s="54"/>
+      <c r="T132" s="65"/>
+      <c r="U132" s="58"/>
+      <c r="V132" s="59"/>
+      <c r="W132" s="59"/>
+      <c r="X132" s="59"/>
+      <c r="Y132" s="59"/>
+      <c r="Z132" s="59"/>
+      <c r="AA132" s="60"/>
     </row>
     <row r="133" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="65"/>
-      <c r="B133" s="74"/>
+      <c r="A133" s="75"/>
+      <c r="B133" s="54"/>
       <c r="C133" s="16" t="s">
         <v>10</v>
       </c>
@@ -8411,17 +8415,17 @@
       <c r="E133" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F133" s="51"/>
-      <c r="G133" s="58"/>
-      <c r="H133" s="59"/>
-      <c r="I133" s="59"/>
-      <c r="J133" s="59"/>
-      <c r="K133" s="59"/>
-      <c r="L133" s="59"/>
-      <c r="M133" s="60"/>
+      <c r="F133" s="57"/>
+      <c r="G133" s="61"/>
+      <c r="H133" s="62"/>
+      <c r="I133" s="62"/>
+      <c r="J133" s="62"/>
+      <c r="K133" s="62"/>
+      <c r="L133" s="62"/>
+      <c r="M133" s="63"/>
       <c r="N133" s="26"/>
-      <c r="O133" s="65"/>
-      <c r="P133" s="74"/>
+      <c r="O133" s="75"/>
+      <c r="P133" s="54"/>
       <c r="Q133" s="16" t="s">
         <v>10</v>
       </c>
@@ -8431,20 +8435,20 @@
       <c r="S133" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="T133" s="77"/>
-      <c r="U133" s="58"/>
-      <c r="V133" s="59"/>
-      <c r="W133" s="59"/>
-      <c r="X133" s="59"/>
-      <c r="Y133" s="59"/>
-      <c r="Z133" s="59"/>
-      <c r="AA133" s="60"/>
+      <c r="T133" s="66"/>
+      <c r="U133" s="61"/>
+      <c r="V133" s="62"/>
+      <c r="W133" s="62"/>
+      <c r="X133" s="62"/>
+      <c r="Y133" s="62"/>
+      <c r="Z133" s="62"/>
+      <c r="AA133" s="63"/>
     </row>
     <row r="134" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="63" t="s">
+      <c r="A134" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B134" s="72" t="s">
+      <c r="B134" s="52" t="s">
         <v>82</v>
       </c>
       <c r="C134" s="9" t="s">
@@ -8456,21 +8460,21 @@
       <c r="E134" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F134" s="49" t="s">
+      <c r="F134" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="G134" s="55"/>
-      <c r="H134" s="56"/>
-      <c r="I134" s="56"/>
-      <c r="J134" s="56"/>
-      <c r="K134" s="56"/>
-      <c r="L134" s="56"/>
-      <c r="M134" s="57"/>
+      <c r="G134" s="76"/>
+      <c r="H134" s="77"/>
+      <c r="I134" s="77"/>
+      <c r="J134" s="77"/>
+      <c r="K134" s="77"/>
+      <c r="L134" s="77"/>
+      <c r="M134" s="78"/>
       <c r="N134" s="26"/>
-      <c r="O134" s="63" t="s">
+      <c r="O134" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="P134" s="72" t="s">
+      <c r="P134" s="52" t="s">
         <v>83</v>
       </c>
       <c r="Q134" s="9" t="s">
@@ -8482,18 +8486,18 @@
       <c r="S134" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="T134" s="75"/>
-      <c r="U134" s="55"/>
-      <c r="V134" s="56"/>
-      <c r="W134" s="56"/>
-      <c r="X134" s="56"/>
-      <c r="Y134" s="56"/>
-      <c r="Z134" s="56"/>
-      <c r="AA134" s="57"/>
+      <c r="T134" s="64"/>
+      <c r="U134" s="76"/>
+      <c r="V134" s="77"/>
+      <c r="W134" s="77"/>
+      <c r="X134" s="77"/>
+      <c r="Y134" s="77"/>
+      <c r="Z134" s="77"/>
+      <c r="AA134" s="78"/>
     </row>
     <row r="135" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="64"/>
-      <c r="B135" s="73"/>
+      <c r="A135" s="74"/>
+      <c r="B135" s="53"/>
       <c r="C135" s="13" t="s">
         <v>10</v>
       </c>
@@ -8503,17 +8507,17 @@
       <c r="E135" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F135" s="50"/>
-      <c r="G135" s="52"/>
-      <c r="H135" s="53"/>
-      <c r="I135" s="53"/>
-      <c r="J135" s="53"/>
-      <c r="K135" s="53"/>
-      <c r="L135" s="53"/>
-      <c r="M135" s="54"/>
+      <c r="F135" s="56"/>
+      <c r="G135" s="58"/>
+      <c r="H135" s="59"/>
+      <c r="I135" s="59"/>
+      <c r="J135" s="59"/>
+      <c r="K135" s="59"/>
+      <c r="L135" s="59"/>
+      <c r="M135" s="60"/>
       <c r="N135" s="26"/>
-      <c r="O135" s="64"/>
-      <c r="P135" s="73"/>
+      <c r="O135" s="74"/>
+      <c r="P135" s="53"/>
       <c r="Q135" s="13" t="s">
         <v>10</v>
       </c>
@@ -8523,18 +8527,18 @@
       <c r="S135" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T135" s="76"/>
-      <c r="U135" s="52"/>
-      <c r="V135" s="53"/>
-      <c r="W135" s="53"/>
-      <c r="X135" s="53"/>
-      <c r="Y135" s="53"/>
-      <c r="Z135" s="53"/>
-      <c r="AA135" s="54"/>
+      <c r="T135" s="65"/>
+      <c r="U135" s="58"/>
+      <c r="V135" s="59"/>
+      <c r="W135" s="59"/>
+      <c r="X135" s="59"/>
+      <c r="Y135" s="59"/>
+      <c r="Z135" s="59"/>
+      <c r="AA135" s="60"/>
     </row>
     <row r="136" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="64"/>
-      <c r="B136" s="73"/>
+      <c r="A136" s="74"/>
+      <c r="B136" s="53"/>
       <c r="C136" s="13" t="s">
         <v>10</v>
       </c>
@@ -8544,17 +8548,17 @@
       <c r="E136" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F136" s="50"/>
-      <c r="G136" s="52"/>
-      <c r="H136" s="53"/>
-      <c r="I136" s="53"/>
-      <c r="J136" s="53"/>
-      <c r="K136" s="53"/>
-      <c r="L136" s="53"/>
-      <c r="M136" s="54"/>
+      <c r="F136" s="56"/>
+      <c r="G136" s="58"/>
+      <c r="H136" s="59"/>
+      <c r="I136" s="59"/>
+      <c r="J136" s="59"/>
+      <c r="K136" s="59"/>
+      <c r="L136" s="59"/>
+      <c r="M136" s="60"/>
       <c r="N136" s="26"/>
-      <c r="O136" s="64"/>
-      <c r="P136" s="73"/>
+      <c r="O136" s="74"/>
+      <c r="P136" s="53"/>
       <c r="Q136" s="13" t="s">
         <v>10</v>
       </c>
@@ -8564,18 +8568,18 @@
       <c r="S136" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T136" s="76"/>
-      <c r="U136" s="52"/>
-      <c r="V136" s="53"/>
-      <c r="W136" s="53"/>
-      <c r="X136" s="53"/>
-      <c r="Y136" s="53"/>
-      <c r="Z136" s="53"/>
-      <c r="AA136" s="54"/>
+      <c r="T136" s="65"/>
+      <c r="U136" s="58"/>
+      <c r="V136" s="59"/>
+      <c r="W136" s="59"/>
+      <c r="X136" s="59"/>
+      <c r="Y136" s="59"/>
+      <c r="Z136" s="59"/>
+      <c r="AA136" s="60"/>
     </row>
     <row r="137" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="64"/>
-      <c r="B137" s="73"/>
+      <c r="A137" s="74"/>
+      <c r="B137" s="53"/>
       <c r="C137" s="13" t="s">
         <v>10</v>
       </c>
@@ -8585,17 +8589,17 @@
       <c r="E137" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F137" s="50"/>
-      <c r="G137" s="52"/>
-      <c r="H137" s="53"/>
-      <c r="I137" s="53"/>
-      <c r="J137" s="53"/>
-      <c r="K137" s="53"/>
-      <c r="L137" s="53"/>
-      <c r="M137" s="54"/>
+      <c r="F137" s="56"/>
+      <c r="G137" s="58"/>
+      <c r="H137" s="59"/>
+      <c r="I137" s="59"/>
+      <c r="J137" s="59"/>
+      <c r="K137" s="59"/>
+      <c r="L137" s="59"/>
+      <c r="M137" s="60"/>
       <c r="N137" s="26"/>
-      <c r="O137" s="64"/>
-      <c r="P137" s="73"/>
+      <c r="O137" s="74"/>
+      <c r="P137" s="53"/>
       <c r="Q137" s="13" t="s">
         <v>10</v>
       </c>
@@ -8605,18 +8609,18 @@
       <c r="S137" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T137" s="76"/>
-      <c r="U137" s="52"/>
-      <c r="V137" s="53"/>
-      <c r="W137" s="53"/>
-      <c r="X137" s="53"/>
-      <c r="Y137" s="53"/>
-      <c r="Z137" s="53"/>
-      <c r="AA137" s="54"/>
+      <c r="T137" s="65"/>
+      <c r="U137" s="58"/>
+      <c r="V137" s="59"/>
+      <c r="W137" s="59"/>
+      <c r="X137" s="59"/>
+      <c r="Y137" s="59"/>
+      <c r="Z137" s="59"/>
+      <c r="AA137" s="60"/>
     </row>
     <row r="138" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="64"/>
-      <c r="B138" s="73"/>
+      <c r="A138" s="74"/>
+      <c r="B138" s="53"/>
       <c r="C138" s="13" t="s">
         <v>10</v>
       </c>
@@ -8626,17 +8630,17 @@
       <c r="E138" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F138" s="50"/>
-      <c r="G138" s="52"/>
-      <c r="H138" s="53"/>
-      <c r="I138" s="53"/>
-      <c r="J138" s="53"/>
-      <c r="K138" s="53"/>
-      <c r="L138" s="53"/>
-      <c r="M138" s="54"/>
+      <c r="F138" s="56"/>
+      <c r="G138" s="58"/>
+      <c r="H138" s="59"/>
+      <c r="I138" s="59"/>
+      <c r="J138" s="59"/>
+      <c r="K138" s="59"/>
+      <c r="L138" s="59"/>
+      <c r="M138" s="60"/>
       <c r="N138" s="26"/>
-      <c r="O138" s="64"/>
-      <c r="P138" s="73"/>
+      <c r="O138" s="74"/>
+      <c r="P138" s="53"/>
       <c r="Q138" s="13" t="s">
         <v>10</v>
       </c>
@@ -8646,18 +8650,18 @@
       <c r="S138" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T138" s="76"/>
-      <c r="U138" s="52"/>
-      <c r="V138" s="53"/>
-      <c r="W138" s="53"/>
-      <c r="X138" s="53"/>
-      <c r="Y138" s="53"/>
-      <c r="Z138" s="53"/>
-      <c r="AA138" s="54"/>
+      <c r="T138" s="65"/>
+      <c r="U138" s="58"/>
+      <c r="V138" s="59"/>
+      <c r="W138" s="59"/>
+      <c r="X138" s="59"/>
+      <c r="Y138" s="59"/>
+      <c r="Z138" s="59"/>
+      <c r="AA138" s="60"/>
     </row>
     <row r="139" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="64"/>
-      <c r="B139" s="73"/>
+      <c r="A139" s="74"/>
+      <c r="B139" s="53"/>
       <c r="C139" s="13" t="s">
         <v>10</v>
       </c>
@@ -8667,17 +8671,17 @@
       <c r="E139" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F139" s="50"/>
-      <c r="G139" s="52"/>
-      <c r="H139" s="53"/>
-      <c r="I139" s="53"/>
-      <c r="J139" s="53"/>
-      <c r="K139" s="53"/>
-      <c r="L139" s="53"/>
-      <c r="M139" s="54"/>
+      <c r="F139" s="56"/>
+      <c r="G139" s="58"/>
+      <c r="H139" s="59"/>
+      <c r="I139" s="59"/>
+      <c r="J139" s="59"/>
+      <c r="K139" s="59"/>
+      <c r="L139" s="59"/>
+      <c r="M139" s="60"/>
       <c r="N139" s="26"/>
-      <c r="O139" s="64"/>
-      <c r="P139" s="73"/>
+      <c r="O139" s="74"/>
+      <c r="P139" s="53"/>
       <c r="Q139" s="13" t="s">
         <v>10</v>
       </c>
@@ -8687,18 +8691,18 @@
       <c r="S139" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T139" s="76"/>
-      <c r="U139" s="52"/>
-      <c r="V139" s="53"/>
-      <c r="W139" s="53"/>
-      <c r="X139" s="53"/>
-      <c r="Y139" s="53"/>
-      <c r="Z139" s="53"/>
-      <c r="AA139" s="54"/>
+      <c r="T139" s="65"/>
+      <c r="U139" s="58"/>
+      <c r="V139" s="59"/>
+      <c r="W139" s="59"/>
+      <c r="X139" s="59"/>
+      <c r="Y139" s="59"/>
+      <c r="Z139" s="59"/>
+      <c r="AA139" s="60"/>
     </row>
     <row r="140" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="64"/>
-      <c r="B140" s="73"/>
+      <c r="A140" s="74"/>
+      <c r="B140" s="53"/>
       <c r="C140" s="13" t="s">
         <v>10</v>
       </c>
@@ -8708,17 +8712,17 @@
       <c r="E140" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F140" s="50"/>
-      <c r="G140" s="52"/>
-      <c r="H140" s="53"/>
-      <c r="I140" s="53"/>
-      <c r="J140" s="53"/>
-      <c r="K140" s="53"/>
-      <c r="L140" s="53"/>
-      <c r="M140" s="54"/>
+      <c r="F140" s="56"/>
+      <c r="G140" s="58"/>
+      <c r="H140" s="59"/>
+      <c r="I140" s="59"/>
+      <c r="J140" s="59"/>
+      <c r="K140" s="59"/>
+      <c r="L140" s="59"/>
+      <c r="M140" s="60"/>
       <c r="N140" s="26"/>
-      <c r="O140" s="64"/>
-      <c r="P140" s="73"/>
+      <c r="O140" s="74"/>
+      <c r="P140" s="53"/>
       <c r="Q140" s="13" t="s">
         <v>10</v>
       </c>
@@ -8728,18 +8732,18 @@
       <c r="S140" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T140" s="76"/>
-      <c r="U140" s="52"/>
-      <c r="V140" s="53"/>
-      <c r="W140" s="53"/>
-      <c r="X140" s="53"/>
-      <c r="Y140" s="53"/>
-      <c r="Z140" s="53"/>
-      <c r="AA140" s="54"/>
+      <c r="T140" s="65"/>
+      <c r="U140" s="58"/>
+      <c r="V140" s="59"/>
+      <c r="W140" s="59"/>
+      <c r="X140" s="59"/>
+      <c r="Y140" s="59"/>
+      <c r="Z140" s="59"/>
+      <c r="AA140" s="60"/>
     </row>
     <row r="141" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="65"/>
-      <c r="B141" s="74"/>
+      <c r="A141" s="75"/>
+      <c r="B141" s="54"/>
       <c r="C141" s="16" t="s">
         <v>10</v>
       </c>
@@ -8749,17 +8753,17 @@
       <c r="E141" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F141" s="51"/>
-      <c r="G141" s="58"/>
-      <c r="H141" s="59"/>
-      <c r="I141" s="59"/>
-      <c r="J141" s="59"/>
-      <c r="K141" s="59"/>
-      <c r="L141" s="59"/>
-      <c r="M141" s="60"/>
+      <c r="F141" s="57"/>
+      <c r="G141" s="61"/>
+      <c r="H141" s="62"/>
+      <c r="I141" s="62"/>
+      <c r="J141" s="62"/>
+      <c r="K141" s="62"/>
+      <c r="L141" s="62"/>
+      <c r="M141" s="63"/>
       <c r="N141" s="26"/>
-      <c r="O141" s="65"/>
-      <c r="P141" s="74"/>
+      <c r="O141" s="75"/>
+      <c r="P141" s="54"/>
       <c r="Q141" s="16" t="s">
         <v>10</v>
       </c>
@@ -8769,20 +8773,20 @@
       <c r="S141" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="T141" s="77"/>
-      <c r="U141" s="58"/>
-      <c r="V141" s="59"/>
-      <c r="W141" s="59"/>
-      <c r="X141" s="59"/>
-      <c r="Y141" s="59"/>
-      <c r="Z141" s="59"/>
-      <c r="AA141" s="60"/>
+      <c r="T141" s="66"/>
+      <c r="U141" s="61"/>
+      <c r="V141" s="62"/>
+      <c r="W141" s="62"/>
+      <c r="X141" s="62"/>
+      <c r="Y141" s="62"/>
+      <c r="Z141" s="62"/>
+      <c r="AA141" s="63"/>
     </row>
     <row r="142" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="63" t="s">
+      <c r="A142" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B142" s="72" t="s">
+      <c r="B142" s="52" t="s">
         <v>84</v>
       </c>
       <c r="C142" s="9" t="s">
@@ -8794,21 +8798,21 @@
       <c r="E142" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F142" s="49" t="s">
+      <c r="F142" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="G142" s="55"/>
-      <c r="H142" s="56"/>
-      <c r="I142" s="56"/>
-      <c r="J142" s="56"/>
-      <c r="K142" s="56"/>
-      <c r="L142" s="56"/>
-      <c r="M142" s="57"/>
+      <c r="G142" s="76"/>
+      <c r="H142" s="77"/>
+      <c r="I142" s="77"/>
+      <c r="J142" s="77"/>
+      <c r="K142" s="77"/>
+      <c r="L142" s="77"/>
+      <c r="M142" s="78"/>
       <c r="N142" s="26"/>
-      <c r="O142" s="63" t="s">
+      <c r="O142" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="P142" s="72" t="s">
+      <c r="P142" s="52" t="s">
         <v>85</v>
       </c>
       <c r="Q142" s="9" t="s">
@@ -8820,18 +8824,18 @@
       <c r="S142" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="T142" s="75"/>
-      <c r="U142" s="55"/>
-      <c r="V142" s="56"/>
-      <c r="W142" s="56"/>
-      <c r="X142" s="56"/>
-      <c r="Y142" s="56"/>
-      <c r="Z142" s="56"/>
-      <c r="AA142" s="57"/>
+      <c r="T142" s="64"/>
+      <c r="U142" s="76"/>
+      <c r="V142" s="77"/>
+      <c r="W142" s="77"/>
+      <c r="X142" s="77"/>
+      <c r="Y142" s="77"/>
+      <c r="Z142" s="77"/>
+      <c r="AA142" s="78"/>
     </row>
     <row r="143" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="64"/>
-      <c r="B143" s="73"/>
+      <c r="A143" s="74"/>
+      <c r="B143" s="53"/>
       <c r="C143" s="13" t="s">
         <v>10</v>
       </c>
@@ -8841,17 +8845,17 @@
       <c r="E143" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F143" s="50"/>
-      <c r="G143" s="52"/>
-      <c r="H143" s="53"/>
-      <c r="I143" s="53"/>
-      <c r="J143" s="53"/>
-      <c r="K143" s="53"/>
-      <c r="L143" s="53"/>
-      <c r="M143" s="54"/>
+      <c r="F143" s="56"/>
+      <c r="G143" s="58"/>
+      <c r="H143" s="59"/>
+      <c r="I143" s="59"/>
+      <c r="J143" s="59"/>
+      <c r="K143" s="59"/>
+      <c r="L143" s="59"/>
+      <c r="M143" s="60"/>
       <c r="N143" s="26"/>
-      <c r="O143" s="64"/>
-      <c r="P143" s="73"/>
+      <c r="O143" s="74"/>
+      <c r="P143" s="53"/>
       <c r="Q143" s="13" t="s">
         <v>10</v>
       </c>
@@ -8861,18 +8865,18 @@
       <c r="S143" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T143" s="76"/>
-      <c r="U143" s="52"/>
-      <c r="V143" s="53"/>
-      <c r="W143" s="53"/>
-      <c r="X143" s="53"/>
-      <c r="Y143" s="53"/>
-      <c r="Z143" s="53"/>
-      <c r="AA143" s="54"/>
+      <c r="T143" s="65"/>
+      <c r="U143" s="58"/>
+      <c r="V143" s="59"/>
+      <c r="W143" s="59"/>
+      <c r="X143" s="59"/>
+      <c r="Y143" s="59"/>
+      <c r="Z143" s="59"/>
+      <c r="AA143" s="60"/>
     </row>
     <row r="144" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="64"/>
-      <c r="B144" s="73"/>
+      <c r="A144" s="74"/>
+      <c r="B144" s="53"/>
       <c r="C144" s="13" t="s">
         <v>10</v>
       </c>
@@ -8882,17 +8886,17 @@
       <c r="E144" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F144" s="50"/>
-      <c r="G144" s="52"/>
-      <c r="H144" s="53"/>
-      <c r="I144" s="53"/>
-      <c r="J144" s="53"/>
-      <c r="K144" s="53"/>
-      <c r="L144" s="53"/>
-      <c r="M144" s="54"/>
+      <c r="F144" s="56"/>
+      <c r="G144" s="58"/>
+      <c r="H144" s="59"/>
+      <c r="I144" s="59"/>
+      <c r="J144" s="59"/>
+      <c r="K144" s="59"/>
+      <c r="L144" s="59"/>
+      <c r="M144" s="60"/>
       <c r="N144" s="26"/>
-      <c r="O144" s="64"/>
-      <c r="P144" s="73"/>
+      <c r="O144" s="74"/>
+      <c r="P144" s="53"/>
       <c r="Q144" s="13" t="s">
         <v>10</v>
       </c>
@@ -8902,18 +8906,18 @@
       <c r="S144" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T144" s="76"/>
-      <c r="U144" s="52"/>
-      <c r="V144" s="53"/>
-      <c r="W144" s="53"/>
-      <c r="X144" s="53"/>
-      <c r="Y144" s="53"/>
-      <c r="Z144" s="53"/>
-      <c r="AA144" s="54"/>
+      <c r="T144" s="65"/>
+      <c r="U144" s="58"/>
+      <c r="V144" s="59"/>
+      <c r="W144" s="59"/>
+      <c r="X144" s="59"/>
+      <c r="Y144" s="59"/>
+      <c r="Z144" s="59"/>
+      <c r="AA144" s="60"/>
     </row>
     <row r="145" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="64"/>
-      <c r="B145" s="73"/>
+      <c r="A145" s="74"/>
+      <c r="B145" s="53"/>
       <c r="C145" s="13" t="s">
         <v>10</v>
       </c>
@@ -8923,17 +8927,17 @@
       <c r="E145" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F145" s="50"/>
-      <c r="G145" s="52"/>
-      <c r="H145" s="53"/>
-      <c r="I145" s="53"/>
-      <c r="J145" s="53"/>
-      <c r="K145" s="53"/>
-      <c r="L145" s="53"/>
-      <c r="M145" s="54"/>
+      <c r="F145" s="56"/>
+      <c r="G145" s="58"/>
+      <c r="H145" s="59"/>
+      <c r="I145" s="59"/>
+      <c r="J145" s="59"/>
+      <c r="K145" s="59"/>
+      <c r="L145" s="59"/>
+      <c r="M145" s="60"/>
       <c r="N145" s="26"/>
-      <c r="O145" s="64"/>
-      <c r="P145" s="73"/>
+      <c r="O145" s="74"/>
+      <c r="P145" s="53"/>
       <c r="Q145" s="13" t="s">
         <v>10</v>
       </c>
@@ -8943,18 +8947,18 @@
       <c r="S145" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T145" s="76"/>
-      <c r="U145" s="52"/>
-      <c r="V145" s="53"/>
-      <c r="W145" s="53"/>
-      <c r="X145" s="53"/>
-      <c r="Y145" s="53"/>
-      <c r="Z145" s="53"/>
-      <c r="AA145" s="54"/>
+      <c r="T145" s="65"/>
+      <c r="U145" s="58"/>
+      <c r="V145" s="59"/>
+      <c r="W145" s="59"/>
+      <c r="X145" s="59"/>
+      <c r="Y145" s="59"/>
+      <c r="Z145" s="59"/>
+      <c r="AA145" s="60"/>
     </row>
     <row r="146" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="64"/>
-      <c r="B146" s="73"/>
+      <c r="A146" s="74"/>
+      <c r="B146" s="53"/>
       <c r="C146" s="13" t="s">
         <v>10</v>
       </c>
@@ -8964,17 +8968,17 @@
       <c r="E146" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F146" s="50"/>
-      <c r="G146" s="52"/>
-      <c r="H146" s="53"/>
-      <c r="I146" s="53"/>
-      <c r="J146" s="53"/>
-      <c r="K146" s="53"/>
-      <c r="L146" s="53"/>
-      <c r="M146" s="54"/>
+      <c r="F146" s="56"/>
+      <c r="G146" s="58"/>
+      <c r="H146" s="59"/>
+      <c r="I146" s="59"/>
+      <c r="J146" s="59"/>
+      <c r="K146" s="59"/>
+      <c r="L146" s="59"/>
+      <c r="M146" s="60"/>
       <c r="N146" s="26"/>
-      <c r="O146" s="64"/>
-      <c r="P146" s="73"/>
+      <c r="O146" s="74"/>
+      <c r="P146" s="53"/>
       <c r="Q146" s="13" t="s">
         <v>10</v>
       </c>
@@ -8984,18 +8988,18 @@
       <c r="S146" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T146" s="76"/>
-      <c r="U146" s="52"/>
-      <c r="V146" s="53"/>
-      <c r="W146" s="53"/>
-      <c r="X146" s="53"/>
-      <c r="Y146" s="53"/>
-      <c r="Z146" s="53"/>
-      <c r="AA146" s="54"/>
+      <c r="T146" s="65"/>
+      <c r="U146" s="58"/>
+      <c r="V146" s="59"/>
+      <c r="W146" s="59"/>
+      <c r="X146" s="59"/>
+      <c r="Y146" s="59"/>
+      <c r="Z146" s="59"/>
+      <c r="AA146" s="60"/>
     </row>
     <row r="147" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="64"/>
-      <c r="B147" s="73"/>
+      <c r="A147" s="74"/>
+      <c r="B147" s="53"/>
       <c r="C147" s="13" t="s">
         <v>10</v>
       </c>
@@ -9005,17 +9009,17 @@
       <c r="E147" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F147" s="50"/>
-      <c r="G147" s="52"/>
-      <c r="H147" s="53"/>
-      <c r="I147" s="53"/>
-      <c r="J147" s="53"/>
-      <c r="K147" s="53"/>
-      <c r="L147" s="53"/>
-      <c r="M147" s="54"/>
+      <c r="F147" s="56"/>
+      <c r="G147" s="58"/>
+      <c r="H147" s="59"/>
+      <c r="I147" s="59"/>
+      <c r="J147" s="59"/>
+      <c r="K147" s="59"/>
+      <c r="L147" s="59"/>
+      <c r="M147" s="60"/>
       <c r="N147" s="26"/>
-      <c r="O147" s="64"/>
-      <c r="P147" s="73"/>
+      <c r="O147" s="74"/>
+      <c r="P147" s="53"/>
       <c r="Q147" s="13" t="s">
         <v>10</v>
       </c>
@@ -9025,18 +9029,18 @@
       <c r="S147" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T147" s="76"/>
-      <c r="U147" s="52"/>
-      <c r="V147" s="53"/>
-      <c r="W147" s="53"/>
-      <c r="X147" s="53"/>
-      <c r="Y147" s="53"/>
-      <c r="Z147" s="53"/>
-      <c r="AA147" s="54"/>
+      <c r="T147" s="65"/>
+      <c r="U147" s="58"/>
+      <c r="V147" s="59"/>
+      <c r="W147" s="59"/>
+      <c r="X147" s="59"/>
+      <c r="Y147" s="59"/>
+      <c r="Z147" s="59"/>
+      <c r="AA147" s="60"/>
     </row>
     <row r="148" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="64"/>
-      <c r="B148" s="73"/>
+      <c r="A148" s="74"/>
+      <c r="B148" s="53"/>
       <c r="C148" s="13" t="s">
         <v>10</v>
       </c>
@@ -9046,17 +9050,17 @@
       <c r="E148" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F148" s="50"/>
-      <c r="G148" s="52"/>
-      <c r="H148" s="53"/>
-      <c r="I148" s="53"/>
-      <c r="J148" s="53"/>
-      <c r="K148" s="53"/>
-      <c r="L148" s="53"/>
-      <c r="M148" s="54"/>
+      <c r="F148" s="56"/>
+      <c r="G148" s="58"/>
+      <c r="H148" s="59"/>
+      <c r="I148" s="59"/>
+      <c r="J148" s="59"/>
+      <c r="K148" s="59"/>
+      <c r="L148" s="59"/>
+      <c r="M148" s="60"/>
       <c r="N148" s="26"/>
-      <c r="O148" s="64"/>
-      <c r="P148" s="73"/>
+      <c r="O148" s="74"/>
+      <c r="P148" s="53"/>
       <c r="Q148" s="13" t="s">
         <v>10</v>
       </c>
@@ -9066,18 +9070,18 @@
       <c r="S148" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T148" s="76"/>
-      <c r="U148" s="52"/>
-      <c r="V148" s="53"/>
-      <c r="W148" s="53"/>
-      <c r="X148" s="53"/>
-      <c r="Y148" s="53"/>
-      <c r="Z148" s="53"/>
-      <c r="AA148" s="54"/>
+      <c r="T148" s="65"/>
+      <c r="U148" s="58"/>
+      <c r="V148" s="59"/>
+      <c r="W148" s="59"/>
+      <c r="X148" s="59"/>
+      <c r="Y148" s="59"/>
+      <c r="Z148" s="59"/>
+      <c r="AA148" s="60"/>
     </row>
     <row r="149" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="65"/>
-      <c r="B149" s="74"/>
+      <c r="A149" s="75"/>
+      <c r="B149" s="54"/>
       <c r="C149" s="16" t="s">
         <v>10</v>
       </c>
@@ -9087,17 +9091,17 @@
       <c r="E149" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F149" s="51"/>
-      <c r="G149" s="58"/>
-      <c r="H149" s="59"/>
-      <c r="I149" s="59"/>
-      <c r="J149" s="59"/>
-      <c r="K149" s="59"/>
-      <c r="L149" s="59"/>
-      <c r="M149" s="60"/>
+      <c r="F149" s="57"/>
+      <c r="G149" s="61"/>
+      <c r="H149" s="62"/>
+      <c r="I149" s="62"/>
+      <c r="J149" s="62"/>
+      <c r="K149" s="62"/>
+      <c r="L149" s="62"/>
+      <c r="M149" s="63"/>
       <c r="N149" s="26"/>
-      <c r="O149" s="65"/>
-      <c r="P149" s="74"/>
+      <c r="O149" s="75"/>
+      <c r="P149" s="54"/>
       <c r="Q149" s="16" t="s">
         <v>10</v>
       </c>
@@ -9107,17 +9111,348 @@
       <c r="S149" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="T149" s="77"/>
-      <c r="U149" s="58"/>
-      <c r="V149" s="59"/>
-      <c r="W149" s="59"/>
-      <c r="X149" s="59"/>
-      <c r="Y149" s="59"/>
-      <c r="Z149" s="59"/>
-      <c r="AA149" s="60"/>
+      <c r="T149" s="66"/>
+      <c r="U149" s="61"/>
+      <c r="V149" s="62"/>
+      <c r="W149" s="62"/>
+      <c r="X149" s="62"/>
+      <c r="Y149" s="62"/>
+      <c r="Z149" s="62"/>
+      <c r="AA149" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="355">
+    <mergeCell ref="F142:F149"/>
+    <mergeCell ref="G138:M138"/>
+    <mergeCell ref="U129:AA129"/>
+    <mergeCell ref="U81:AA81"/>
+    <mergeCell ref="G137:M137"/>
+    <mergeCell ref="U128:AA128"/>
+    <mergeCell ref="U80:AA80"/>
+    <mergeCell ref="G136:M136"/>
+    <mergeCell ref="U143:AA143"/>
+    <mergeCell ref="U142:AA142"/>
+    <mergeCell ref="U141:AA141"/>
+    <mergeCell ref="G149:M149"/>
+    <mergeCell ref="U140:AA140"/>
+    <mergeCell ref="U135:AA135"/>
+    <mergeCell ref="G105:M105"/>
+    <mergeCell ref="U149:AA149"/>
+    <mergeCell ref="U148:AA148"/>
+    <mergeCell ref="G145:M145"/>
+    <mergeCell ref="U136:AA136"/>
+    <mergeCell ref="F110:F117"/>
+    <mergeCell ref="G106:M106"/>
+    <mergeCell ref="U87:AA87"/>
+    <mergeCell ref="F118:F125"/>
+    <mergeCell ref="G143:M143"/>
+    <mergeCell ref="U49:AA49"/>
+    <mergeCell ref="U146:AA146"/>
+    <mergeCell ref="G104:M104"/>
+    <mergeCell ref="U48:AA48"/>
+    <mergeCell ref="U145:AA145"/>
+    <mergeCell ref="G103:M103"/>
+    <mergeCell ref="U47:AA47"/>
+    <mergeCell ref="U144:AA144"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="U126:AA126"/>
+    <mergeCell ref="U102:AA102"/>
+    <mergeCell ref="O126:O133"/>
+    <mergeCell ref="G11:M11"/>
+    <mergeCell ref="A35:M36"/>
+    <mergeCell ref="G108:M108"/>
+    <mergeCell ref="U52:AA52"/>
+    <mergeCell ref="P110:P117"/>
+    <mergeCell ref="T94:T101"/>
+    <mergeCell ref="U90:AA90"/>
+    <mergeCell ref="G146:M146"/>
+    <mergeCell ref="U137:AA137"/>
+    <mergeCell ref="G107:M107"/>
+    <mergeCell ref="U51:AA51"/>
+    <mergeCell ref="U89:AA89"/>
+    <mergeCell ref="U50:AA50"/>
+    <mergeCell ref="B126:B133"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="U127:AA127"/>
+    <mergeCell ref="O26:O33"/>
+    <mergeCell ref="G58:M58"/>
+    <mergeCell ref="B78:B85"/>
+    <mergeCell ref="G102:M102"/>
+    <mergeCell ref="O70:O77"/>
+    <mergeCell ref="U46:AA46"/>
+    <mergeCell ref="A126:A133"/>
+    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="U93:AA93"/>
+    <mergeCell ref="U75:AA75"/>
+    <mergeCell ref="U73:AA73"/>
+    <mergeCell ref="G31:M31"/>
+    <mergeCell ref="U72:AA72"/>
+    <mergeCell ref="G128:M128"/>
+    <mergeCell ref="A54:A61"/>
+    <mergeCell ref="U71:AA71"/>
+    <mergeCell ref="G127:M127"/>
+    <mergeCell ref="O94:O101"/>
+    <mergeCell ref="U70:AA70"/>
+    <mergeCell ref="G126:M126"/>
+    <mergeCell ref="A1:AA3"/>
+    <mergeCell ref="U118:AA118"/>
+    <mergeCell ref="O142:O149"/>
+    <mergeCell ref="T118:T125"/>
+    <mergeCell ref="U114:AA114"/>
+    <mergeCell ref="P134:P141"/>
+    <mergeCell ref="G69:M69"/>
+    <mergeCell ref="U13:AA13"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="U110:AA110"/>
+    <mergeCell ref="O134:O141"/>
+    <mergeCell ref="T110:T117"/>
+    <mergeCell ref="U106:AA106"/>
+    <mergeCell ref="P126:P133"/>
+    <mergeCell ref="G33:M33"/>
+    <mergeCell ref="P94:P101"/>
+    <mergeCell ref="U74:AA74"/>
+    <mergeCell ref="F134:F141"/>
+    <mergeCell ref="G130:M130"/>
+    <mergeCell ref="T78:T85"/>
+    <mergeCell ref="G93:M93"/>
+    <mergeCell ref="U37:AA37"/>
+    <mergeCell ref="U134:AA134"/>
+    <mergeCell ref="U133:AA133"/>
+    <mergeCell ref="B134:B141"/>
+    <mergeCell ref="P78:P85"/>
+    <mergeCell ref="B94:B101"/>
+    <mergeCell ref="G74:M74"/>
+    <mergeCell ref="U18:AA18"/>
+    <mergeCell ref="F78:F85"/>
+    <mergeCell ref="G81:M81"/>
+    <mergeCell ref="U25:AA25"/>
+    <mergeCell ref="U122:AA122"/>
+    <mergeCell ref="T126:T133"/>
+    <mergeCell ref="U132:AA132"/>
+    <mergeCell ref="U131:AA131"/>
+    <mergeCell ref="T134:T141"/>
+    <mergeCell ref="U130:AA130"/>
+    <mergeCell ref="P102:P109"/>
+    <mergeCell ref="T86:T93"/>
+    <mergeCell ref="U82:AA82"/>
+    <mergeCell ref="G51:M51"/>
+    <mergeCell ref="U92:AA92"/>
+    <mergeCell ref="U139:AA139"/>
+    <mergeCell ref="O18:O25"/>
+    <mergeCell ref="G50:M50"/>
+    <mergeCell ref="U91:AA91"/>
+    <mergeCell ref="G97:M97"/>
+    <mergeCell ref="G142:M142"/>
+    <mergeCell ref="U85:AA85"/>
+    <mergeCell ref="G141:M141"/>
+    <mergeCell ref="U84:AA84"/>
+    <mergeCell ref="G140:M140"/>
+    <mergeCell ref="U83:AA83"/>
+    <mergeCell ref="G139:M139"/>
+    <mergeCell ref="G114:M114"/>
+    <mergeCell ref="P142:P149"/>
+    <mergeCell ref="G148:M148"/>
+    <mergeCell ref="G147:M147"/>
+    <mergeCell ref="T142:T149"/>
+    <mergeCell ref="U138:AA138"/>
+    <mergeCell ref="G135:M135"/>
+    <mergeCell ref="U147:AA147"/>
+    <mergeCell ref="U88:AA88"/>
+    <mergeCell ref="G144:M144"/>
+    <mergeCell ref="G94:M94"/>
+    <mergeCell ref="G132:M132"/>
+    <mergeCell ref="G131:M131"/>
+    <mergeCell ref="G129:M129"/>
+    <mergeCell ref="G125:M125"/>
+    <mergeCell ref="U41:AA41"/>
+    <mergeCell ref="U79:AA79"/>
+    <mergeCell ref="A118:A125"/>
+    <mergeCell ref="O62:O69"/>
+    <mergeCell ref="U38:AA38"/>
+    <mergeCell ref="A46:A53"/>
+    <mergeCell ref="G22:M22"/>
+    <mergeCell ref="G118:M118"/>
+    <mergeCell ref="O86:O93"/>
+    <mergeCell ref="U62:AA62"/>
+    <mergeCell ref="A78:A85"/>
+    <mergeCell ref="A86:A93"/>
+    <mergeCell ref="G121:M121"/>
+    <mergeCell ref="G120:M120"/>
+    <mergeCell ref="G119:M119"/>
+    <mergeCell ref="G101:M101"/>
+    <mergeCell ref="B102:B109"/>
+    <mergeCell ref="G100:M100"/>
+    <mergeCell ref="G99:M99"/>
+    <mergeCell ref="B118:B125"/>
+    <mergeCell ref="F102:F109"/>
+    <mergeCell ref="G98:M98"/>
+    <mergeCell ref="G95:M95"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A142:A149"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="G110:M110"/>
+    <mergeCell ref="O78:O85"/>
+    <mergeCell ref="U54:AA54"/>
+    <mergeCell ref="A134:A141"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="G122:M122"/>
+    <mergeCell ref="P86:P93"/>
+    <mergeCell ref="U66:AA66"/>
+    <mergeCell ref="B142:B149"/>
+    <mergeCell ref="F126:F133"/>
+    <mergeCell ref="O102:O109"/>
+    <mergeCell ref="U78:AA78"/>
+    <mergeCell ref="G134:M134"/>
+    <mergeCell ref="U77:AA77"/>
+    <mergeCell ref="G133:M133"/>
+    <mergeCell ref="U76:AA76"/>
+    <mergeCell ref="A38:A45"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G68:M68"/>
+    <mergeCell ref="G16:M16"/>
+    <mergeCell ref="G42:M42"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="G41:M41"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="G9:M9"/>
+    <mergeCell ref="G39:M39"/>
+    <mergeCell ref="O7:AA8"/>
+    <mergeCell ref="A7:M8"/>
+    <mergeCell ref="G80:M80"/>
+    <mergeCell ref="U24:AA24"/>
+    <mergeCell ref="G24:M24"/>
+    <mergeCell ref="G79:M79"/>
+    <mergeCell ref="U23:AA23"/>
+    <mergeCell ref="G23:M23"/>
+    <mergeCell ref="G77:M77"/>
+    <mergeCell ref="U21:AA21"/>
+    <mergeCell ref="G21:M21"/>
+    <mergeCell ref="G76:M76"/>
+    <mergeCell ref="U20:AA20"/>
+    <mergeCell ref="G20:M20"/>
+    <mergeCell ref="G75:M75"/>
+    <mergeCell ref="U19:AA19"/>
+    <mergeCell ref="U45:AA45"/>
+    <mergeCell ref="U28:AA28"/>
+    <mergeCell ref="U27:AA27"/>
+    <mergeCell ref="U12:AA12"/>
+    <mergeCell ref="G12:M12"/>
+    <mergeCell ref="B86:B93"/>
+    <mergeCell ref="G66:M66"/>
+    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="G10:M10"/>
+    <mergeCell ref="G65:M65"/>
+    <mergeCell ref="G84:M84"/>
+    <mergeCell ref="G83:M83"/>
+    <mergeCell ref="F86:F93"/>
+    <mergeCell ref="G82:M82"/>
+    <mergeCell ref="U26:AA26"/>
+    <mergeCell ref="U44:AA44"/>
+    <mergeCell ref="U43:AA43"/>
+    <mergeCell ref="U42:AA42"/>
+    <mergeCell ref="U39:AA39"/>
+    <mergeCell ref="G70:M70"/>
+    <mergeCell ref="U14:AA14"/>
+    <mergeCell ref="O38:O45"/>
+    <mergeCell ref="G67:M67"/>
+    <mergeCell ref="U11:AA11"/>
+    <mergeCell ref="G17:M17"/>
+    <mergeCell ref="G72:M72"/>
+    <mergeCell ref="U16:AA16"/>
+    <mergeCell ref="O10:O17"/>
+    <mergeCell ref="G73:M73"/>
+    <mergeCell ref="U17:AA17"/>
+    <mergeCell ref="G71:M71"/>
+    <mergeCell ref="U15:AA15"/>
+    <mergeCell ref="G15:M15"/>
+    <mergeCell ref="O35:AA36"/>
+    <mergeCell ref="U53:AA53"/>
+    <mergeCell ref="G53:M53"/>
+    <mergeCell ref="O46:O53"/>
+    <mergeCell ref="U22:AA22"/>
+    <mergeCell ref="G30:M30"/>
+    <mergeCell ref="G29:M29"/>
+    <mergeCell ref="G54:M54"/>
+    <mergeCell ref="G63:M63"/>
+    <mergeCell ref="G62:M62"/>
+    <mergeCell ref="G61:M61"/>
+    <mergeCell ref="G60:M60"/>
+    <mergeCell ref="G59:M59"/>
+    <mergeCell ref="G18:M18"/>
+    <mergeCell ref="U33:AA33"/>
+    <mergeCell ref="U32:AA32"/>
+    <mergeCell ref="U31:AA31"/>
+    <mergeCell ref="U29:AA29"/>
+    <mergeCell ref="A94:A101"/>
+    <mergeCell ref="G109:M109"/>
+    <mergeCell ref="A102:A109"/>
+    <mergeCell ref="G78:M78"/>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="G28:M28"/>
+    <mergeCell ref="G27:M27"/>
+    <mergeCell ref="G26:M26"/>
+    <mergeCell ref="G19:M19"/>
+    <mergeCell ref="U57:AA57"/>
+    <mergeCell ref="G112:M112"/>
+    <mergeCell ref="U56:AA56"/>
+    <mergeCell ref="G111:M111"/>
+    <mergeCell ref="U55:AA55"/>
+    <mergeCell ref="G57:M57"/>
+    <mergeCell ref="G56:M56"/>
+    <mergeCell ref="G55:M55"/>
+    <mergeCell ref="U65:AA65"/>
+    <mergeCell ref="U64:AA64"/>
+    <mergeCell ref="U63:AA63"/>
+    <mergeCell ref="G88:M88"/>
+    <mergeCell ref="G87:M87"/>
+    <mergeCell ref="G85:M85"/>
+    <mergeCell ref="U58:AA58"/>
+    <mergeCell ref="U69:AA69"/>
+    <mergeCell ref="O110:O117"/>
+    <mergeCell ref="U86:AA86"/>
+    <mergeCell ref="A110:A117"/>
+    <mergeCell ref="G86:M86"/>
+    <mergeCell ref="U30:AA30"/>
+    <mergeCell ref="O54:O61"/>
+    <mergeCell ref="G52:M52"/>
+    <mergeCell ref="G49:M49"/>
+    <mergeCell ref="G48:M48"/>
+    <mergeCell ref="G47:M47"/>
+    <mergeCell ref="A70:A77"/>
+    <mergeCell ref="G46:M46"/>
+    <mergeCell ref="G45:M45"/>
+    <mergeCell ref="G44:M44"/>
+    <mergeCell ref="G43:M43"/>
+    <mergeCell ref="G32:M32"/>
+    <mergeCell ref="G40:M40"/>
+    <mergeCell ref="A62:A69"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="U40:AA40"/>
+    <mergeCell ref="G117:M117"/>
+    <mergeCell ref="U61:AA61"/>
+    <mergeCell ref="G116:M116"/>
+    <mergeCell ref="U60:AA60"/>
+    <mergeCell ref="G115:M115"/>
+    <mergeCell ref="U59:AA59"/>
+    <mergeCell ref="G124:M124"/>
+    <mergeCell ref="U68:AA68"/>
+    <mergeCell ref="G123:M123"/>
+    <mergeCell ref="U67:AA67"/>
+    <mergeCell ref="G89:M89"/>
+    <mergeCell ref="O118:O125"/>
+    <mergeCell ref="U94:AA94"/>
+    <mergeCell ref="G92:M92"/>
+    <mergeCell ref="G91:M91"/>
+    <mergeCell ref="U124:AA124"/>
+    <mergeCell ref="U123:AA123"/>
+    <mergeCell ref="U121:AA121"/>
+    <mergeCell ref="U120:AA120"/>
+    <mergeCell ref="U119:AA119"/>
+    <mergeCell ref="U117:AA117"/>
+    <mergeCell ref="U116:AA116"/>
+    <mergeCell ref="U115:AA115"/>
+    <mergeCell ref="G113:M113"/>
     <mergeCell ref="B110:B117"/>
     <mergeCell ref="F94:F101"/>
     <mergeCell ref="G90:M90"/>
@@ -9142,337 +9477,6 @@
     <mergeCell ref="U104:AA104"/>
     <mergeCell ref="U103:AA103"/>
     <mergeCell ref="U125:AA125"/>
-    <mergeCell ref="G124:M124"/>
-    <mergeCell ref="U68:AA68"/>
-    <mergeCell ref="G123:M123"/>
-    <mergeCell ref="U67:AA67"/>
-    <mergeCell ref="G89:M89"/>
-    <mergeCell ref="O118:O125"/>
-    <mergeCell ref="U94:AA94"/>
-    <mergeCell ref="G92:M92"/>
-    <mergeCell ref="G91:M91"/>
-    <mergeCell ref="U124:AA124"/>
-    <mergeCell ref="U123:AA123"/>
-    <mergeCell ref="U121:AA121"/>
-    <mergeCell ref="U120:AA120"/>
-    <mergeCell ref="U119:AA119"/>
-    <mergeCell ref="U117:AA117"/>
-    <mergeCell ref="U116:AA116"/>
-    <mergeCell ref="U115:AA115"/>
-    <mergeCell ref="G113:M113"/>
-    <mergeCell ref="A110:A117"/>
-    <mergeCell ref="G86:M86"/>
-    <mergeCell ref="U30:AA30"/>
-    <mergeCell ref="O54:O61"/>
-    <mergeCell ref="G52:M52"/>
-    <mergeCell ref="G49:M49"/>
-    <mergeCell ref="G48:M48"/>
-    <mergeCell ref="G47:M47"/>
-    <mergeCell ref="A70:A77"/>
-    <mergeCell ref="G46:M46"/>
-    <mergeCell ref="G45:M45"/>
-    <mergeCell ref="G44:M44"/>
-    <mergeCell ref="G43:M43"/>
-    <mergeCell ref="G32:M32"/>
-    <mergeCell ref="G40:M40"/>
-    <mergeCell ref="A62:A69"/>
-    <mergeCell ref="G38:M38"/>
-    <mergeCell ref="U40:AA40"/>
-    <mergeCell ref="G117:M117"/>
-    <mergeCell ref="U61:AA61"/>
-    <mergeCell ref="G116:M116"/>
-    <mergeCell ref="U60:AA60"/>
-    <mergeCell ref="G115:M115"/>
-    <mergeCell ref="U59:AA59"/>
-    <mergeCell ref="U57:AA57"/>
-    <mergeCell ref="G112:M112"/>
-    <mergeCell ref="U56:AA56"/>
-    <mergeCell ref="G111:M111"/>
-    <mergeCell ref="U55:AA55"/>
-    <mergeCell ref="G57:M57"/>
-    <mergeCell ref="G56:M56"/>
-    <mergeCell ref="G55:M55"/>
-    <mergeCell ref="U65:AA65"/>
-    <mergeCell ref="U64:AA64"/>
-    <mergeCell ref="U63:AA63"/>
-    <mergeCell ref="G88:M88"/>
-    <mergeCell ref="G87:M87"/>
-    <mergeCell ref="G85:M85"/>
-    <mergeCell ref="U58:AA58"/>
-    <mergeCell ref="U69:AA69"/>
-    <mergeCell ref="A94:A101"/>
-    <mergeCell ref="G109:M109"/>
-    <mergeCell ref="A102:A109"/>
-    <mergeCell ref="G78:M78"/>
-    <mergeCell ref="G37:M37"/>
-    <mergeCell ref="G28:M28"/>
-    <mergeCell ref="G27:M27"/>
-    <mergeCell ref="G26:M26"/>
-    <mergeCell ref="G19:M19"/>
-    <mergeCell ref="O10:O17"/>
-    <mergeCell ref="G73:M73"/>
-    <mergeCell ref="U17:AA17"/>
-    <mergeCell ref="G71:M71"/>
-    <mergeCell ref="U15:AA15"/>
-    <mergeCell ref="G15:M15"/>
-    <mergeCell ref="O35:AA36"/>
-    <mergeCell ref="U53:AA53"/>
-    <mergeCell ref="G53:M53"/>
-    <mergeCell ref="O46:O53"/>
-    <mergeCell ref="U22:AA22"/>
-    <mergeCell ref="G30:M30"/>
-    <mergeCell ref="G29:M29"/>
-    <mergeCell ref="G54:M54"/>
-    <mergeCell ref="G63:M63"/>
-    <mergeCell ref="G62:M62"/>
-    <mergeCell ref="G61:M61"/>
-    <mergeCell ref="G60:M60"/>
-    <mergeCell ref="G59:M59"/>
-    <mergeCell ref="G18:M18"/>
-    <mergeCell ref="U33:AA33"/>
-    <mergeCell ref="U32:AA32"/>
-    <mergeCell ref="U31:AA31"/>
-    <mergeCell ref="U29:AA29"/>
-    <mergeCell ref="U12:AA12"/>
-    <mergeCell ref="G12:M12"/>
-    <mergeCell ref="B86:B93"/>
-    <mergeCell ref="G66:M66"/>
-    <mergeCell ref="U10:AA10"/>
-    <mergeCell ref="G10:M10"/>
-    <mergeCell ref="G65:M65"/>
-    <mergeCell ref="G84:M84"/>
-    <mergeCell ref="G83:M83"/>
-    <mergeCell ref="F86:F93"/>
-    <mergeCell ref="G82:M82"/>
-    <mergeCell ref="U26:AA26"/>
-    <mergeCell ref="U44:AA44"/>
-    <mergeCell ref="U43:AA43"/>
-    <mergeCell ref="U42:AA42"/>
-    <mergeCell ref="U39:AA39"/>
-    <mergeCell ref="G70:M70"/>
-    <mergeCell ref="U14:AA14"/>
-    <mergeCell ref="O38:O45"/>
-    <mergeCell ref="G67:M67"/>
-    <mergeCell ref="U11:AA11"/>
-    <mergeCell ref="G17:M17"/>
-    <mergeCell ref="G72:M72"/>
-    <mergeCell ref="U16:AA16"/>
-    <mergeCell ref="U9:AA9"/>
-    <mergeCell ref="G41:M41"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="G9:M9"/>
-    <mergeCell ref="G39:M39"/>
-    <mergeCell ref="O7:AA8"/>
-    <mergeCell ref="A7:M8"/>
-    <mergeCell ref="G80:M80"/>
-    <mergeCell ref="U24:AA24"/>
-    <mergeCell ref="G24:M24"/>
-    <mergeCell ref="G79:M79"/>
-    <mergeCell ref="U23:AA23"/>
-    <mergeCell ref="G23:M23"/>
-    <mergeCell ref="G77:M77"/>
-    <mergeCell ref="U21:AA21"/>
-    <mergeCell ref="G21:M21"/>
-    <mergeCell ref="G76:M76"/>
-    <mergeCell ref="U20:AA20"/>
-    <mergeCell ref="G20:M20"/>
-    <mergeCell ref="G75:M75"/>
-    <mergeCell ref="U19:AA19"/>
-    <mergeCell ref="U45:AA45"/>
-    <mergeCell ref="U28:AA28"/>
-    <mergeCell ref="U27:AA27"/>
-    <mergeCell ref="A142:A149"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="G110:M110"/>
-    <mergeCell ref="O78:O85"/>
-    <mergeCell ref="U54:AA54"/>
-    <mergeCell ref="A134:A141"/>
-    <mergeCell ref="G25:M25"/>
-    <mergeCell ref="G122:M122"/>
-    <mergeCell ref="P86:P93"/>
-    <mergeCell ref="U66:AA66"/>
-    <mergeCell ref="B142:B149"/>
-    <mergeCell ref="F126:F133"/>
-    <mergeCell ref="O102:O109"/>
-    <mergeCell ref="U78:AA78"/>
-    <mergeCell ref="G134:M134"/>
-    <mergeCell ref="U77:AA77"/>
-    <mergeCell ref="G133:M133"/>
-    <mergeCell ref="U76:AA76"/>
-    <mergeCell ref="A38:A45"/>
-    <mergeCell ref="G14:M14"/>
-    <mergeCell ref="G68:M68"/>
-    <mergeCell ref="G16:M16"/>
-    <mergeCell ref="G42:M42"/>
-    <mergeCell ref="U41:AA41"/>
-    <mergeCell ref="U79:AA79"/>
-    <mergeCell ref="A118:A125"/>
-    <mergeCell ref="O62:O69"/>
-    <mergeCell ref="U38:AA38"/>
-    <mergeCell ref="A46:A53"/>
-    <mergeCell ref="G22:M22"/>
-    <mergeCell ref="G118:M118"/>
-    <mergeCell ref="O86:O93"/>
-    <mergeCell ref="U62:AA62"/>
-    <mergeCell ref="A78:A85"/>
-    <mergeCell ref="A86:A93"/>
-    <mergeCell ref="G121:M121"/>
-    <mergeCell ref="G120:M120"/>
-    <mergeCell ref="G119:M119"/>
-    <mergeCell ref="G101:M101"/>
-    <mergeCell ref="B102:B109"/>
-    <mergeCell ref="G100:M100"/>
-    <mergeCell ref="G99:M99"/>
-    <mergeCell ref="B118:B125"/>
-    <mergeCell ref="F102:F109"/>
-    <mergeCell ref="G98:M98"/>
-    <mergeCell ref="G95:M95"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="O110:O117"/>
-    <mergeCell ref="U86:AA86"/>
-    <mergeCell ref="G142:M142"/>
-    <mergeCell ref="U85:AA85"/>
-    <mergeCell ref="G141:M141"/>
-    <mergeCell ref="U84:AA84"/>
-    <mergeCell ref="G140:M140"/>
-    <mergeCell ref="U83:AA83"/>
-    <mergeCell ref="G139:M139"/>
-    <mergeCell ref="G114:M114"/>
-    <mergeCell ref="P142:P149"/>
-    <mergeCell ref="G148:M148"/>
-    <mergeCell ref="G147:M147"/>
-    <mergeCell ref="T142:T149"/>
-    <mergeCell ref="U138:AA138"/>
-    <mergeCell ref="G135:M135"/>
-    <mergeCell ref="U147:AA147"/>
-    <mergeCell ref="U88:AA88"/>
-    <mergeCell ref="G144:M144"/>
-    <mergeCell ref="G94:M94"/>
-    <mergeCell ref="G132:M132"/>
-    <mergeCell ref="G131:M131"/>
-    <mergeCell ref="G129:M129"/>
-    <mergeCell ref="G125:M125"/>
-    <mergeCell ref="B134:B141"/>
-    <mergeCell ref="P78:P85"/>
-    <mergeCell ref="B94:B101"/>
-    <mergeCell ref="G74:M74"/>
-    <mergeCell ref="U18:AA18"/>
-    <mergeCell ref="F78:F85"/>
-    <mergeCell ref="G81:M81"/>
-    <mergeCell ref="U25:AA25"/>
-    <mergeCell ref="U122:AA122"/>
-    <mergeCell ref="T126:T133"/>
-    <mergeCell ref="U132:AA132"/>
-    <mergeCell ref="U131:AA131"/>
-    <mergeCell ref="T134:T141"/>
-    <mergeCell ref="U130:AA130"/>
-    <mergeCell ref="P102:P109"/>
-    <mergeCell ref="T86:T93"/>
-    <mergeCell ref="U82:AA82"/>
-    <mergeCell ref="G51:M51"/>
-    <mergeCell ref="U92:AA92"/>
-    <mergeCell ref="U139:AA139"/>
-    <mergeCell ref="O18:O25"/>
-    <mergeCell ref="G50:M50"/>
-    <mergeCell ref="U91:AA91"/>
-    <mergeCell ref="G97:M97"/>
-    <mergeCell ref="A1:AA3"/>
-    <mergeCell ref="U118:AA118"/>
-    <mergeCell ref="O142:O149"/>
-    <mergeCell ref="T118:T125"/>
-    <mergeCell ref="U114:AA114"/>
-    <mergeCell ref="P134:P141"/>
-    <mergeCell ref="G69:M69"/>
-    <mergeCell ref="U13:AA13"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="U110:AA110"/>
-    <mergeCell ref="O134:O141"/>
-    <mergeCell ref="T110:T117"/>
-    <mergeCell ref="U106:AA106"/>
-    <mergeCell ref="P126:P133"/>
-    <mergeCell ref="G33:M33"/>
-    <mergeCell ref="P94:P101"/>
-    <mergeCell ref="U74:AA74"/>
-    <mergeCell ref="F134:F141"/>
-    <mergeCell ref="G130:M130"/>
-    <mergeCell ref="T78:T85"/>
-    <mergeCell ref="G93:M93"/>
-    <mergeCell ref="U37:AA37"/>
-    <mergeCell ref="U134:AA134"/>
-    <mergeCell ref="U133:AA133"/>
-    <mergeCell ref="U50:AA50"/>
-    <mergeCell ref="B126:B133"/>
-    <mergeCell ref="A10:A17"/>
-    <mergeCell ref="U127:AA127"/>
-    <mergeCell ref="O26:O33"/>
-    <mergeCell ref="G58:M58"/>
-    <mergeCell ref="B78:B85"/>
-    <mergeCell ref="G102:M102"/>
-    <mergeCell ref="O70:O77"/>
-    <mergeCell ref="U46:AA46"/>
-    <mergeCell ref="A126:A133"/>
-    <mergeCell ref="A26:A33"/>
-    <mergeCell ref="U93:AA93"/>
-    <mergeCell ref="U75:AA75"/>
-    <mergeCell ref="U73:AA73"/>
-    <mergeCell ref="G31:M31"/>
-    <mergeCell ref="U72:AA72"/>
-    <mergeCell ref="G128:M128"/>
-    <mergeCell ref="A54:A61"/>
-    <mergeCell ref="U71:AA71"/>
-    <mergeCell ref="G127:M127"/>
-    <mergeCell ref="O94:O101"/>
-    <mergeCell ref="U70:AA70"/>
-    <mergeCell ref="G126:M126"/>
-    <mergeCell ref="U49:AA49"/>
-    <mergeCell ref="U146:AA146"/>
-    <mergeCell ref="G104:M104"/>
-    <mergeCell ref="U48:AA48"/>
-    <mergeCell ref="U145:AA145"/>
-    <mergeCell ref="G103:M103"/>
-    <mergeCell ref="U47:AA47"/>
-    <mergeCell ref="U144:AA144"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="U126:AA126"/>
-    <mergeCell ref="U102:AA102"/>
-    <mergeCell ref="O126:O133"/>
-    <mergeCell ref="G11:M11"/>
-    <mergeCell ref="A35:M36"/>
-    <mergeCell ref="G108:M108"/>
-    <mergeCell ref="U52:AA52"/>
-    <mergeCell ref="P110:P117"/>
-    <mergeCell ref="T94:T101"/>
-    <mergeCell ref="U90:AA90"/>
-    <mergeCell ref="G146:M146"/>
-    <mergeCell ref="U137:AA137"/>
-    <mergeCell ref="G107:M107"/>
-    <mergeCell ref="U51:AA51"/>
-    <mergeCell ref="U89:AA89"/>
-    <mergeCell ref="F142:F149"/>
-    <mergeCell ref="G138:M138"/>
-    <mergeCell ref="U129:AA129"/>
-    <mergeCell ref="U81:AA81"/>
-    <mergeCell ref="G137:M137"/>
-    <mergeCell ref="U128:AA128"/>
-    <mergeCell ref="U80:AA80"/>
-    <mergeCell ref="G136:M136"/>
-    <mergeCell ref="U143:AA143"/>
-    <mergeCell ref="U142:AA142"/>
-    <mergeCell ref="U141:AA141"/>
-    <mergeCell ref="G149:M149"/>
-    <mergeCell ref="U140:AA140"/>
-    <mergeCell ref="U135:AA135"/>
-    <mergeCell ref="G105:M105"/>
-    <mergeCell ref="U149:AA149"/>
-    <mergeCell ref="U148:AA148"/>
-    <mergeCell ref="G145:M145"/>
-    <mergeCell ref="U136:AA136"/>
-    <mergeCell ref="F110:F117"/>
-    <mergeCell ref="G106:M106"/>
-    <mergeCell ref="U87:AA87"/>
-    <mergeCell ref="F118:F125"/>
-    <mergeCell ref="G143:M143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740200000000005" bottom="0.78740200000000005" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -9483,7 +9487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IV58"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -9501,34 +9505,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="str">
+      <c r="A1" s="113" t="str">
         <f>Signaly!A1</f>
         <v>Madeta 1</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
+      <c r="A2" s="114"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="93"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
+      <c r="A3" s="114"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
     </row>
     <row r="4" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -9549,17 +9553,17 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="82"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="90"/>
       <c r="E6" s="26"/>
-      <c r="F6" s="81" t="s">
+      <c r="F6" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="G6" s="82"/>
+      <c r="G6" s="90"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
